--- a/techniqo/candlepattern/nifty_50.xlsx
+++ b/techniqo/candlepattern/nifty_50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\Websitee\techniqo\candlepattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\webend\techniqo\candlepattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,38 +840,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>341.35</v>
+        <v>345</v>
       </c>
       <c r="C2">
-        <v>344.05</v>
+        <v>353.6</v>
       </c>
       <c r="D2">
-        <v>339.1</v>
+        <v>343.45</v>
       </c>
       <c r="E2">
-        <v>342.65</v>
+        <v>351.65</v>
       </c>
       <c r="F2">
-        <v>-0.55000000000001137</v>
+        <v>9.1499999999999773</v>
       </c>
       <c r="G2">
-        <v>-0.1602564102564136</v>
+        <v>2.6715328467153219</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>0.38084077925881188</v>
+        <v>1.9275362318840514</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>0.38084077925881188</v>
+        <v>1.9275362318840514</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.40858018386109274</v>
+        <v>0.55452865064696311</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.65914750256335142</v>
+        <v>0.44927536231884385</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="T2">
-        <v>349</v>
+        <v>343.9</v>
       </c>
       <c r="U2">
-        <v>339.6</v>
+        <v>333.45</v>
       </c>
       <c r="V2">
-        <v>343.2</v>
+        <v>342.5</v>
       </c>
       <c r="W2">
-        <v>-0.80000000000001137</v>
+        <v>0.89999999999997726</v>
       </c>
       <c r="X2">
-        <v>-0.23255813953488699</v>
+        <v>0.26346604215455999</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-1.3793103448275894</v>
+        <v>0.43988269794721413</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>1.3793103448275894</v>
+        <v>0.43988269794721413</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.28735632183908044</v>
+        <v>0.40875912408758458</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>1.0489510489510392</v>
+        <v>2.2140762463343142</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>349.8</v>
+        <v>346</v>
       </c>
       <c r="AJ2">
-        <v>351.5</v>
+        <v>348.95</v>
       </c>
       <c r="AK2">
-        <v>342.2</v>
+        <v>336.6</v>
       </c>
       <c r="AL2">
-        <v>344</v>
+        <v>341.6</v>
       </c>
       <c r="AM2">
-        <v>-7.8500000000000227</v>
+        <v>-2.25</v>
       </c>
       <c r="AN2">
-        <v>-2.231064374023028</v>
+        <v>-0.65435509669914205</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>-1.6580903373356235</v>
+        <v>-1.2716763005780281</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>1.6580903373356235</v>
+        <v>1.2716763005780281</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>0.48599199542595445</v>
+        <v>0.85260115606936093</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.52325581395349163</v>
+        <v>1.4637002341920373</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>1687</v>
+        <v>2050</v>
       </c>
       <c r="C3">
-        <v>1708.45</v>
+        <v>2054</v>
       </c>
       <c r="D3">
-        <v>1674.05</v>
+        <v>2005</v>
       </c>
       <c r="E3">
-        <v>1691.95</v>
+        <v>2031.2</v>
       </c>
       <c r="F3">
-        <v>5.2000000000000446</v>
+        <v>-4.75</v>
       </c>
       <c r="G3">
-        <v>0.30828516377649601</v>
+        <v>-0.2333063189174587</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>0.29342027267338738</v>
+        <v>-0.91707317073170513</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>0.29342027267338738</v>
+        <v>0.91707317073170513</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>0.97520612311238508</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>0.76763485477178695</v>
+        <v>1.2898779046868867</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>1710</v>
+        <v>2063</v>
       </c>
       <c r="T3">
-        <v>1710.35</v>
+        <v>2069.9499999999998</v>
       </c>
       <c r="U3">
-        <v>1670.7</v>
+        <v>2022</v>
       </c>
       <c r="V3">
-        <v>1686.75</v>
+        <v>2035.95</v>
       </c>
       <c r="W3">
-        <v>-2.25</v>
+        <v>-20.60000000000014</v>
       </c>
       <c r="X3">
-        <v>-0.13321492007104799</v>
+        <v>-1.001677566798771</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3596491228070176</v>
+        <v>-1.3111972855065417</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>1.3596491228070176</v>
+        <v>1.3111972855065417</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>2.0467836257304622E-2</v>
+        <v>0.33688802714492577</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>0.95153401511782754</v>
+        <v>0.68518382082074925</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>1740</v>
+        <v>1985.05</v>
       </c>
       <c r="AJ3">
-        <v>1747</v>
+        <v>2069.6999999999998</v>
       </c>
       <c r="AK3">
-        <v>1683.15</v>
+        <v>1981</v>
       </c>
       <c r="AL3">
-        <v>1689</v>
+        <v>2056.5500000000002</v>
       </c>
       <c r="AM3">
-        <v>-58.25</v>
+        <v>77.500000000000227</v>
       </c>
       <c r="AN3">
-        <v>-3.3338102732865931</v>
+        <v>3.916020312776344</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>-2.9310344827586206</v>
+        <v>3.6019243847762139</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>2.9310344827586206</v>
+        <v>3.6019243847762139</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>0.40229885057471265</v>
+        <v>0.63942038851472782</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>0.34635879218471932</v>
+        <v>0.20402508752927909</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="C4">
-        <v>415.8</v>
+        <v>455</v>
       </c>
       <c r="D4">
-        <v>402.35</v>
+        <v>438</v>
       </c>
       <c r="E4">
-        <v>404.8</v>
+        <v>440.55</v>
       </c>
       <c r="F4">
-        <v>-20.050000000000011</v>
+        <v>-6.6499999999999773</v>
       </c>
       <c r="G4">
-        <v>-4.7193126985995084</v>
+        <v>-1.4870304114490109</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4578313253012021</v>
+        <v>-2.5331858407079624</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>2.4578313253012021</v>
+        <v>2.5331858407079624</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>0.19277108433735216</v>
+        <v>0.66371681415929207</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>0.60523715415019486</v>
+        <v>0.57882192713653635</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="T4">
-        <v>428.75</v>
+        <v>449.85</v>
       </c>
       <c r="U4">
-        <v>418</v>
+        <v>439.25</v>
       </c>
       <c r="V4">
-        <v>424.85</v>
+        <v>447.2</v>
       </c>
       <c r="W4">
-        <v>3.1500000000000341</v>
+        <v>0.34999999999996589</v>
       </c>
       <c r="X4">
-        <v>0.74697652359498079</v>
+        <v>7.8326060199164341E-2</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>-0.26995305164318717</v>
+        <v>0.26905829596412301</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>0.26995305164318717</v>
+        <v>0.26905829596412301</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>0.64553990610328638</v>
+        <v>0.59257602862254788</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>1.6123337648581906</v>
+        <v>1.5134529147982063</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="AF4" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG4" s="1" t="str">
         <f t="shared" si="19"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>419</v>
+        <v>436.45</v>
       </c>
       <c r="AJ4">
-        <v>428.7</v>
+        <v>448.7</v>
       </c>
       <c r="AK4">
-        <v>410.35</v>
+        <v>430.75</v>
       </c>
       <c r="AL4">
-        <v>421.7</v>
+        <v>446.85</v>
       </c>
       <c r="AM4">
-        <v>-2.9499999999999891</v>
+        <v>15.600000000000019</v>
       </c>
       <c r="AN4">
-        <v>-0.69468974449546417</v>
+        <v>3.617391304347831</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>0.64439140811455575</v>
+        <v>2.3828617252835453</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>0.64439140811455575</v>
+        <v>2.3828617252835453</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>1.6599478302110504</v>
+        <v>0.41400917533847281</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>2.0644391408114506</v>
+        <v>1.3059915225111671</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="AV4" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW4" t="str">
         <f t="shared" si="29"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>2825</v>
+        <v>2922</v>
       </c>
       <c r="C5">
-        <v>2870</v>
+        <v>2988</v>
       </c>
       <c r="D5">
-        <v>2815</v>
+        <v>2895</v>
       </c>
       <c r="E5">
-        <v>2859.5</v>
+        <v>2957.7</v>
       </c>
       <c r="F5">
-        <v>-8.0999999999999091</v>
+        <v>41.349999999999909</v>
       </c>
       <c r="G5">
-        <v>-0.28246617380387462</v>
+        <v>1.4178682256930719</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2212389380530975</v>
+        <v>1.2217659137576939</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>1.2212389380530975</v>
+        <v>1.2217659137576939</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>0.36719706242350064</v>
+        <v>1.024444669844818</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.35398230088495575</v>
+        <v>0.92402464065708423</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>2853.7</v>
+        <v>2914</v>
       </c>
       <c r="T5">
-        <v>2900</v>
+        <v>2941.95</v>
       </c>
       <c r="U5">
-        <v>2825</v>
+        <v>2903.9</v>
       </c>
       <c r="V5">
-        <v>2867.6</v>
+        <v>2916.35</v>
       </c>
       <c r="W5">
-        <v>47.150000000000091</v>
+        <v>1.6500000000000909</v>
       </c>
       <c r="X5">
-        <v>1.671719051924341</v>
+        <v>5.6609599615744022E-2</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>0.48708693976241696</v>
+        <v>8.0645161290319456E-2</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>0.48708693976241696</v>
+        <v>8.0645161290319456E-2</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>1.1298646952155145</v>
+        <v>0.87780959075556464</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>1.0057118828187903</v>
+        <v>0.34660260809883009</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>2789.8</v>
+        <v>2917.1</v>
       </c>
       <c r="AJ5">
-        <v>2890</v>
+        <v>2924.35</v>
       </c>
       <c r="AK5">
-        <v>2772.7</v>
+        <v>2871.5</v>
       </c>
       <c r="AL5">
-        <v>2820.45</v>
+        <v>2914.7</v>
       </c>
       <c r="AM5">
-        <v>3.1999999999998181</v>
+        <v>4.5499999999997272</v>
       </c>
       <c r="AN5">
-        <v>0.1135859437394558</v>
+        <v>0.1563493290723752</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>1.0986450641622925</v>
+        <v>-8.2273490795656337E-2</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>1.0986450641622925</v>
+        <v>8.2273490795656337E-2</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>2.4659185590951864</v>
+        <v>0.24853450344520245</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>0.6129471646713156</v>
+        <v>1.4821422444848464</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>2834</v>
+        <v>3557</v>
       </c>
       <c r="C6">
-        <v>2894.45</v>
+        <v>3575.05</v>
       </c>
       <c r="D6">
-        <v>2770</v>
+        <v>3420</v>
       </c>
       <c r="E6">
-        <v>2857.95</v>
+        <v>3440.7</v>
       </c>
       <c r="F6">
-        <v>-45.550000000000182</v>
+        <v>-103.7000000000003</v>
       </c>
       <c r="G6">
-        <v>-1.568796280351306</v>
+        <v>-2.9257420155738711</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.84509527170076992</v>
+        <v>-3.2696092212538703</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0.84509527170076992</v>
+        <v>3.2696092212538703</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>1.277139208173691</v>
+        <v>0.50745009839753108</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>2.2582921665490474</v>
+        <v>0.60162176301333503</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>3042.5</v>
+        <v>3490</v>
       </c>
       <c r="T6">
-        <v>3058.8</v>
+        <v>3557.7</v>
       </c>
       <c r="U6">
-        <v>2872.05</v>
+        <v>3456.7</v>
       </c>
       <c r="V6">
-        <v>2903.5</v>
+        <v>3544.4</v>
       </c>
       <c r="W6">
-        <v>-101.84999999999989</v>
+        <v>45.700000000000273</v>
       </c>
       <c r="X6">
-        <v>-3.3889563611559361</v>
+        <v>1.306199445508339</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>-4.5686113393590801</v>
+        <v>1.5587392550143293</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>4.5686113393590801</v>
+        <v>1.5587392550143293</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>0.53574363188168217</v>
+        <v>0.37523981491930158</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>1.0831754778715281</v>
+        <v>0.95415472779370147</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="AF6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG6" s="1" t="str">
         <f t="shared" si="19"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>2878.05</v>
+        <v>3456.5</v>
       </c>
       <c r="AJ6">
-        <v>3046</v>
+        <v>3523.45</v>
       </c>
       <c r="AK6">
-        <v>2851</v>
+        <v>3418</v>
       </c>
       <c r="AL6">
-        <v>3005.35</v>
+        <v>3498.7</v>
       </c>
       <c r="AM6">
-        <v>70.900000000000091</v>
+        <v>75.849999999999909</v>
       </c>
       <c r="AN6">
-        <v>2.4161256794288568</v>
+        <v>2.2159895993105141</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>4.4231337190111262</v>
+        <v>1.2208881816866719</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>4.4231337190111262</v>
+        <v>1.2208881816866719</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>1.3525878849385293</v>
+        <v>0.70740560779718187</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>0.93987248310488625</v>
+        <v>1.1138434832923478</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>5832</v>
+        <v>6158</v>
       </c>
       <c r="C7">
-        <v>5937.3</v>
+        <v>6194</v>
       </c>
       <c r="D7">
-        <v>5751.3</v>
+        <v>6091</v>
       </c>
       <c r="E7">
-        <v>5890.2</v>
+        <v>6112.15</v>
       </c>
       <c r="F7">
-        <v>-56.100000000000357</v>
+        <v>-16.25</v>
       </c>
       <c r="G7">
-        <v>-0.94344382220877454</v>
+        <v>-0.26515893218458331</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.99794238683127268</v>
+        <v>-0.74455992205262034</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0.99794238683127268</v>
+        <v>0.74455992205262034</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>0.79963328919222376</v>
+        <v>0.58460539136083145</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>1.3837448559670751</v>
+        <v>0.34603208363668492</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1817,38 +1817,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>6089</v>
+        <v>6128.55</v>
       </c>
       <c r="T7">
-        <v>6133.55</v>
+        <v>6174.6</v>
       </c>
       <c r="U7">
-        <v>5870</v>
+        <v>6080</v>
       </c>
       <c r="V7">
-        <v>5946.3</v>
+        <v>6128.4</v>
       </c>
       <c r="W7">
-        <v>-74.849999999999454</v>
+        <v>-0.8500000000003638</v>
       </c>
       <c r="X7">
-        <v>-1.2431180090182019</v>
+        <v>-1.386792837623467E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-2.3435703728034132</v>
+        <v>-2.447561005466965E-3</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>2.3435703728034132</v>
+        <v>2.447561005466965E-3</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>0.73164723271473453</v>
+        <v>0.75140122867562775</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>1.2831508669256542</v>
+        <v>0.78976568109130674</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>5966</v>
+        <v>6079</v>
       </c>
       <c r="AJ7">
-        <v>6125</v>
+        <v>6192</v>
       </c>
       <c r="AK7">
-        <v>5920.25</v>
+        <v>6042.85</v>
       </c>
       <c r="AL7">
-        <v>6021.15</v>
+        <v>6129.25</v>
       </c>
       <c r="AM7">
-        <v>-24.900000000000549</v>
+        <v>102.4499999999998</v>
       </c>
       <c r="AN7">
-        <v>-0.41183913464163452</v>
+        <v>1.699907081701729</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>0.92440496144820039</v>
+        <v>0.82661621977298905</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>0.92440496144820039</v>
+        <v>0.82661621977298905</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>1.7247535769745044</v>
+        <v>1.0237794183627686</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.76684545759302714</v>
+        <v>0.59467017601578609</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>392.9</v>
+        <v>425.9</v>
       </c>
       <c r="C8">
-        <v>395.6</v>
+        <v>429.5</v>
       </c>
       <c r="D8">
-        <v>378.35</v>
+        <v>414.15</v>
       </c>
       <c r="E8">
-        <v>383.35</v>
+        <v>417.15</v>
       </c>
       <c r="F8">
-        <v>-10.299999999999949</v>
+        <v>-11.600000000000019</v>
       </c>
       <c r="G8">
-        <v>-2.61653753334179</v>
+        <v>-2.7055393586005878</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4306439297531064</v>
+        <v>-2.0544728809579715</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>2.4306439297531064</v>
+        <v>2.0544728809579715</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>0.68719776024434864</v>
+        <v>0.84526884245128497</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>1.3042911177774879</v>
+        <v>0.71916576770945706</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,38 +2000,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>376.4</v>
+        <v>431</v>
       </c>
       <c r="T8">
-        <v>396.95</v>
+        <v>436</v>
       </c>
       <c r="U8">
-        <v>373</v>
+        <v>422.35</v>
       </c>
       <c r="V8">
-        <v>393.65</v>
+        <v>428.75</v>
       </c>
       <c r="W8">
-        <v>23.399999999999981</v>
+        <v>-1.5500000000000109</v>
       </c>
       <c r="X8">
-        <v>6.3200540175556998</v>
+        <v>-0.36021380432256828</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>4.5828905419766208</v>
+        <v>-0.52204176334106722</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>4.5828905419766208</v>
+        <v>0.52204176334106722</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>0.83830814175028867</v>
+        <v>1.160092807424594</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>0.90329436769393656</v>
+        <v>1.4927113702623853</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>378</v>
+        <v>408.5</v>
       </c>
       <c r="AJ8">
-        <v>384.3</v>
+        <v>433.5</v>
       </c>
       <c r="AK8">
-        <v>367.3</v>
+        <v>405.5</v>
       </c>
       <c r="AL8">
-        <v>370.25</v>
+        <v>430.3</v>
       </c>
       <c r="AM8">
-        <v>-8.3000000000000114</v>
+        <v>24.350000000000019</v>
       </c>
       <c r="AN8">
-        <v>-2.192576938317266</v>
+        <v>5.9982756497105614</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>-2.0502645502645502</v>
+        <v>5.3365973072215453</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>2.0502645502645502</v>
+        <v>5.3365973072215453</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>1.6666666666666698</v>
+        <v>0.74366720892400384</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>0.79675894665766056</v>
+        <v>0.73439412484700128</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>558.9</v>
+        <v>496</v>
       </c>
       <c r="C9">
-        <v>568.95000000000005</v>
+        <v>497.25</v>
       </c>
       <c r="D9">
-        <v>551.20000000000005</v>
+        <v>468.3</v>
       </c>
       <c r="E9">
-        <v>567.1</v>
+        <v>474.1</v>
       </c>
       <c r="F9">
-        <v>6.7000000000000446</v>
+        <v>-17.549999999999951</v>
       </c>
       <c r="G9">
-        <v>1.195574589578881</v>
+        <v>-3.5696125292382699</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>1.4671676507425382</v>
+        <v>-4.4153225806451566</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>1.4671676507425382</v>
+        <v>4.4153225806451566</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.32622112502204592</v>
+        <v>0.25201612903225806</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>1.3777062086240708</v>
+        <v>1.2233705969204831</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>560</v>
+        <v>499.3</v>
       </c>
       <c r="T9">
-        <v>566.4</v>
+        <v>502.45</v>
       </c>
       <c r="U9">
-        <v>557.15</v>
+        <v>488.55</v>
       </c>
       <c r="V9">
-        <v>560.4</v>
+        <v>491.65</v>
       </c>
       <c r="W9">
-        <v>1.399999999999977</v>
+        <v>-5.7000000000000446</v>
       </c>
       <c r="X9">
-        <v>0.25044722719140922</v>
+        <v>-1.146074193224097</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>7.1428571428567372E-2</v>
+        <v>-1.5321450030042127</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>7.1428571428567372E-2</v>
+        <v>1.5321450030042127</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>1.0706638115631693</v>
+        <v>0.63088323653113898</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>0.50892857142857539</v>
+        <v>0.63052984846943272</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>553.9</v>
+        <v>508</v>
       </c>
       <c r="AJ9">
-        <v>563.70000000000005</v>
+        <v>508</v>
       </c>
       <c r="AK9">
-        <v>550</v>
+        <v>491.2</v>
       </c>
       <c r="AL9">
-        <v>559</v>
+        <v>497.35</v>
       </c>
       <c r="AM9">
-        <v>1.649999999999977</v>
+        <v>-6.8999999999999773</v>
       </c>
       <c r="AN9">
-        <v>0.29604377859513359</v>
+        <v>-1.368368864650467</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>0.92074381657339288</v>
+        <v>-2.0964566929133812</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>0.92074381657339288</v>
+        <v>2.0964566929133812</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>0.84078711985689536</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>0.70409821267376371</v>
+        <v>1.2365537347944171</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="AX9" t="str">
         <f t="shared" si="30"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>222</v>
+        <v>204.95</v>
       </c>
       <c r="C10">
-        <v>225</v>
+        <v>206.1</v>
       </c>
       <c r="D10">
-        <v>211</v>
+        <v>199.35</v>
       </c>
       <c r="E10">
-        <v>219.25</v>
+        <v>202.6</v>
       </c>
       <c r="F10">
-        <v>-1.3499999999999941</v>
+        <v>0.75</v>
       </c>
       <c r="G10">
-        <v>-0.61196736174070454</v>
+        <v>0.37156304186276939</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2387387387387387</v>
+        <v>-1.1466211271041689</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>1.2387387387387387</v>
+        <v>1.1466211271041689</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>1.3513513513513513</v>
+        <v>0.56111246645523583</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>3.7628278221208662</v>
+        <v>1.6041461006910167</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="6"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>223.6</v>
+        <v>202</v>
       </c>
       <c r="T10">
-        <v>231.5</v>
+        <v>208.7</v>
       </c>
       <c r="U10">
-        <v>218.2</v>
+        <v>200.8</v>
       </c>
       <c r="V10">
-        <v>220.6</v>
+        <v>201.85</v>
       </c>
       <c r="W10">
-        <v>-7.8499999999999943</v>
+        <v>1.9000000000000059</v>
       </c>
       <c r="X10">
-        <v>-3.4362004815057969</v>
+        <v>0.95023755938985033</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3416815742397139</v>
+        <v>-7.4257425742577071E-2</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>1.3416815742397139</v>
+        <v>7.4257425742577071E-2</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>3.533094812164582</v>
+        <v>3.3168316831683113</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>1.0879419764279263</v>
+        <v>0.52018825860786866</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>222</v>
+        <v>213.85</v>
       </c>
       <c r="AJ10">
-        <v>232.4</v>
+        <v>214</v>
       </c>
       <c r="AK10">
-        <v>218</v>
+        <v>197.9</v>
       </c>
       <c r="AL10">
-        <v>228.45</v>
+        <v>199.95</v>
       </c>
       <c r="AM10">
-        <v>-4.6000000000000227</v>
+        <v>-10.5</v>
       </c>
       <c r="AN10">
-        <v>-1.9738253593649531</v>
+        <v>-4.9893086243763367</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>2.9054054054054004</v>
+        <v>-6.4998830956277782</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>2.9054054054054004</v>
+        <v>6.4998830956277782</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>1.7290435543882761</v>
+        <v>7.0142623334115362E-2</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>1.8018018018018018</v>
+        <v>1.0252563140785111</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>3452.8</v>
+        <v>3788.9</v>
       </c>
       <c r="C11">
-        <v>3544.85</v>
+        <v>3796</v>
       </c>
       <c r="D11">
-        <v>3445.8</v>
+        <v>3711</v>
       </c>
       <c r="E11">
-        <v>3519.25</v>
+        <v>3719.5</v>
       </c>
       <c r="F11">
-        <v>62.849999999999909</v>
+        <v>-52.75</v>
       </c>
       <c r="G11">
-        <v>1.818365929869225</v>
+        <v>-1.39836967327192</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>1.9245250231695961</v>
+        <v>-1.8316661827971203</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>1.9245250231695961</v>
+        <v>1.8316661827971203</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0.72742771897421066</v>
+        <v>0.18738947979624454</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0.20273401297497681</v>
+        <v>0.22852533942734238</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>3457.3</v>
+        <v>3724</v>
       </c>
       <c r="T11">
-        <v>3499.9</v>
+        <v>3828</v>
       </c>
       <c r="U11">
-        <v>3444.3</v>
+        <v>3720</v>
       </c>
       <c r="V11">
-        <v>3456.4</v>
+        <v>3772.25</v>
       </c>
       <c r="W11">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="X11">
-        <v>0.17389288198469741</v>
+        <v>1.4250184849095919</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>-2.6031874584215745E-2</v>
+        <v>1.2956498388829216</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>2.6031874584215745E-2</v>
+        <v>1.2956498388829216</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>1.2321753969860847</v>
+        <v>1.477897806348996</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>0.35007522277513914</v>
+        <v>0.10741138560687433</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>3424.9</v>
+        <v>3765.5</v>
       </c>
       <c r="AJ11">
-        <v>3474.4</v>
+        <v>3765.5</v>
       </c>
       <c r="AK11">
-        <v>3420</v>
+        <v>3700.05</v>
       </c>
       <c r="AL11">
-        <v>3450.4</v>
+        <v>3719.25</v>
       </c>
       <c r="AM11">
-        <v>4</v>
+        <v>-19.050000000000178</v>
       </c>
       <c r="AN11">
-        <v>0.1160631383472609</v>
+        <v>-0.50958992055212748</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>0.74454728605214748</v>
+        <v>-1.2282565396361704</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>0.74454728605214748</v>
+        <v>1.2282565396361704</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>0.69557152793878974</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>0.1430698706531604</v>
+        <v>0.51623311151441331</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>637</v>
+        <v>729</v>
       </c>
       <c r="C12">
-        <v>648</v>
+        <v>730.25</v>
       </c>
       <c r="D12">
-        <v>635.4</v>
+        <v>717.75</v>
       </c>
       <c r="E12">
-        <v>644.9</v>
+        <v>721.6</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>-4.3500000000000227</v>
       </c>
       <c r="G12">
-        <v>1.5750511891636481</v>
+        <v>-0.59921482195743825</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>1.2401883830455223</v>
+        <v>-1.0150891632373082</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>1.2401883830455223</v>
+        <v>1.0150891632373082</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>0.48069468134594867</v>
+        <v>0.17146776406035666</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>0.25117739403454048</v>
+        <v>0.5335365853658568</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>639</v>
+        <v>725.8</v>
       </c>
       <c r="T12">
-        <v>643.65</v>
+        <v>731.5</v>
       </c>
       <c r="U12">
-        <v>631.6</v>
+        <v>720.25</v>
       </c>
       <c r="V12">
-        <v>634.9</v>
+        <v>725.95</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-0.84999999999990905</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-0.11695101816179269</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>-0.64162754303599734</v>
+        <v>2.0666850372015839E-2</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>0.64162754303599734</v>
+        <v>2.0666850372015839E-2</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>0.72769953051642833</v>
+        <v>0.76451546249741087</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.51976689242399665</v>
+        <v>0.76467346376411605</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>632</v>
+        <v>729</v>
       </c>
       <c r="AJ12">
-        <v>642</v>
+        <v>735.9</v>
       </c>
       <c r="AK12">
-        <v>629.15</v>
+        <v>719.25</v>
       </c>
       <c r="AL12">
-        <v>634.9</v>
+        <v>726.8</v>
       </c>
       <c r="AM12">
-        <v>3.6999999999999318</v>
+        <v>-0.75</v>
       </c>
       <c r="AN12">
-        <v>0.58618504435993846</v>
+        <v>-0.1030856985774174</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>0.45886075949366728</v>
+        <v>-0.30178326474623396</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>0.45886075949366728</v>
+        <v>0.30178326474623396</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>1.1182863443061937</v>
+        <v>0.94650205761316553</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>0.45094936708861122</v>
+        <v>1.0388002201430868</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>140.55000000000001</v>
+        <v>126</v>
       </c>
       <c r="C13">
-        <v>140.85</v>
+        <v>126.85</v>
       </c>
       <c r="D13">
-        <v>134.15</v>
+        <v>124.1</v>
       </c>
       <c r="E13">
-        <v>134.85</v>
+        <v>124.95</v>
       </c>
       <c r="F13">
-        <v>-7.25</v>
+        <v>-0.1499999999999915</v>
       </c>
       <c r="G13">
-        <v>-5.1020408163265314</v>
+        <v>-0.1199040767386023</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>-4.0554962646745043</v>
+        <v>-0.83333333333333104</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>4.0554962646745043</v>
+        <v>0.83333333333333104</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>0.2134471718249612</v>
+        <v>0.6746031746031701</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.51909529106413688</v>
+        <v>0.68027210884354428</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>140.9</v>
+        <v>126.9</v>
       </c>
       <c r="T13">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="U13">
-        <v>139.6</v>
+        <v>124.65</v>
       </c>
       <c r="V13">
-        <v>142.1</v>
+        <v>125.1</v>
       </c>
       <c r="W13">
-        <v>1.6999999999999891</v>
+        <v>-1.5500000000000109</v>
       </c>
       <c r="X13">
-        <v>1.2108262108262029</v>
+        <v>-1.223845242795113</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>0.85166784953867181</v>
+        <v>-1.4184397163120654</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>0.85166784953867181</v>
+        <v>1.4184397163120654</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>0.63335679099226305</v>
+        <v>7.880220646177645E-2</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.92264017033357792</v>
+        <v>0.35971223021581827</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>140.35</v>
+        <v>128</v>
       </c>
       <c r="AJ13">
-        <v>143.65</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="AK13">
-        <v>138.35</v>
+        <v>125.5</v>
       </c>
       <c r="AL13">
-        <v>140.4</v>
+        <v>126.65</v>
       </c>
       <c r="AM13">
-        <v>-1.1500000000000059</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="AN13">
-        <v>-0.81243376898622788</v>
+        <v>-0.2363135092556102</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>3.5625222657649711E-2</v>
+        <v>-1.0546874999999956</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>3.5625222657649711E-2</v>
+        <v>1.0546874999999956</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>2.3148148148148149</v>
+        <v>0.23437500000000888</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>1.4250089063056646</v>
+        <v>0.90801421239637237</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AV13" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW13" t="str">
         <f t="shared" si="29"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>3998</v>
+        <v>4423.6499999999996</v>
       </c>
       <c r="C14">
-        <v>4044</v>
+        <v>4423.6499999999996</v>
       </c>
       <c r="D14">
-        <v>3958.75</v>
+        <v>4336</v>
       </c>
       <c r="E14">
-        <v>3973.85</v>
+        <v>4364.1000000000004</v>
       </c>
       <c r="F14">
-        <v>-24.75</v>
+        <v>-37.5</v>
       </c>
       <c r="G14">
-        <v>-0.61896663832341314</v>
+        <v>-0.8519629225736095</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>-0.60405202601300878</v>
+        <v>-1.346173408836578</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>0.60405202601300878</v>
+        <v>1.346173408836578</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>1.150575287643822</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.37998414635680533</v>
+        <v>0.64388992002933854</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>4015</v>
+        <v>4400</v>
       </c>
       <c r="T14">
-        <v>4065</v>
+        <v>4447</v>
       </c>
       <c r="U14">
-        <v>3965</v>
+        <v>4375</v>
       </c>
       <c r="V14">
-        <v>3998.6</v>
+        <v>4401.6000000000004</v>
       </c>
       <c r="W14">
-        <v>-8</v>
+        <v>21.450000000000731</v>
       </c>
       <c r="X14">
-        <v>-0.19967054360305489</v>
+        <v>0.48970925653232722</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>-0.40846824408468468</v>
+        <v>3.6363636363644633E-2</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>0.40846824408468468</v>
+        <v>3.6363636363644633E-2</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>1.2453300124533</v>
+        <v>1.031443111595775</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>0.84029410293602547</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>4030</v>
+        <v>4460</v>
       </c>
       <c r="AJ14">
-        <v>4041</v>
+        <v>4462</v>
       </c>
       <c r="AK14">
-        <v>3976.55</v>
+        <v>4340.55</v>
       </c>
       <c r="AL14">
-        <v>4006.6</v>
+        <v>4380.1499999999996</v>
       </c>
       <c r="AM14">
-        <v>-36.050000000000182</v>
+        <v>-49.300000000000182</v>
       </c>
       <c r="AN14">
-        <v>-0.89174180302524775</v>
+        <v>-1.1130050006208489</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>-0.58064516129032484</v>
+        <v>-1.7903587443946272</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>0.58064516129032484</v>
+        <v>1.7903587443946272</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>0.27295285359801491</v>
+        <v>4.4843049327354258E-2</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0.75001247940896842</v>
+        <v>0.90407862744425316</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>18377.45</v>
+        <v>2165</v>
       </c>
       <c r="C15">
-        <v>18470</v>
+        <v>2198</v>
       </c>
       <c r="D15">
-        <v>18020</v>
+        <v>2148.3000000000002</v>
       </c>
       <c r="E15">
-        <v>18113.5</v>
+        <v>2159.4</v>
       </c>
       <c r="F15">
-        <v>-359.90000000000151</v>
+        <v>-0.90000000000009095</v>
       </c>
       <c r="G15">
-        <v>-1.9482066105860401</v>
+        <v>-4.1660880433277363E-2</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4362710822230544</v>
+        <v>-0.25866050808313668</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>1.4362710822230544</v>
+        <v>0.25866050808313668</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>0.50360632187816734</v>
+        <v>1.5242494226327945</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>0.51618958235570156</v>
+        <v>0.51403167546540285</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>18290</v>
+        <v>2165</v>
       </c>
       <c r="T15">
-        <v>18551.099999999999</v>
+        <v>2178.6999999999998</v>
       </c>
       <c r="U15">
-        <v>18097</v>
+        <v>2140.1</v>
       </c>
       <c r="V15">
-        <v>18473.400000000001</v>
+        <v>2160.3000000000002</v>
       </c>
       <c r="W15">
-        <v>382.70000000000073</v>
+        <v>-15.299999999999731</v>
       </c>
       <c r="X15">
-        <v>2.1154515856213449</v>
+        <v>-0.70325427468283364</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>1.0027337342810358</v>
+        <v>-0.21709006928405628</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>1.0027337342810358</v>
+        <v>0.21709006928405628</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>0.42060476144075848</v>
+        <v>0.63279445727481842</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>1.0552214324767633</v>
+        <v>0.93505531639125439</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>18374.95</v>
+        <v>2196.9499999999998</v>
       </c>
       <c r="AJ15">
-        <v>18374.95</v>
+        <v>2198</v>
       </c>
       <c r="AK15">
-        <v>17920</v>
+        <v>2152.6</v>
       </c>
       <c r="AL15">
-        <v>18090.7</v>
+        <v>2175.6</v>
       </c>
       <c r="AM15">
-        <v>-346.14999999999782</v>
+        <v>-1.3499999999999091</v>
       </c>
       <c r="AN15">
-        <v>-1.8774899182886331</v>
+        <v>-6.2013367325841617E-2</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>-1.5469429848788705</v>
+        <v>-0.9718018161542098</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>1.5469429848788705</v>
+        <v>0.9718018161542098</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4.7793531942018797E-2</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>0.94357874487996996</v>
+        <v>1.0571796286082003</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>105.05</v>
+        <v>91.9</v>
       </c>
       <c r="C16">
-        <v>105.85</v>
+        <v>93.65</v>
       </c>
       <c r="D16">
-        <v>102.75</v>
+        <v>90.8</v>
       </c>
       <c r="E16">
-        <v>103.6</v>
+        <v>91.95</v>
       </c>
       <c r="F16">
-        <v>-1.5500000000000109</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G16">
-        <v>-1.474084640989074</v>
+        <v>1.32231404958678</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3802950975725874</v>
+        <v>5.4406964091400598E-2</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>1.3802950975725874</v>
+        <v>5.4406964091400598E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>0.76154212279866462</v>
+        <v>1.8488308863512808</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>0.82046332046331505</v>
+        <v>1.1969532100108906</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>104.95</v>
+        <v>90.8</v>
       </c>
       <c r="T16">
-        <v>105.5</v>
+        <v>91.65</v>
       </c>
       <c r="U16">
-        <v>102.75</v>
+        <v>90.1</v>
       </c>
       <c r="V16">
-        <v>105.15</v>
+        <v>90.75</v>
       </c>
       <c r="W16">
-        <v>2.0500000000000109</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="X16">
-        <v>1.988360814742979</v>
+        <v>-5.506607929515106E-2</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>0.19056693663649626</v>
+        <v>-5.506607929515106E-2</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>0.19056693663649626</v>
+        <v>5.506607929515106E-2</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>0.33285782215881532</v>
+        <v>0.93612334801763053</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>2.0962363030014317</v>
+        <v>0.71625344352617715</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>103</v>
+        <v>91.85</v>
       </c>
       <c r="AJ16">
-        <v>107</v>
+        <v>92.4</v>
       </c>
       <c r="AK16">
-        <v>102.5</v>
+        <v>89.8</v>
       </c>
       <c r="AL16">
-        <v>103.1</v>
+        <v>90.8</v>
       </c>
       <c r="AM16">
-        <v>1.6999999999999891</v>
+        <v>-0.25</v>
       </c>
       <c r="AN16">
-        <v>1.676528599605511</v>
+        <v>-0.27457440966501923</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>9.7087378640771174E-2</v>
+        <v>-1.1431682090364694</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>9.7087378640771174E-2</v>
+        <v>1.1431682090364694</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>3.7827352085354078</v>
+        <v>0.59880239520959333</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>0.48543689320388345</v>
+        <v>1.1013215859030838</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AV16" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW16" t="str">
         <f t="shared" si="29"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>613.75</v>
+        <v>721</v>
       </c>
       <c r="C17">
-        <v>624.45000000000005</v>
+        <v>735.95</v>
       </c>
       <c r="D17">
-        <v>598.5</v>
+        <v>703</v>
       </c>
       <c r="E17">
-        <v>619.25</v>
+        <v>707</v>
       </c>
       <c r="F17">
-        <v>3.1000000000000232</v>
+        <v>-13.950000000000051</v>
       </c>
       <c r="G17">
-        <v>0.50312423922746463</v>
+        <v>-1.9349469450031269</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>0.89613034623217924</v>
+        <v>-1.9417475728155338</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0.89613034623217924</v>
+        <v>1.9417475728155338</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>0.83972547436415756</v>
+        <v>2.0735090152565943</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>2.4847250509164969</v>
+        <v>0.56577086280056577</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="6"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="8"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>612.9</v>
+        <v>715</v>
       </c>
       <c r="T17">
-        <v>626.35</v>
+        <v>727</v>
       </c>
       <c r="U17">
-        <v>610</v>
+        <v>704.65</v>
       </c>
       <c r="V17">
-        <v>616.15</v>
+        <v>720.95</v>
       </c>
       <c r="W17">
-        <v>8.6999999999999318</v>
+        <v>7.6500000000000909</v>
       </c>
       <c r="X17">
-        <v>1.43221664334512</v>
+        <v>1.072480022430967</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>0.53026594876815147</v>
+        <v>0.83216783216783863</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>0.53026594876815147</v>
+        <v>0.83216783216783863</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>1.6554410452000397</v>
+        <v>0.83917053887231485</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>0.47316038505465446</v>
+        <v>1.4475524475524506</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>610.95000000000005</v>
+        <v>696.55</v>
       </c>
       <c r="AJ17">
-        <v>626.54999999999995</v>
+        <v>717.75</v>
       </c>
       <c r="AK17">
-        <v>604.04999999999995</v>
+        <v>681.3</v>
       </c>
       <c r="AL17">
-        <v>607.45000000000005</v>
+        <v>713.3</v>
       </c>
       <c r="AM17">
-        <v>-6.1999999999999318</v>
+        <v>26.199999999999928</v>
       </c>
       <c r="AN17">
-        <v>-1.0103479181944</v>
+        <v>3.813127637898404</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>-0.57287830428021924</v>
+        <v>2.4047089225468379</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>0.57287830428021924</v>
+        <v>2.4047089225468379</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>2.5534004419346767</v>
+        <v>0.62386092808075788</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>0.55971684912339958</v>
+        <v>2.1893618548560765</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>562</v>
+        <v>745</v>
       </c>
       <c r="C18">
-        <v>565.9</v>
+        <v>825.1</v>
       </c>
       <c r="D18">
-        <v>550.29999999999995</v>
+        <v>744.15</v>
       </c>
       <c r="E18">
-        <v>553.70000000000005</v>
+        <v>794.95</v>
       </c>
       <c r="F18">
-        <v>-8.6999999999999318</v>
+        <v>73.300000000000068</v>
       </c>
       <c r="G18">
-        <v>-1.546941678520614</v>
+        <v>10.15727845908682</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4768683274021273</v>
+        <v>6.7046979865771874</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>1.4768683274021273</v>
+        <v>6.7046979865771874</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0.69395017793593905</v>
+        <v>3.7926913642367417</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0.61405093010657219</v>
+        <v>0.11409395973154668</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>550.04999999999995</v>
+        <v>712</v>
       </c>
       <c r="T18">
-        <v>573.9</v>
+        <v>734</v>
       </c>
       <c r="U18">
-        <v>545</v>
+        <v>710.15</v>
       </c>
       <c r="V18">
-        <v>562.4</v>
+        <v>721.65</v>
       </c>
       <c r="W18">
-        <v>12.350000000000019</v>
+        <v>-0.75</v>
       </c>
       <c r="X18">
-        <v>2.245250431778933</v>
+        <v>-0.1038205980066445</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>2.2452504317789335</v>
+        <v>1.3553370786516823</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>2.2452504317789335</v>
+        <v>1.3553370786516823</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>2.0448079658605978</v>
+        <v>1.7113559204600601</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>0.91809835469501955</v>
+        <v>0.25983146067416046</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>557.6</v>
+        <v>728.65</v>
       </c>
       <c r="AJ18">
-        <v>560.70000000000005</v>
+        <v>728.95</v>
       </c>
       <c r="AK18">
-        <v>548</v>
+        <v>713.8</v>
       </c>
       <c r="AL18">
-        <v>550.04999999999995</v>
+        <v>722.4</v>
       </c>
       <c r="AM18">
-        <v>-9.5500000000000682</v>
+        <v>0.44999999999993179</v>
       </c>
       <c r="AN18">
-        <v>-1.7065761258041581</v>
+        <v>6.2331186370237802E-2</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>-1.3540172166427669</v>
+        <v>-0.85775063473546975</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>1.3540172166427669</v>
+        <v>0.85775063473546975</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>0.5559540889526583</v>
+        <v>4.1172030467311903E-2</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>0.37269339150985453</v>
+        <v>1.1904761904761938</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="AU18" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV18" t="str">
         <f t="shared" si="28"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>1037</v>
+        <v>1088</v>
       </c>
       <c r="C19">
-        <v>1082.5999999999999</v>
+        <v>1094</v>
       </c>
       <c r="D19">
-        <v>1037</v>
+        <v>1052.3499999999999</v>
       </c>
       <c r="E19">
-        <v>1076.05</v>
+        <v>1057.95</v>
       </c>
       <c r="F19">
-        <v>19.599999999999909</v>
+        <v>-20.700000000000049</v>
       </c>
       <c r="G19">
-        <v>1.8552700080458051</v>
+        <v>-1.919065498539845</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>3.7656702025072279</v>
+        <v>-2.7619485294117605</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>3.7656702025072279</v>
+        <v>2.7619485294117605</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>0.60870777380232832</v>
+        <v>0.55147058823529416</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.52932558249445971</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>1041</v>
+        <v>1096.45</v>
       </c>
       <c r="T19">
-        <v>1063</v>
+        <v>1104.8499999999999</v>
       </c>
       <c r="U19">
-        <v>1028</v>
+        <v>1071</v>
       </c>
       <c r="V19">
-        <v>1056.45</v>
+        <v>1078.6500000000001</v>
       </c>
       <c r="W19">
-        <v>27.700000000000049</v>
+        <v>-11.89999999999986</v>
       </c>
       <c r="X19">
-        <v>2.6925880923450829</v>
+        <v>-1.0911925175370101</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>1.4841498559077853</v>
+        <v>-1.6234210406311234</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>1.4841498559077853</v>
+        <v>1.6234210406311234</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>0.62000094656632632</v>
+        <v>0.76610880569108153</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>1.2487992315081651</v>
+        <v>0.70921985815603672</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>1021.9</v>
+        <v>1103</v>
       </c>
       <c r="AJ19">
-        <v>1049</v>
+        <v>1104.8499999999999</v>
       </c>
       <c r="AK19">
-        <v>1007</v>
+        <v>1084</v>
       </c>
       <c r="AL19">
-        <v>1028.75</v>
+        <v>1090.55</v>
       </c>
       <c r="AM19">
-        <v>-3.75</v>
+        <v>-5.9500000000000446</v>
       </c>
       <c r="AN19">
-        <v>-0.36319612590799027</v>
+        <v>-0.54263565891473287</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>0.67031999217144755</v>
+        <v>-1.1287398005439753</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>0.67031999217144755</v>
+        <v>1.1287398005439753</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>1.9684082624544348</v>
+        <v>0.16772438803263001</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>1.4580683041393461</v>
+        <v>0.60061436889642428</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AX19" t="str">
         <f t="shared" si="30"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
@@ -4134,42 +4134,42 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>2530</v>
+        <v>3014.95</v>
       </c>
       <c r="C20">
-        <v>2530</v>
+        <v>3039</v>
       </c>
       <c r="D20">
-        <v>2468</v>
+        <v>2956</v>
       </c>
       <c r="E20">
-        <v>2504.0500000000002</v>
+        <v>3028.5</v>
       </c>
       <c r="F20">
-        <v>-36.399999999999643</v>
+        <v>36.25</v>
       </c>
       <c r="G20">
-        <v>-1.4328170206065709</v>
+        <v>1.2114629459436881</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0256916996047358</v>
+        <v>0.44942702200700452</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>1.0256916996047358</v>
+        <v>0.44942702200700452</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.34670629024269439</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>1.4396677382640193</v>
+        <v>1.9552563060747219</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="5"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>2580</v>
+        <v>2949.15</v>
       </c>
       <c r="T20">
-        <v>2590.65</v>
+        <v>3007.7</v>
       </c>
       <c r="U20">
-        <v>2530.8000000000002</v>
+        <v>2948.75</v>
       </c>
       <c r="V20">
-        <v>2540.4499999999998</v>
+        <v>2992.25</v>
       </c>
       <c r="W20">
-        <v>-19.25</v>
+        <v>43.5</v>
       </c>
       <c r="X20">
-        <v>-0.75204125483455098</v>
+        <v>1.475201356506995</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5329457364341155</v>
+        <v>1.4614380414695729</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>1.5329457364341155</v>
+        <v>1.4614380414695729</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>0.41279069767442217</v>
+        <v>0.51633386247806234</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>0.37985396288057777</v>
+        <v>1.356323008324741E-2</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>2472.9499999999998</v>
+        <v>2920</v>
       </c>
       <c r="AJ20">
-        <v>2585</v>
+        <v>2957.4</v>
       </c>
       <c r="AK20">
-        <v>2454.15</v>
+        <v>2888.25</v>
       </c>
       <c r="AL20">
-        <v>2559.6999999999998</v>
+        <v>2948.75</v>
       </c>
       <c r="AM20">
-        <v>65.899999999999636</v>
+        <v>44.75</v>
       </c>
       <c r="AN20">
-        <v>2.6425535327612328</v>
+        <v>1.540977961432507</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>3.5079560848379465</v>
+        <v>0.9845890410958904</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>3.5079560848379465</v>
+        <v>0.9845890410958904</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>0.98839707778255981</v>
+        <v>0.29334463755829049</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>0.76022564144037397</v>
+        <v>1.0873287671232876</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>149.44999999999999</v>
+        <v>179</v>
       </c>
       <c r="C21">
-        <v>149.44999999999999</v>
+        <v>180.5</v>
       </c>
       <c r="D21">
-        <v>143.30000000000001</v>
+        <v>174.6</v>
       </c>
       <c r="E21">
-        <v>145.85</v>
+        <v>175.8</v>
       </c>
       <c r="F21">
-        <v>-5.2000000000000171</v>
+        <v>-2.8499999999999939</v>
       </c>
       <c r="G21">
-        <v>-3.442568685865619</v>
+        <v>-1.5952980688497029</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4088323854131781</v>
+        <v>-1.7877094972066976</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>2.4088323854131781</v>
+        <v>1.7877094972066976</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.83798882681564246</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>1.7483716146725972</v>
+        <v>0.6825938566552997</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>149</v>
+        <v>178.7</v>
       </c>
       <c r="T21">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="U21">
-        <v>148.19999999999999</v>
+        <v>174.8</v>
       </c>
       <c r="V21">
-        <v>151.05000000000001</v>
+        <v>178.65</v>
       </c>
       <c r="W21">
-        <v>4.4500000000000171</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>3.0354706684856869</v>
+        <v>1.132182281347297</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>1.3758389261745043</v>
+        <v>-2.7979854504747038E-2</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>1.3758389261745043</v>
+        <v>2.7979854504747038E-2</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>0.62893081761005531</v>
+        <v>0.72747621712367738</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>0.5369127516778599</v>
+        <v>2.1550517772180209</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AJ21">
-        <v>152.30000000000001</v>
+        <v>185.3</v>
       </c>
       <c r="AK21">
-        <v>144.6</v>
+        <v>173.35</v>
       </c>
       <c r="AL21">
-        <v>146.6</v>
+        <v>176.65</v>
       </c>
       <c r="AM21">
-        <v>-4.8000000000000114</v>
+        <v>-6.1500000000000057</v>
       </c>
       <c r="AN21">
-        <v>-3.1704095112285411</v>
+        <v>-3.3643326039387329</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>-1.6107382550335607</v>
+        <v>-4.5135135135135105</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>1.6107382550335607</v>
+        <v>4.5135135135135105</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>2.2147651006711486</v>
+        <v>0.16216216216216831</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>1.3642564802182811</v>
+        <v>1.8681007642230463</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>2151.35</v>
+        <v>2167</v>
       </c>
       <c r="C22">
-        <v>2195.9</v>
+        <v>2169.6999999999998</v>
       </c>
       <c r="D22">
-        <v>2140</v>
+        <v>2115</v>
       </c>
       <c r="E22">
-        <v>2182.9499999999998</v>
+        <v>2123.5</v>
       </c>
       <c r="F22">
-        <v>28.75</v>
+        <v>-35.75</v>
       </c>
       <c r="G22">
-        <v>1.3346021725002319</v>
+        <v>-1.655667477133264</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>1.4688451437469454</v>
+        <v>-2.0073834794646981</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>1.4688451437469454</v>
+        <v>2.0073834794646981</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>0.59323392656727247</v>
+        <v>0.12459621596676596</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.52757570827619449</v>
+        <v>0.40028255238992233</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>2179.9499999999998</v>
+        <v>2125</v>
       </c>
       <c r="T22">
-        <v>2179.9499999999998</v>
+        <v>2169</v>
       </c>
       <c r="U22">
-        <v>2138.1</v>
+        <v>2124.5</v>
       </c>
       <c r="V22">
-        <v>2154.1999999999998</v>
+        <v>2159.25</v>
       </c>
       <c r="W22">
-        <v>-18.950000000000269</v>
+        <v>25.349999999999909</v>
       </c>
       <c r="X22">
-        <v>-0.87200607413203279</v>
+        <v>1.187965696611833</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>-1.1812197527466226</v>
+        <v>1.6117647058823528</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>1.1812197527466226</v>
+        <v>1.6117647058823528</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.45154567558179926</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>0.74737721660012579</v>
+        <v>2.3529411764705882E-2</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>2114.3000000000002</v>
+        <v>2142</v>
       </c>
       <c r="AJ22">
-        <v>2189.9</v>
+        <v>2143.6</v>
       </c>
       <c r="AK22">
-        <v>2112</v>
+        <v>2118.1999999999998</v>
       </c>
       <c r="AL22">
-        <v>2173.15</v>
+        <v>2133.9</v>
       </c>
       <c r="AM22">
-        <v>42.849999999999909</v>
+        <v>1.6500000000000909</v>
       </c>
       <c r="AN22">
-        <v>2.0114537858517538</v>
+        <v>7.7383046078090795E-2</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>2.7834271390058127</v>
+        <v>-0.37815126050419745</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>2.7834271390058127</v>
+        <v>0.37815126050419745</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>0.77077054045970139</v>
+        <v>7.4696545284776331E-2</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0.10878304876319263</v>
+        <v>0.73574206851306401</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>1755</v>
+        <v>1781</v>
       </c>
       <c r="C23">
-        <v>1775</v>
+        <v>1796.85</v>
       </c>
       <c r="D23">
-        <v>1726.25</v>
+        <v>1728.4</v>
       </c>
       <c r="E23">
-        <v>1741.15</v>
+        <v>1738</v>
       </c>
       <c r="F23">
-        <v>-28.199999999999822</v>
+        <v>-30.150000000000091</v>
       </c>
       <c r="G23">
-        <v>-1.5938056348376419</v>
+        <v>-1.705172072505166</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.78917378917378389</v>
+        <v>-2.4143739472206627</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0.78917378917378389</v>
+        <v>2.4143739472206627</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>1.1396011396011396</v>
+        <v>0.8899494665917973</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0.85575625305114955</v>
+        <v>0.55235903337168635</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>1793.85</v>
+        <v>1771</v>
       </c>
       <c r="T23">
-        <v>1799.9</v>
+        <v>1786</v>
       </c>
       <c r="U23">
-        <v>1752.4</v>
+        <v>1760</v>
       </c>
       <c r="V23">
-        <v>1769.35</v>
+        <v>1768.15</v>
       </c>
       <c r="W23">
-        <v>-8.4500000000000455</v>
+        <v>-9.2999999999999545</v>
       </c>
       <c r="X23">
-        <v>-0.47530655866801919</v>
+        <v>-0.52322146895833654</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3657775176296791</v>
+        <v>-0.16092603049124274</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>1.3657775176296791</v>
+        <v>0.16092603049124274</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>0.33726342782284929</v>
+        <v>0.84697910784867303</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.95797891881198283</v>
+        <v>0.46093374430902867</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>1782.2</v>
+        <v>1781</v>
       </c>
       <c r="AJ23">
-        <v>1811</v>
+        <v>1792.95</v>
       </c>
       <c r="AK23">
-        <v>1761.9</v>
+        <v>1760</v>
       </c>
       <c r="AL23">
-        <v>1777.8</v>
+        <v>1777.45</v>
       </c>
       <c r="AM23">
-        <v>-19.950000000000049</v>
+        <v>16.700000000000049</v>
       </c>
       <c r="AN23">
-        <v>-1.1097204839382591</v>
+        <v>0.94845946329689312</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>-0.24688587139491025</v>
+        <v>-0.19932622122402888</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>0.24688587139491025</v>
+        <v>0.19932622122402888</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>1.6159802491302857</v>
+        <v>0.67097136440202387</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>0.89436382045223661</v>
+        <v>0.98174350895946694</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>345.25</v>
+        <v>373.5</v>
       </c>
       <c r="C24">
-        <v>345.6</v>
+        <v>373.85</v>
       </c>
       <c r="D24">
-        <v>338.5</v>
+        <v>359.35</v>
       </c>
       <c r="E24">
-        <v>343.1</v>
+        <v>363.7</v>
       </c>
       <c r="F24">
-        <v>-6</v>
+        <v>-6.8000000000000114</v>
       </c>
       <c r="G24">
-        <v>-1.7187052420509881</v>
+        <v>-1.8353576248313119</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>-0.62273714699492455</v>
+        <v>-2.6238286479250363</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0.62273714699492455</v>
+        <v>2.6238286479250363</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>0.1013758146270884</v>
+        <v>9.3708165997328716E-2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>1.3407169921305808</v>
+        <v>1.1960406928787368</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>355.6</v>
+        <v>373</v>
       </c>
       <c r="T24">
-        <v>358.5</v>
+        <v>373.65</v>
       </c>
       <c r="U24">
-        <v>346.1</v>
+        <v>365.1</v>
       </c>
       <c r="V24">
-        <v>349.1</v>
+        <v>370.5</v>
       </c>
       <c r="W24">
-        <v>-1.899999999999977</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="X24">
-        <v>-0.5413105413105348</v>
+        <v>-5.3951982735362447E-2</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>-1.8278965129358831</v>
+        <v>-0.67024128686327078</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>1.8278965129358831</v>
+        <v>0.67024128686327078</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>0.81552305961754135</v>
+        <v>0.1742627345844443</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>0.85935262102549403</v>
+        <v>1.4574898785425041</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>345.9</v>
+        <v>371.7</v>
       </c>
       <c r="AJ24">
-        <v>355.6</v>
+        <v>375</v>
       </c>
       <c r="AK24">
-        <v>338.5</v>
+        <v>365.45</v>
       </c>
       <c r="AL24">
-        <v>351</v>
+        <v>370.7</v>
       </c>
       <c r="AM24">
-        <v>2.8999999999999768</v>
+        <v>3.0999999999999659</v>
       </c>
       <c r="AN24">
-        <v>0.83309393852340619</v>
+        <v>0.84330794341674797</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>1.4744145706851759</v>
+        <v>-0.26903416733925206</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>1.4744145706851759</v>
+        <v>0.26903416733925206</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>1.3105413105413171</v>
+        <v>0.88781275221953493</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>2.1393466319745529</v>
+        <v>1.4162395468033451</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>202.5</v>
+        <v>185.8</v>
       </c>
       <c r="C25">
-        <v>203</v>
+        <v>185.85</v>
       </c>
       <c r="D25">
-        <v>196.2</v>
+        <v>183</v>
       </c>
       <c r="E25">
-        <v>197.25</v>
+        <v>183.35</v>
       </c>
       <c r="F25">
-        <v>2.0500000000000109</v>
+        <v>-0.59999999999999432</v>
       </c>
       <c r="G25">
-        <v>1.050204918032793</v>
+        <v>-0.32617559119325601</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5925925925925926</v>
+        <v>-1.318622174381064</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>2.5925925925925926</v>
+        <v>1.318622174381064</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>0.24691358024691357</v>
+        <v>2.6910656620012349E-2</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>0.53231939163498676</v>
+        <v>0.19089173711480464</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>206</v>
+        <v>184.9</v>
       </c>
       <c r="T25">
-        <v>209.4</v>
+        <v>186.5</v>
       </c>
       <c r="U25">
-        <v>193.3</v>
+        <v>182.75</v>
       </c>
       <c r="V25">
-        <v>195.2</v>
+        <v>183.95</v>
       </c>
       <c r="W25">
-        <v>-6.9000000000000057</v>
+        <v>-0.95000000000001705</v>
       </c>
       <c r="X25">
-        <v>-3.4141514101929769</v>
+        <v>-0.51379123850731045</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>-5.2427184466019474</v>
+        <v>-0.51379123850731045</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>5.2427184466019474</v>
+        <v>0.51379123850731045</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>1.6504854368932065</v>
+        <v>0.8653326122228201</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>0.97336065573769337</v>
+        <v>0.65235118238651191</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>192.25</v>
+        <v>184.1</v>
       </c>
       <c r="AJ25">
-        <v>203.5</v>
+        <v>185.7</v>
       </c>
       <c r="AK25">
-        <v>191.65</v>
+        <v>183.2</v>
       </c>
       <c r="AL25">
-        <v>202.1</v>
+        <v>184.9</v>
       </c>
       <c r="AM25">
-        <v>10.25</v>
+        <v>1.0999999999999941</v>
       </c>
       <c r="AN25">
-        <v>5.3427156632786037</v>
+        <v>0.59847660500543753</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>5.1235370611183324</v>
+        <v>0.43454644215101107</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>5.1235370611183324</v>
+        <v>0.43454644215101107</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>0.69272637308263518</v>
+        <v>0.43266630611140233</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>0.31209362808842356</v>
+        <v>0.48886474741988362</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>89.5</v>
+        <v>83.2</v>
       </c>
       <c r="C26">
-        <v>90.7</v>
+        <v>83.8</v>
       </c>
       <c r="D26">
-        <v>86.5</v>
+        <v>82.35</v>
       </c>
       <c r="E26">
-        <v>87.1</v>
+        <v>82.7</v>
       </c>
       <c r="F26">
-        <v>-2.0500000000000109</v>
+        <v>-0.39999999999999147</v>
       </c>
       <c r="G26">
-        <v>-2.2994952327537979</v>
+        <v>-0.48134777376653609</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6815642458100619</v>
+        <v>-0.60096153846153844</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>2.6815642458100619</v>
+        <v>0.60096153846153844</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>1.340782122905031</v>
+        <v>0.72115384615383926</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>0.68886337543053311</v>
+        <v>0.4232164449818725</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>85.9</v>
+        <v>83.3</v>
       </c>
       <c r="T26">
-        <v>89.95</v>
+        <v>84</v>
       </c>
       <c r="U26">
-        <v>85.75</v>
+        <v>82.05</v>
       </c>
       <c r="V26">
-        <v>89.15</v>
+        <v>83.1</v>
       </c>
       <c r="W26">
-        <v>4.1000000000000094</v>
+        <v>-0.45000000000000279</v>
       </c>
       <c r="X26">
-        <v>4.820693709582609</v>
+        <v>-0.53859964093357615</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>3.7834691501746209</v>
+        <v>-0.24009603841536956</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>3.7834691501746209</v>
+        <v>0.24009603841536956</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>0.89736399326976679</v>
+        <v>0.84033613445378497</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>0.17462165308498914</v>
+        <v>1.2635379061371808</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>85.2</v>
+        <v>80.7</v>
       </c>
       <c r="AJ26">
-        <v>88.1</v>
+        <v>83.95</v>
       </c>
       <c r="AK26">
-        <v>84.7</v>
+        <v>80.7</v>
       </c>
       <c r="AL26">
-        <v>85.05</v>
+        <v>83.55</v>
       </c>
       <c r="AM26">
-        <v>-2.0499999999999972</v>
+        <v>3</v>
       </c>
       <c r="AN26">
-        <v>-2.353616532721007</v>
+        <v>3.7243947858472999</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>-0.17605633802817566</v>
+        <v>3.5315985130111449</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>0.17605633802817566</v>
+        <v>3.5315985130111449</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>3.4037558685445912</v>
+        <v>0.47875523638540479</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>0.41152263374484932</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>482</v>
+        <v>617.1</v>
       </c>
       <c r="C27">
-        <v>487</v>
+        <v>620</v>
       </c>
       <c r="D27">
-        <v>472.5</v>
+        <v>603.85</v>
       </c>
       <c r="E27">
-        <v>480</v>
+        <v>609.35</v>
       </c>
       <c r="F27">
-        <v>-12.55000000000001</v>
+        <v>-1</v>
       </c>
       <c r="G27">
-        <v>-2.547964673637197</v>
+        <v>-0.16384041943147379</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-0.41493775933609961</v>
+        <v>-1.2558742505266569</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>0.41493775933609961</v>
+        <v>1.2558742505266569</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>1.0373443983402488</v>
+        <v>0.46994004213255181</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>0.90260113235414785</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5477,38 +5477,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>483</v>
+        <v>618</v>
       </c>
       <c r="T27">
-        <v>501</v>
+        <v>622.4</v>
       </c>
       <c r="U27">
-        <v>481.05</v>
+        <v>603.25</v>
       </c>
       <c r="V27">
-        <v>492.55</v>
+        <v>610.35</v>
       </c>
       <c r="W27">
-        <v>17.400000000000031</v>
+        <v>-10.100000000000019</v>
       </c>
       <c r="X27">
-        <v>3.6620014732189912</v>
+        <v>-1.627850753485377</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>1.977225672877849</v>
+        <v>-1.2378640776698993</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>1.977225672877849</v>
+        <v>1.2378640776698993</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>1.715561871891176</v>
+        <v>0.71197411003235878</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>0.40372670807453181</v>
+        <v>1.1632669779634672</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>480</v>
+        <v>614</v>
       </c>
       <c r="AJ27">
-        <v>490.95</v>
+        <v>627.79999999999995</v>
       </c>
       <c r="AK27">
-        <v>461</v>
+        <v>610</v>
       </c>
       <c r="AL27">
-        <v>475.15</v>
+        <v>620.45000000000005</v>
       </c>
       <c r="AM27">
-        <v>-6.5500000000000114</v>
+        <v>15.850000000000019</v>
       </c>
       <c r="AN27">
-        <v>-1.359767490139093</v>
+        <v>2.6215679788289812</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>-1.0104166666666714</v>
+        <v>1.0504885993485416</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>1.0104166666666714</v>
+        <v>1.0504885993485416</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>2.2812499999999973</v>
+        <v>1.1846240631799354</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>2.9780069451752031</v>
+        <v>0.65146579804560267</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>735.4</v>
+        <v>957</v>
       </c>
       <c r="C28">
-        <v>744.7</v>
+        <v>991.05</v>
       </c>
       <c r="D28">
-        <v>730.1</v>
+        <v>948.3</v>
       </c>
       <c r="E28">
-        <v>731.75</v>
+        <v>978.4</v>
       </c>
       <c r="F28">
-        <v>-16.450000000000049</v>
+        <v>32.699999999999932</v>
       </c>
       <c r="G28">
-        <v>-2.198609997326924</v>
+        <v>3.457756159458595</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>-0.49632852869186533</v>
+        <v>2.2361546499477511</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>0.49632852869186533</v>
+        <v>2.2361546499477511</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>1.2646178950231259</v>
+        <v>1.292927228127553</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0.22548684660061183</v>
+        <v>0.90909090909091395</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>710.2</v>
+        <v>934.9</v>
       </c>
       <c r="T28">
-        <v>751.6</v>
+        <v>954.15</v>
       </c>
       <c r="U28">
-        <v>710</v>
+        <v>931</v>
       </c>
       <c r="V28">
-        <v>748.2</v>
+        <v>945.7</v>
       </c>
       <c r="W28">
-        <v>47.700000000000053</v>
+        <v>5.6500000000000909</v>
       </c>
       <c r="X28">
-        <v>6.8094218415417629</v>
+        <v>0.60103186000745612</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>5.3506054632497886</v>
+        <v>1.1552037651085751</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>5.3506054632497886</v>
+        <v>1.1552037651085751</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>0.45442395081528697</v>
+        <v>0.89351802897324006</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>2.8161081385531604E-2</v>
+        <v>0.4171569151780915</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>704.85</v>
+        <v>935.3</v>
       </c>
       <c r="AJ28">
-        <v>705.6</v>
+        <v>942</v>
       </c>
       <c r="AK28">
-        <v>693.5</v>
+        <v>924.8</v>
       </c>
       <c r="AL28">
-        <v>700.5</v>
+        <v>940.05</v>
       </c>
       <c r="AM28">
-        <v>-13.649999999999981</v>
+        <v>12.299999999999949</v>
       </c>
       <c r="AN28">
-        <v>-1.9113631590002069</v>
+        <v>1.3257881972514101</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>-0.61715258565652586</v>
+        <v>0.50785844114187961</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>0.61715258565652586</v>
+        <v>0.50785844114187961</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>0.10640561821664184</v>
+        <v>0.20743577469284036</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>0.99928622412562462</v>
+        <v>1.1226344488399445</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>192.5</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="C29">
-        <v>192.95</v>
+        <v>293.95</v>
       </c>
       <c r="D29">
-        <v>185.65</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="E29">
-        <v>190.7</v>
+        <v>289.85000000000002</v>
       </c>
       <c r="F29">
-        <v>-1.9500000000000171</v>
+        <v>2.0500000000000109</v>
       </c>
       <c r="G29">
-        <v>-1.012198287049062</v>
+        <v>0.71230020847811371</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-0.93506493506494093</v>
+        <v>0.95785440613026818</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>0.93506493506494093</v>
+        <v>0.95785440613026818</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>0.23376623376622788</v>
+        <v>1.4145247541831865</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>2.6481384373361214</v>
+        <v>0.52246603970741889</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="6"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>195.65</v>
+        <v>283.95</v>
       </c>
       <c r="T29">
-        <v>197.5</v>
+        <v>289</v>
       </c>
       <c r="U29">
-        <v>191.55</v>
+        <v>282.7</v>
       </c>
       <c r="V29">
-        <v>192.65</v>
+        <v>287.8</v>
       </c>
       <c r="W29">
-        <v>-0.90000000000000568</v>
+        <v>2.4499999999999891</v>
       </c>
       <c r="X29">
-        <v>-0.46499612503229432</v>
+        <v>0.85859470825301853</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5333503705596729</v>
+        <v>1.3558725127663402</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>1.5333503705596729</v>
+        <v>1.3558725127663402</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>0.94556606184512859</v>
+        <v>0.4169562195969384</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>0.57098364910459076</v>
+        <v>0.44021834830075718</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>192.15</v>
+        <v>289.35000000000002</v>
       </c>
       <c r="AJ29">
-        <v>197.35</v>
+        <v>290.25</v>
       </c>
       <c r="AK29">
-        <v>191</v>
+        <v>278.45</v>
       </c>
       <c r="AL29">
-        <v>193.55</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="AM29">
-        <v>-0.34999999999999432</v>
+        <v>-1.5</v>
       </c>
       <c r="AN29">
-        <v>-0.18050541516245189</v>
+        <v>-0.52292138748474803</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>0.72859744990892827</v>
+        <v>-1.3824088474166234</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>0.72859744990892827</v>
+        <v>1.3824088474166234</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>1.9633169723585548</v>
+        <v>0.31104199066873239</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>0.59849076242519161</v>
+        <v>2.4180830558962798</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>1336.1</v>
+        <v>1337</v>
       </c>
       <c r="C30">
-        <v>1366.9</v>
+        <v>1347.95</v>
       </c>
       <c r="D30">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="E30">
-        <v>1355.65</v>
+        <v>1304.7</v>
       </c>
       <c r="F30">
-        <v>15.55000000000018</v>
+        <v>-25.64999999999986</v>
       </c>
       <c r="G30">
-        <v>1.160361167077097</v>
+        <v>-1.928064043296867</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>1.4632138313000662</v>
+        <v>-2.4158563949139831</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>1.4632138313000662</v>
+        <v>2.4158563949139831</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>0.82986021465717552</v>
+        <v>0.8189977561705345</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>1.7289125065489044</v>
+        <v>0.36023606959454629</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>1380</v>
+        <v>1317</v>
       </c>
       <c r="T30">
-        <v>1382.95</v>
+        <v>1336.2</v>
       </c>
       <c r="U30">
-        <v>1326.95</v>
+        <v>1311</v>
       </c>
       <c r="V30">
-        <v>1340.1</v>
+        <v>1330.35</v>
       </c>
       <c r="W30">
-        <v>-41.600000000000144</v>
+        <v>10.849999999999911</v>
       </c>
       <c r="X30">
-        <v>-3.0107838170369932</v>
+        <v>0.82228116710874632</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>-2.8913043478260936</v>
+        <v>1.0136674259681024</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>2.8913043478260936</v>
+        <v>1.0136674259681024</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>0.21376811594203227</v>
+        <v>0.43973390461157869</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>0.98127005447353666</v>
+        <v>0.45558086560364464</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="AF30" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG30" s="1" t="str">
         <f t="shared" si="19"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="AJ30">
-        <v>1389.75</v>
+        <v>1343.05</v>
       </c>
       <c r="AK30">
-        <v>1325</v>
+        <v>1315.1</v>
       </c>
       <c r="AL30">
-        <v>1381.7</v>
+        <v>1319.5</v>
       </c>
       <c r="AM30">
-        <v>37.799999999999947</v>
+        <v>-6.6500000000000909</v>
       </c>
       <c r="AN30">
-        <v>2.812709278964205</v>
+        <v>-0.50145157033518761</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>3.3433059087509385</v>
+        <v>-0.78947368421052633</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>3.3433059087509385</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>0.58261561844104759</v>
+        <v>0.98120300751879352</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>0.89753178758414354</v>
+        <v>0.33345964380447829</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>950</v>
+        <v>922.4</v>
       </c>
       <c r="C31">
-        <v>956.1</v>
+        <v>923.35</v>
       </c>
       <c r="D31">
-        <v>930</v>
+        <v>901</v>
       </c>
       <c r="E31">
-        <v>936.6</v>
+        <v>902.1</v>
       </c>
       <c r="F31">
-        <v>-25.600000000000019</v>
+        <v>-15.299999999999949</v>
       </c>
       <c r="G31">
-        <v>-2.6605695281646251</v>
+        <v>-1.667756703727922</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4105263157894712</v>
+        <v>-2.2007805724197698</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>1.4105263157894712</v>
+        <v>2.2007805724197698</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>0.64210526315789718</v>
+        <v>0.10299219427580719</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.70467648942985506</v>
+        <v>0.1219377009200779</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>955</v>
+        <v>920</v>
       </c>
       <c r="T31">
-        <v>976.1</v>
+        <v>921.55</v>
       </c>
       <c r="U31">
-        <v>940.5</v>
+        <v>912</v>
       </c>
       <c r="V31">
-        <v>962.2</v>
+        <v>917.4</v>
       </c>
       <c r="W31">
-        <v>19.100000000000019</v>
+        <v>-3.5500000000000682</v>
       </c>
       <c r="X31">
-        <v>2.0252359240801638</v>
+        <v>-0.38547152396982121</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>0.75392670157068542</v>
+        <v>-0.28260869565217639</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>0.75392670157068542</v>
+        <v>0.28260869565217639</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>1.4446061109956325</v>
+        <v>0.16847826086956028</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>1.5183246073298429</v>
+        <v>0.58862001308044232</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>949.9</v>
+        <v>917.7</v>
       </c>
       <c r="AJ31">
-        <v>964.8</v>
+        <v>923</v>
       </c>
       <c r="AK31">
-        <v>936.25</v>
+        <v>912</v>
       </c>
       <c r="AL31">
-        <v>943.1</v>
+        <v>920.95</v>
       </c>
       <c r="AM31">
-        <v>-12.44999999999993</v>
+        <v>11.450000000000051</v>
       </c>
       <c r="AN31">
-        <v>-1.302914551828783</v>
+        <v>1.258933479934035</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>-0.71586482787661376</v>
+        <v>0.35414623515310012</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>0.71586482787661376</v>
+        <v>0.35414623515310012</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>1.5685861669649415</v>
+        <v>0.22259623215157764</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.72632806701304442</v>
+        <v>0.6211180124223652</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>494.1</v>
+        <v>615</v>
       </c>
       <c r="C32">
-        <v>510.95</v>
+        <v>629.4</v>
       </c>
       <c r="D32">
-        <v>493.05</v>
+        <v>611.9</v>
       </c>
       <c r="E32">
-        <v>507.45</v>
+        <v>615.29999999999995</v>
       </c>
       <c r="F32">
-        <v>6.0500000000000114</v>
+        <v>1.049999999999955</v>
       </c>
       <c r="G32">
-        <v>1.206621459912248</v>
+        <v>0.1709401709401635</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>2.7018822100789244</v>
+        <v>4.8780487804870654E-2</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>2.7018822100789244</v>
+        <v>4.8780487804870654E-2</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>0.68972312543107694</v>
+        <v>2.2915650901999065</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0.21250758955677218</v>
+        <v>0.50406504065041013</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="N32" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O32" s="1" t="str">
         <f t="shared" si="7"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>515</v>
+        <v>614.9</v>
       </c>
       <c r="T32">
-        <v>515.25</v>
+        <v>621.9</v>
       </c>
       <c r="U32">
-        <v>498.7</v>
+        <v>612.1</v>
       </c>
       <c r="V32">
-        <v>501.4</v>
+        <v>614.25</v>
       </c>
       <c r="W32">
-        <v>-5.8500000000000227</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="X32">
-        <v>-1.1532774765894569</v>
+        <v>-0.19497928345114071</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>-2.6407766990291308</v>
+        <v>-0.10570824524312526</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>2.6407766990291308</v>
+        <v>0.10570824524312526</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>4.8543689320388349E-2</v>
+        <v>1.1383964872336967</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.53849222177901646</v>
+        <v>0.35002035002034632</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6450,38 +6450,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>509.9</v>
+        <v>619.5</v>
       </c>
       <c r="AJ32">
-        <v>516.35</v>
+        <v>623.9</v>
       </c>
       <c r="AK32">
-        <v>503.35</v>
+        <v>612.9</v>
       </c>
       <c r="AL32">
-        <v>507.25</v>
+        <v>615.45000000000005</v>
       </c>
       <c r="AM32">
-        <v>-8.1000000000000227</v>
+        <v>1.550000000000068</v>
       </c>
       <c r="AN32">
-        <v>-1.5717473561657169</v>
+        <v>0.25248411793452818</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>-0.51970974700921302</v>
+        <v>-0.65375302663437518</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>0.51970974700921302</v>
+        <v>0.65375302663437518</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>1.2649539125318778</v>
+        <v>0.71025020177562181</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>0.76885165105963083</v>
+        <v>0.41433097733366936</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="AU32" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV32" t="str">
         <f t="shared" si="28"/>
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>5730</v>
+        <v>7219</v>
       </c>
       <c r="C33">
-        <v>5800</v>
+        <v>7239.6</v>
       </c>
       <c r="D33">
-        <v>5650</v>
+        <v>7085</v>
       </c>
       <c r="E33">
-        <v>5678.7</v>
+        <v>7128.85</v>
       </c>
       <c r="F33">
-        <v>-76.199999999999818</v>
+        <v>-64.75</v>
       </c>
       <c r="G33">
-        <v>-1.3240890371683229</v>
+        <v>-0.90010564946619209</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.89528795811518647</v>
+        <v>-1.248787920764644</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>0.89528795811518647</v>
+        <v>1.248787920764644</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>1.2216404886561953</v>
+        <v>0.28535808283696307</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0.50539736207230201</v>
+        <v>0.61510622330390397</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>5800</v>
+        <v>7279.95</v>
       </c>
       <c r="T33">
-        <v>5810</v>
+        <v>7349.9</v>
       </c>
       <c r="U33">
-        <v>5695</v>
+        <v>7175</v>
       </c>
       <c r="V33">
-        <v>5754.9</v>
+        <v>7193.6</v>
       </c>
       <c r="W33">
-        <v>-7.4000000000005457</v>
+        <v>-38.049999999999272</v>
       </c>
       <c r="X33">
-        <v>-0.12842094302623161</v>
+        <v>-0.5261593135729643</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>-0.777586206896558</v>
+        <v>-1.186134520154664</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>0.777586206896558</v>
+        <v>1.186134520154664</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0.17241379310344829</v>
+        <v>0.96085824765279726</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>1.0408521433908433</v>
+        <v>0.25856316725979156</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>5677</v>
+        <v>7264</v>
       </c>
       <c r="AJ33">
-        <v>5846.8</v>
+        <v>7299.4</v>
       </c>
       <c r="AK33">
-        <v>5651</v>
+        <v>7168</v>
       </c>
       <c r="AL33">
-        <v>5762.3</v>
+        <v>7231.65</v>
       </c>
       <c r="AM33">
-        <v>6.9499999999998181</v>
+        <v>16.39999999999964</v>
       </c>
       <c r="AN33">
-        <v>0.1207572085103394</v>
+        <v>0.22729635147776769</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>1.5025541659327142</v>
+        <v>-0.44534691629956447</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>1.5025541659327142</v>
+        <v>0.44534691629956447</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>1.466428335907537</v>
+        <v>0.48733480176210953</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0.45798837414127186</v>
+        <v>0.88015874662075233</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,38 +6696,38 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>97.65</v>
+        <v>90.4</v>
       </c>
       <c r="C34">
-        <v>98.05</v>
+        <v>91.95</v>
       </c>
       <c r="D34">
-        <v>94.45</v>
+        <v>89.75</v>
       </c>
       <c r="E34">
-        <v>94.9</v>
+        <v>90.85</v>
       </c>
       <c r="F34">
-        <v>-2.0999999999999939</v>
+        <v>0.75</v>
       </c>
       <c r="G34">
-        <v>-2.164948453608242</v>
+        <v>0.83240843507214213</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>-2.8161802355350742</v>
+        <v>0.49778761061945642</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>2.8161802355350742</v>
+        <v>0.49778761061945642</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>0.40962621607782024</v>
+        <v>1.2107870115575219</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.47418335089568264</v>
+        <v>0.71902654867257265</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>96.4</v>
+        <v>90.2</v>
       </c>
       <c r="T34">
-        <v>97.4</v>
+        <v>90.9</v>
       </c>
       <c r="U34">
-        <v>95.55</v>
+        <v>89.45</v>
       </c>
       <c r="V34">
-        <v>97</v>
+        <v>90.1</v>
       </c>
       <c r="W34">
-        <v>0.90000000000000568</v>
+        <v>-0.45000000000000279</v>
       </c>
       <c r="X34">
-        <v>0.93652445369407467</v>
+        <v>-0.49696300386527098</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>0.62240663900414339</v>
+        <v>-0.11086474501109593</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>0.62240663900414339</v>
+        <v>0.11086474501109593</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>0.41237113402062436</v>
+        <v>0.77605321507760849</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0.88174273858922048</v>
+        <v>0.72142064372918036</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>97.05</v>
+        <v>91</v>
       </c>
       <c r="AJ34">
-        <v>98.55</v>
+        <v>91.5</v>
       </c>
       <c r="AK34">
-        <v>94.35</v>
+        <v>89.25</v>
       </c>
       <c r="AL34">
-        <v>96.1</v>
+        <v>90.55</v>
       </c>
       <c r="AM34">
-        <v>-0.95000000000000284</v>
+        <v>0.1499999999999915</v>
       </c>
       <c r="AN34">
-        <v>-0.9788768675940267</v>
+        <v>0.16592920353981361</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>-0.9788768675940267</v>
+        <v>-0.49450549450549763</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>0.9788768675940267</v>
+        <v>0.49450549450549763</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>1.545595054095827</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>1.8210197710718004</v>
+        <v>1.435670900055215</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="AU34" t="str">
         <f t="shared" ref="AU34:AU51" si="58">IF(AND(AO34&lt;0,S34&lt;AL34,V34&lt;AL34,B34&gt;V34,E34&gt;V34,H34&gt;0),"YES","NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV34" t="str">
         <f t="shared" ref="AV34:AV51" si="59">IF(AND(AO34&gt;0,S34&gt;AL34,V34&gt;AL34,B34&lt;V34,E34&lt;V34,H34&lt;0),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>16740</v>
+        <v>16400</v>
       </c>
       <c r="C35">
-        <v>16980.599999999999</v>
+        <v>16400</v>
       </c>
       <c r="D35">
-        <v>16540</v>
+        <v>16040.05</v>
       </c>
       <c r="E35">
-        <v>16724.849999999999</v>
+        <v>16083.3</v>
       </c>
       <c r="F35">
-        <v>47.349999999998538</v>
+        <v>-242.05000000000109</v>
       </c>
       <c r="G35">
-        <v>0.28391545495427101</v>
+        <v>-1.4826634651018269</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>-9.0501792114704036E-2</v>
+        <v>-1.9310975609756142</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>9.0501792114704036E-2</v>
+        <v>1.9310975609756142</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>1.4372759856630737</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>1.1052416015689144</v>
+        <v>0.26891247442999883</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>16850</v>
+        <v>16400</v>
       </c>
       <c r="T35">
-        <v>16930</v>
+        <v>16400</v>
       </c>
       <c r="U35">
-        <v>16630</v>
+        <v>16204</v>
       </c>
       <c r="V35">
-        <v>16677.5</v>
+        <v>16325.35</v>
       </c>
       <c r="W35">
-        <v>-109.5</v>
+        <v>-95.350000000000364</v>
       </c>
       <c r="X35">
-        <v>-0.65229046285816406</v>
+        <v>-0.58066952078778833</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>-1.0237388724035608</v>
+        <v>-0.45518292682926609</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>1.0237388724035608</v>
+        <v>0.45518292682926609</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>0.47477744807121658</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>0.28481487033428271</v>
+        <v>0.74332250150839252</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>16590.3</v>
+        <v>16261.25</v>
       </c>
       <c r="AJ35">
-        <v>16850</v>
+        <v>16450</v>
       </c>
       <c r="AK35">
-        <v>16565</v>
+        <v>16201.25</v>
       </c>
       <c r="AL35">
-        <v>16787</v>
+        <v>16420.7</v>
       </c>
       <c r="AM35">
-        <v>79.049999999999272</v>
+        <v>108.2000000000007</v>
       </c>
       <c r="AN35">
-        <v>0.47312806179093952</v>
+        <v>0.66329501915709266</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>1.185632568428544</v>
+        <v>0.98055192558998072</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>1.185632568428544</v>
+        <v>0.98055192558998072</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>0.3752904032882588</v>
+        <v>0.17843331892062622</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>0.15249874926914689</v>
+        <v>0.36897532477515566</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>83.95</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="C36">
-        <v>84.1</v>
+        <v>74.75</v>
       </c>
       <c r="D36">
-        <v>81.599999999999994</v>
+        <v>73.25</v>
       </c>
       <c r="E36">
-        <v>82.4</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="F36">
-        <v>-1.75</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="G36">
-        <v>-2.0796197266785499</v>
+        <v>0.47748976807641003</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>-1.8463371054198894</v>
+        <v>-0.27081922816518439</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>1.8463371054198894</v>
+        <v>0.27081922816518439</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>0.17867778439546333</v>
+        <v>1.2186865267434066</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.97087378640778077</v>
+        <v>0.54310930074678299</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>83.1</v>
+        <v>73.45</v>
       </c>
       <c r="T36">
-        <v>84.8</v>
+        <v>73.7</v>
       </c>
       <c r="U36">
-        <v>82.5</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="V36">
-        <v>84.15</v>
+        <v>73.3</v>
       </c>
       <c r="W36">
-        <v>2.5500000000000109</v>
+        <v>-0.35000000000000853</v>
       </c>
       <c r="X36">
-        <v>3.1250000000000142</v>
+        <v>-0.4752206381534399</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>1.2635379061371979</v>
+        <v>-0.20422055820286683</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>1.2635379061371979</v>
+        <v>0.20422055820286683</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>0.77243018419487997</v>
+        <v>0.3403675970047651</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>0.72202166064981266</v>
+        <v>0.95497953615280073</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>82.25</v>
+        <v>73.5</v>
       </c>
       <c r="AJ36">
-        <v>84</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AK36">
-        <v>80</v>
+        <v>72.650000000000006</v>
       </c>
       <c r="AL36">
-        <v>81.599999999999994</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="AM36">
-        <v>-1.5</v>
+        <v>0.95000000000000284</v>
       </c>
       <c r="AN36">
-        <v>-1.8050541516245491</v>
+        <v>1.30674002751032</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>-0.79027355623100992</v>
+        <v>0.20408163265306897</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>0.79027355623100992</v>
+        <v>0.20408163265306897</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>2.1276595744680851</v>
+        <v>1.0183299389002036</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>1.9607843137254832</v>
+        <v>1.156462585034006</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>178</v>
+        <v>177.5</v>
       </c>
       <c r="C37">
-        <v>180.3</v>
+        <v>177.5</v>
       </c>
       <c r="D37">
-        <v>177.15</v>
+        <v>170.75</v>
       </c>
       <c r="E37">
-        <v>178.25</v>
+        <v>171.5</v>
       </c>
       <c r="F37">
-        <v>-0.94999999999998863</v>
+        <v>-3.6500000000000061</v>
       </c>
       <c r="G37">
-        <v>-0.53013392857142227</v>
+        <v>-2.0839280616614362</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>0.1404494382022472</v>
+        <v>-3.3802816901408446</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>0.1404494382022472</v>
+        <v>3.3802816901408446</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>1.1500701262272155</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>0.47752808988763723</v>
+        <v>0.43731778425655976</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>180.95</v>
+        <v>178.1</v>
       </c>
       <c r="T37">
-        <v>182.1</v>
+        <v>178.3</v>
       </c>
       <c r="U37">
-        <v>178.15</v>
+        <v>174.1</v>
       </c>
       <c r="V37">
-        <v>179.2</v>
+        <v>175.15</v>
       </c>
       <c r="W37">
-        <v>-0.15000000000000571</v>
+        <v>-2.4499999999999891</v>
       </c>
       <c r="X37">
-        <v>-8.3635349874550152E-2</v>
+        <v>-1.379504504504498</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>-0.96711798839458418</v>
+        <v>-1.6563728242560294</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>0.96711798839458418</v>
+        <v>1.6563728242560294</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>0.63553467808787278</v>
+        <v>0.11229646266143574</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>0.58593749999999056</v>
+        <v>0.59948615472452826</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>178.4</v>
+        <v>176</v>
       </c>
       <c r="AJ37">
-        <v>183.3</v>
+        <v>178.45</v>
       </c>
       <c r="AK37">
-        <v>174.35</v>
+        <v>174.15</v>
       </c>
       <c r="AL37">
-        <v>179.35</v>
+        <v>177.6</v>
       </c>
       <c r="AM37">
-        <v>0.84999999999999432</v>
+        <v>2.3499999999999939</v>
       </c>
       <c r="AN37">
-        <v>0.476190476190473</v>
+        <v>1.3409415121255319</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>0.53251121076232544</v>
+        <v>0.90909090909090595</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>0.53251121076232544</v>
+        <v>0.90909090909090595</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>2.202397546696413</v>
+        <v>0.47860360360360044</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>2.2701793721973158</v>
+        <v>1.0511363636363604</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>1728.05</v>
+        <v>2325</v>
       </c>
       <c r="C38">
-        <v>1739.75</v>
+        <v>2360</v>
       </c>
       <c r="D38">
-        <v>1715.55</v>
+        <v>2282</v>
       </c>
       <c r="E38">
-        <v>1723.15</v>
+        <v>2302.5500000000002</v>
       </c>
       <c r="F38">
-        <v>-18.5</v>
+        <v>-17.199999999999822</v>
       </c>
       <c r="G38">
-        <v>-1.0622111216375281</v>
+        <v>-0.74145920896647555</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>-0.28355661005178462</v>
+        <v>-0.96559139784945458</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>0.28355661005178462</v>
+        <v>0.96559139784945458</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>0.67706374236856837</v>
+        <v>1.5053763440860215</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.44105272321040745</v>
+        <v>0.89248876245902076</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>1728.8</v>
+        <v>2312</v>
       </c>
       <c r="T38">
-        <v>1752</v>
+        <v>2337.85</v>
       </c>
       <c r="U38">
-        <v>1717</v>
+        <v>2287.1</v>
       </c>
       <c r="V38">
-        <v>1741.65</v>
+        <v>2319.75</v>
       </c>
       <c r="W38">
-        <v>23.75</v>
+        <v>5.75</v>
       </c>
       <c r="X38">
-        <v>1.3825018918446941</v>
+        <v>0.24848746758859119</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>0.74329014345211342</v>
+        <v>0.33520761245674741</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>0.74329014345211342</v>
+        <v>0.33520761245674741</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>0.59426405994315212</v>
+        <v>0.78025649315658618</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>0.68255437297547172</v>
+        <v>1.0769896193771666</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="AF38" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG38" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7548,38 +7548,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>1727</v>
+        <v>2183.1</v>
       </c>
       <c r="AJ38">
-        <v>1749</v>
+        <v>2344.9499999999998</v>
       </c>
       <c r="AK38">
-        <v>1713.05</v>
+        <v>2175.35</v>
       </c>
       <c r="AL38">
-        <v>1717.9</v>
+        <v>2314</v>
       </c>
       <c r="AM38">
-        <v>-9.9499999999998181</v>
+        <v>152.65000000000009</v>
       </c>
       <c r="AN38">
-        <v>-0.57586017304741843</v>
+        <v>7.0627154324843318</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>-0.52692530399536242</v>
+        <v>5.9960606477028122</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>0.52692530399536242</v>
+        <v>5.9960606477028122</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>1.2738853503184715</v>
+        <v>1.3375108038029306</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>0.28232143896618755</v>
+        <v>0.35499977096788971</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,42 +7611,42 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>22450</v>
+        <v>19512.3</v>
       </c>
       <c r="C39">
-        <v>22483.85</v>
+        <v>19985</v>
       </c>
       <c r="D39">
-        <v>21927.599999999999</v>
+        <v>19500</v>
       </c>
       <c r="E39">
-        <v>22341.95</v>
+        <v>19789.5</v>
       </c>
       <c r="F39">
-        <v>-181.89999999999779</v>
+        <v>287</v>
       </c>
       <c r="G39">
-        <v>-0.80758840073965077</v>
+        <v>1.471606204332778</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>-0.48129175946547559</v>
+        <v>1.4206423640472972</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>0.48129175946547559</v>
+        <v>1.4206423640472972</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>0.15077951002226525</v>
+        <v>0.98789762247656587</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>1.8545829706001586</v>
+        <v>6.3037161175254958E-2</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="36"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>22111</v>
+        <v>19735.5</v>
       </c>
       <c r="T39">
-        <v>22700</v>
+        <v>19735.5</v>
       </c>
       <c r="U39">
-        <v>21863.4</v>
+        <v>19365.099999999999</v>
       </c>
       <c r="V39">
-        <v>22523.85</v>
+        <v>19502.5</v>
       </c>
       <c r="W39">
-        <v>455.04999999999927</v>
+        <v>-140.84999999999849</v>
       </c>
       <c r="X39">
-        <v>2.0619607772058259</v>
+        <v>-0.71703655435553793</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>1.8671701867848518</v>
+        <v>-1.1806136150591573</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>1.8671701867848518</v>
+        <v>1.1806136150591573</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>0.78205990538918291</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>1.119804622133773</v>
+        <v>0.70452506088963707</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>22495</v>
+        <v>19500</v>
       </c>
       <c r="AJ39">
-        <v>22619.1</v>
+        <v>19750</v>
       </c>
       <c r="AK39">
-        <v>21889</v>
+        <v>19319</v>
       </c>
       <c r="AL39">
-        <v>22068.799999999999</v>
+        <v>19643.349999999999</v>
       </c>
       <c r="AM39">
-        <v>-497.45000000000073</v>
+        <v>241.84999999999849</v>
       </c>
       <c r="AN39">
-        <v>-2.204398160970479</v>
+        <v>1.246553101564305</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>-1.8946432540564602</v>
+        <v>0.73512820512819765</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>1.8946432540564602</v>
+        <v>0.73512820512819765</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>0.55167815070014914</v>
+        <v>0.54293183189222538</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>0.81472486043645009</v>
+        <v>0.92820512820512824</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>183</v>
+        <v>205.9</v>
       </c>
       <c r="C40">
-        <v>183.1</v>
+        <v>206.2</v>
       </c>
       <c r="D40">
-        <v>178.5</v>
+        <v>197.35</v>
       </c>
       <c r="E40">
-        <v>179.25</v>
+        <v>198.5</v>
       </c>
       <c r="F40">
-        <v>-5.3499999999999943</v>
+        <v>-4.1999999999999886</v>
       </c>
       <c r="G40">
-        <v>-2.898158179848318</v>
+        <v>-2.072027627035022</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>-2.0491803278688523</v>
+        <v>-3.5939776590577974</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>2.0491803278688523</v>
+        <v>3.5939776590577974</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>5.4644808743166295E-2</v>
+        <v>0.14570179698882124</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>0.41841004184100417</v>
+        <v>0.579345088161212</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>188</v>
+        <v>198.55</v>
       </c>
       <c r="T40">
-        <v>188.6</v>
+        <v>203.85</v>
       </c>
       <c r="U40">
-        <v>183.8</v>
+        <v>197</v>
       </c>
       <c r="V40">
-        <v>184.6</v>
+        <v>202.7</v>
       </c>
       <c r="W40">
-        <v>-0.65000000000000568</v>
+        <v>4.5499999999999829</v>
       </c>
       <c r="X40">
-        <v>-0.35087719298245917</v>
+        <v>2.2962402220539908</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>-1.8085106382978753</v>
+        <v>2.0901536136993086</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>1.8085106382978753</v>
+        <v>2.0901536136993086</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.31914893617020978</v>
+        <v>0.56734089787864128</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>0.43336944745394529</v>
+        <v>0.78065978342987219</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>182.2</v>
+        <v>197.7</v>
       </c>
       <c r="AJ40">
-        <v>186.8</v>
+        <v>201.45</v>
       </c>
       <c r="AK40">
-        <v>180.4</v>
+        <v>195.2</v>
       </c>
       <c r="AL40">
-        <v>185.25</v>
+        <v>198.15</v>
       </c>
       <c r="AM40">
-        <v>0.65000000000000568</v>
+        <v>3.3000000000000109</v>
       </c>
       <c r="AN40">
-        <v>0.35211267605634111</v>
+        <v>1.693610469592</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>1.6739846322722347</v>
+        <v>0.22761760242792972</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>1.6739846322722347</v>
+        <v>0.22761760242792972</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>0.83670715249663219</v>
+        <v>1.6654049962149802</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>0.98792535675081405</v>
+        <v>1.2645422357106728</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>475.5</v>
+        <v>505.55</v>
       </c>
       <c r="C41">
-        <v>487.35</v>
+        <v>509</v>
       </c>
       <c r="D41">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="E41">
-        <v>482</v>
+        <v>495.8</v>
       </c>
       <c r="F41">
-        <v>2.0500000000000109</v>
+        <v>-9.75</v>
       </c>
       <c r="G41">
-        <v>0.42712782581519149</v>
+        <v>-1.928592621896944</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>1.3669821240799158</v>
+        <v>-1.9285926218969438</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>1.3669821240799158</v>
+        <v>1.9285926218969438</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>1.1099585062240711</v>
+        <v>0.68242508159430093</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>0.10515247108307045</v>
+        <v>0.36304961678096231</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>490.25</v>
+        <v>507</v>
       </c>
       <c r="T41">
-        <v>491</v>
+        <v>512.35</v>
       </c>
       <c r="U41">
-        <v>472.2</v>
+        <v>502.6</v>
       </c>
       <c r="V41">
-        <v>479.95</v>
+        <v>505.55</v>
       </c>
       <c r="W41">
-        <v>-7.6999999999999886</v>
+        <v>-2.3999999999999768</v>
       </c>
       <c r="X41">
-        <v>-1.5790013329232011</v>
+        <v>-0.4724874495521168</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>-2.1009688934217259</v>
+        <v>-0.2859960552268222</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>2.1009688934217259</v>
+        <v>0.2859960552268222</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>0.15298317185109639</v>
+        <v>1.0552268244575982</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>1.6147515366183978</v>
+        <v>0.58352289585599615</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>480.3</v>
+        <v>512.70000000000005</v>
       </c>
       <c r="AJ41">
-        <v>492.5</v>
+        <v>516.70000000000005</v>
       </c>
       <c r="AK41">
-        <v>477</v>
+        <v>503.65</v>
       </c>
       <c r="AL41">
-        <v>487.65</v>
+        <v>507.95</v>
       </c>
       <c r="AM41">
-        <v>3.25</v>
+        <v>-1.350000000000023</v>
       </c>
       <c r="AN41">
-        <v>0.67093311312964488</v>
+        <v>-0.26506970351463238</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>1.5302935665209172</v>
+        <v>-0.92646771991419086</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>1.5302935665209172</v>
+        <v>0.92646771991419086</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>0.99456577463345086</v>
+        <v>0.78018334308562498</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>0.68707058088694806</v>
+        <v>0.84654001378088617</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>2108</v>
+        <v>2384.1</v>
       </c>
       <c r="C42">
-        <v>2127.6</v>
+        <v>2505.75</v>
       </c>
       <c r="D42">
-        <v>2091.3000000000002</v>
+        <v>2381.85</v>
       </c>
       <c r="E42">
-        <v>2101.65</v>
+        <v>2491.4</v>
       </c>
       <c r="F42">
-        <v>-17.199999999999822</v>
+        <v>117.3000000000002</v>
       </c>
       <c r="G42">
-        <v>-0.81176109682138031</v>
+        <v>4.9408196790362746</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>-0.30123339658443593</v>
+        <v>4.5006501405142476</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>0.30123339658443593</v>
+        <v>4.5006501405142476</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>0.92979127134724426</v>
+        <v>0.57598137593320664</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>0.49247020198415098</v>
+        <v>9.4375235938089844E-2</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>2025</v>
+        <v>2330.9499999999998</v>
       </c>
       <c r="T42">
-        <v>2132</v>
+        <v>2383</v>
       </c>
       <c r="U42">
-        <v>2019.95</v>
+        <v>2330.15</v>
       </c>
       <c r="V42">
-        <v>2118.85</v>
+        <v>2374.1</v>
       </c>
       <c r="W42">
-        <v>102.75</v>
+        <v>42.949999999999818</v>
       </c>
       <c r="X42">
-        <v>5.096473389216805</v>
+        <v>1.842438281534857</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>4.6345679012345631</v>
+        <v>1.8511765589137517</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>4.6345679012345631</v>
+        <v>1.8511765589137517</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>0.62061967576751975</v>
+        <v>0.37487890147845881</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>0.24938271604938045</v>
+        <v>3.4320770501286055E-2</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>2035</v>
+        <v>2335</v>
       </c>
       <c r="AJ42">
-        <v>2060</v>
+        <v>2348.5</v>
       </c>
       <c r="AK42">
-        <v>2009.25</v>
+        <v>2324.3000000000002</v>
       </c>
       <c r="AL42">
-        <v>2016.1</v>
+        <v>2331.15</v>
       </c>
       <c r="AM42">
-        <v>-26.10000000000014</v>
+        <v>3.5</v>
       </c>
       <c r="AN42">
-        <v>-1.2780334932915549</v>
+        <v>0.15036624922131761</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>-0.92874692874693321</v>
+        <v>-0.16488222698072416</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>0.92874692874693321</v>
+        <v>0.16488222698072416</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>1.2285012285012284</v>
+        <v>0.57815845824411138</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>0.33976489261444914</v>
+        <v>0.29384638483151698</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>101.4</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="C43">
-        <v>101.4</v>
+        <v>151.1</v>
       </c>
       <c r="D43">
-        <v>98.05</v>
+        <v>145.5</v>
       </c>
       <c r="E43">
-        <v>99.45</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="F43">
-        <v>-1.9500000000000031</v>
+        <v>4.25</v>
       </c>
       <c r="G43">
-        <v>-1.923076923076926</v>
+        <v>2.9452529452529448</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>-1.9230769230769256</v>
+        <v>0.91711956521740678</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>1.9230769230769256</v>
+        <v>0.91711956521740678</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1.7165937394816442</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>1.4077425842131781</v>
+        <v>1.1548913043478184</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>105.4</v>
+        <v>143.1</v>
       </c>
       <c r="T43">
-        <v>106.05</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="U43">
-        <v>100.35</v>
+        <v>141.65</v>
       </c>
       <c r="V43">
-        <v>101.4</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="W43">
-        <v>-2.399999999999991</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>-2.3121387283236912</v>
+        <v>0.69783670621074656</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>-3.795066413662239</v>
+        <v>0.83857442348009592</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>3.795066413662239</v>
+        <v>0.83857442348009592</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>0.61669829222010575</v>
+        <v>1.7325017325017324</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>1.0355029585798929</v>
+        <v>1.01327742837176</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>103.85</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="AJ43">
-        <v>106.3</v>
+        <v>144.5</v>
       </c>
       <c r="AK43">
-        <v>101.65</v>
+        <v>138</v>
       </c>
       <c r="AL43">
-        <v>103.8</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="AM43">
-        <v>-1</v>
+        <v>3.2000000000000171</v>
       </c>
       <c r="AN43">
-        <v>-0.95419847328244278</v>
+        <v>2.2840827980014402</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>-4.8146364949443583E-2</v>
+        <v>0.35014005602240894</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>4.8146364949443583E-2</v>
+        <v>0.35014005602240894</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>2.3591718825228725</v>
+        <v>0.8374040474528881</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>2.0712909441233061</v>
+        <v>3.3613445378151336</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="C44">
-        <v>326</v>
+        <v>414.1</v>
       </c>
       <c r="D44">
-        <v>312.10000000000002</v>
+        <v>402.15</v>
       </c>
       <c r="E44">
-        <v>320.85000000000002</v>
+        <v>404.65</v>
       </c>
       <c r="F44">
-        <v>-3</v>
+        <v>-2.8500000000000232</v>
       </c>
       <c r="G44">
-        <v>-0.92635479388605835</v>
+        <v>-0.69938650306749017</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>-0.66563467492259365</v>
+        <v>-1.3048780487804934</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>0.66563467492259365</v>
+        <v>1.3048780487804934</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>0.92879256965944268</v>
+        <v>1.0000000000000056</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>2.7271310581268504</v>
+        <v>0.61781786729272214</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="37"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>325.8</v>
+        <v>408.75</v>
       </c>
       <c r="T44">
-        <v>329.95</v>
+        <v>412.65</v>
       </c>
       <c r="U44">
-        <v>322.55</v>
+        <v>402.5</v>
       </c>
       <c r="V44">
-        <v>323.85000000000002</v>
+        <v>407.5</v>
       </c>
       <c r="W44">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="X44">
-        <v>0.23212627669452179</v>
+        <v>-0.1225490196078431</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>-0.59852670349907566</v>
+        <v>-0.3058103975535168</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>0.59852670349907566</v>
+        <v>0.3058103975535168</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>1.2737875997544434</v>
+        <v>0.95412844036696698</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>0.40142041068396206</v>
+        <v>1.2269938650306749</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>322</v>
+        <v>424</v>
       </c>
       <c r="AJ44">
-        <v>327.39999999999998</v>
+        <v>425.9</v>
       </c>
       <c r="AK44">
-        <v>321</v>
+        <v>401.1</v>
       </c>
       <c r="AL44">
-        <v>323.10000000000002</v>
+        <v>408</v>
       </c>
       <c r="AM44">
-        <v>-2.9499999999999891</v>
+        <v>-9.3999999999999773</v>
       </c>
       <c r="AN44">
-        <v>-0.90476920717680975</v>
+        <v>-2.252036415907996</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>0.34161490683230517</v>
+        <v>-3.7735849056603774</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>0.34161490683230517</v>
+        <v>3.7735849056603774</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>1.3308573197152442</v>
+        <v>0.44811320754716444</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>0.3105590062111801</v>
+        <v>1.6911764705882297</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="AV44" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW44" t="str">
         <f t="shared" si="60"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>558.9</v>
+        <v>770.15</v>
       </c>
       <c r="C45">
-        <v>558.9</v>
+        <v>796.6</v>
       </c>
       <c r="D45">
-        <v>539.20000000000005</v>
+        <v>770</v>
       </c>
       <c r="E45">
-        <v>541.54999999999995</v>
+        <v>790.75</v>
       </c>
       <c r="F45">
-        <v>-19.300000000000072</v>
+        <v>25.600000000000019</v>
       </c>
       <c r="G45">
-        <v>-3.441205313363656</v>
+        <v>3.345749199503369</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>-3.1043120415101133</v>
+        <v>2.6748036096864278</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>3.1043120415101133</v>
+        <v>2.6748036096864278</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.73980398355991428</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>0.43393961776380929</v>
+        <v>1.9476725313247713E-2</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>555.5</v>
+        <v>749.4</v>
       </c>
       <c r="T45">
-        <v>574.95000000000005</v>
+        <v>770.6</v>
       </c>
       <c r="U45">
-        <v>552.6</v>
+        <v>747.5</v>
       </c>
       <c r="V45">
-        <v>560.85</v>
+        <v>765.15</v>
       </c>
       <c r="W45">
-        <v>6.7000000000000446</v>
+        <v>15.149999999999981</v>
       </c>
       <c r="X45">
-        <v>1.209058919065243</v>
+        <v>2.0199999999999969</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>0.96309630963096715</v>
+        <v>2.1016813450760607</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>0.96309630963096715</v>
+        <v>2.1016813450760607</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>2.5140411874832882</v>
+        <v>0.71227863817552717</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>0.52205220522051798</v>
+        <v>0.2535361622631408</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>558</v>
+        <v>756.65</v>
       </c>
       <c r="AJ45">
-        <v>565.6</v>
+        <v>758.4</v>
       </c>
       <c r="AK45">
-        <v>552.04999999999995</v>
+        <v>739.3</v>
       </c>
       <c r="AL45">
-        <v>554.15</v>
+        <v>750</v>
       </c>
       <c r="AM45">
-        <v>-6.8000000000000682</v>
+        <v>-3.3500000000000232</v>
       </c>
       <c r="AN45">
-        <v>-1.2122292539442141</v>
+        <v>-0.44468042742417502</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>-0.6899641577060972</v>
+        <v>-0.8788739840084554</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>0.6899641577060972</v>
+        <v>0.8788739840084554</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>1.3620071684587853</v>
+        <v>0.23128262737064695</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>0.37895876567716735</v>
+        <v>1.4266666666666727</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>964.9</v>
+        <v>1168.5</v>
       </c>
       <c r="C46">
-        <v>971.6</v>
+        <v>1191.5999999999999</v>
       </c>
       <c r="D46">
-        <v>935</v>
+        <v>1167.95</v>
       </c>
       <c r="E46">
-        <v>957.45</v>
+        <v>1188</v>
       </c>
       <c r="F46">
-        <v>-8.75</v>
+        <v>20.25</v>
       </c>
       <c r="G46">
-        <v>-0.90560960463672113</v>
+        <v>1.7341040462427739</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>-0.7721007358275398</v>
+        <v>1.6688061617458279</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>0.7721007358275398</v>
+        <v>1.6688061617458279</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.69437247383148992</v>
+        <v>0.30303030303029538</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>2.3447699618779096</v>
+        <v>4.7068891741545105E-2</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="37"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>988</v>
+        <v>1156</v>
       </c>
       <c r="T46">
-        <v>989.9</v>
+        <v>1194</v>
       </c>
       <c r="U46">
-        <v>961.9</v>
+        <v>1155</v>
       </c>
       <c r="V46">
-        <v>966.2</v>
+        <v>1167.75</v>
       </c>
       <c r="W46">
-        <v>-11.399999999999981</v>
+        <v>12.5</v>
       </c>
       <c r="X46">
-        <v>-1.166121112929621</v>
+        <v>1.08201687946332</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>-2.2064777327935174</v>
+        <v>1.0164359861591694</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>2.2064777327935174</v>
+        <v>1.0164359861591694</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>0.19230769230768999</v>
+        <v>2.2479126525369297</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>0.44504243427862428</v>
+        <v>8.6505190311418692E-2</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>985</v>
+        <v>1165</v>
       </c>
       <c r="AJ46">
-        <v>994</v>
+        <v>1165.8499999999999</v>
       </c>
       <c r="AK46">
-        <v>973.55</v>
+        <v>1138.75</v>
       </c>
       <c r="AL46">
-        <v>977.6</v>
+        <v>1155.25</v>
       </c>
       <c r="AM46">
-        <v>-10.600000000000019</v>
+        <v>-5.8499999999999091</v>
       </c>
       <c r="AN46">
-        <v>-1.072657356810365</v>
+        <v>-0.50383257256049518</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>-0.75126903553299262</v>
+        <v>-0.83690987124463523</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>0.75126903553299262</v>
+        <v>0.83690987124463523</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>0.91370558375634525</v>
+        <v>7.296137339055013E-2</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>0.41427986906711006</v>
+        <v>1.4282622808915819</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>440</v>
+        <v>507.95</v>
       </c>
       <c r="C47">
-        <v>440.25</v>
+        <v>519.79999999999995</v>
       </c>
       <c r="D47">
-        <v>429.15</v>
+        <v>502</v>
       </c>
       <c r="E47">
-        <v>431.9</v>
+        <v>515.9</v>
       </c>
       <c r="F47">
-        <v>-8.3500000000000227</v>
+        <v>16.899999999999981</v>
       </c>
       <c r="G47">
-        <v>-1.8966496308915439</v>
+        <v>3.386773547094184</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>-1.8409090909090962</v>
+        <v>1.5651146766413997</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>1.8409090909090962</v>
+        <v>1.5651146766413997</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>5.6818181818181816E-2</v>
+        <v>0.75596045745299034</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>0.63672146330169022</v>
+        <v>1.1713751353479651</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>450</v>
+        <v>492.6</v>
       </c>
       <c r="T47">
-        <v>450.85</v>
+        <v>501</v>
       </c>
       <c r="U47">
-        <v>438.65</v>
+        <v>488.1</v>
       </c>
       <c r="V47">
-        <v>440.25</v>
+        <v>499</v>
       </c>
       <c r="W47">
-        <v>-2.6499999999999768</v>
+        <v>8</v>
       </c>
       <c r="X47">
-        <v>-0.59832919394896766</v>
+        <v>1.629327902240326</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>-2.166666666666667</v>
+        <v>1.2992285830288219</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>2.166666666666667</v>
+        <v>1.2992285830288219</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>0.18888888888889394</v>
+        <v>0.40080160320641278</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.36342986939239585</v>
+        <v>0.91352009744214369</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>438.15</v>
+        <v>497.9</v>
       </c>
       <c r="AJ47">
-        <v>454.7</v>
+        <v>497.9</v>
       </c>
       <c r="AK47">
-        <v>437.45</v>
+        <v>485</v>
       </c>
       <c r="AL47">
-        <v>442.9</v>
+        <v>491</v>
       </c>
       <c r="AM47">
-        <v>-2.0500000000000109</v>
+        <v>-3.5500000000000109</v>
       </c>
       <c r="AN47">
-        <v>-0.4607259242611555</v>
+        <v>-0.71782428470326787</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>1.0841036174825973</v>
+        <v>-1.3858204458726608</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>1.0841036174825973</v>
+        <v>1.3858204458726608</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>2.6642582975841078</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>0.15976263836585386</v>
+        <v>1.2219959266802443</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>3839.95</v>
+        <v>3899.95</v>
       </c>
       <c r="C48">
-        <v>3840</v>
+        <v>3969.7</v>
       </c>
       <c r="D48">
-        <v>3757</v>
+        <v>3890</v>
       </c>
       <c r="E48">
-        <v>3807</v>
+        <v>3914.1</v>
       </c>
       <c r="F48">
-        <v>-53.599999999999909</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>-1.388385225094543</v>
+        <v>0.25614097999538937</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>-0.85808408963657912</v>
+        <v>0.36282516442518731</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>0.85808408963657912</v>
+        <v>0.36282516442518731</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>1.3021002877689006E-3</v>
+        <v>1.4205053524437268</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>1.3133701076963489</v>
+        <v>0.25513147604456005</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>3835</v>
+        <v>3915.5</v>
       </c>
       <c r="T48">
-        <v>3874</v>
+        <v>3944.2</v>
       </c>
       <c r="U48">
-        <v>3780</v>
+        <v>3878</v>
       </c>
       <c r="V48">
-        <v>3860.6</v>
+        <v>3904.1</v>
       </c>
       <c r="W48">
-        <v>58.25</v>
+        <v>-11.400000000000089</v>
       </c>
       <c r="X48">
-        <v>1.5319473483503621</v>
+        <v>-0.29115055548461483</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>0.66753585397652959</v>
+        <v>-0.29115055548461477</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>0.66753585397652959</v>
+        <v>0.29115055548461477</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0.34709630627363863</v>
+        <v>0.73298429319371261</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>1.4341590612777053</v>
+        <v>0.66852795778796414</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>3814.8</v>
+        <v>3837</v>
       </c>
       <c r="AJ48">
-        <v>3875</v>
+        <v>3939</v>
       </c>
       <c r="AK48">
-        <v>3781.75</v>
+        <v>3825</v>
       </c>
       <c r="AL48">
-        <v>3802.35</v>
+        <v>3915.5</v>
       </c>
       <c r="AM48">
-        <v>-19.25</v>
+        <v>79.900000000000091</v>
       </c>
       <c r="AN48">
-        <v>-0.50371572116391039</v>
+        <v>2.083116070497447</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>-0.32636049072035944</v>
+        <v>2.0458691686213188</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>0.32636049072035944</v>
+        <v>2.0458691686213188</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>1.5780643808325421</v>
+        <v>0.60017877665687647</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>0.54177022104750772</v>
+        <v>0.31274433150899139</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C49">
-        <v>110</v>
+        <v>132.35</v>
       </c>
       <c r="D49">
-        <v>105.55</v>
+        <v>128.5</v>
       </c>
       <c r="E49">
-        <v>107.95</v>
+        <v>129.65</v>
       </c>
       <c r="F49">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="G49">
-        <v>-1.819008640291041</v>
+        <v>-1.705837755875663</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>-1.8636363636363611</v>
+        <v>-1.7803030303030261</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>1.8636363636363611</v>
+        <v>1.7803030303030261</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.26515151515151081</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>2.2232515053265454</v>
+        <v>0.88700347088315135</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="37"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>112.75</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="T49">
-        <v>113.25</v>
+        <v>132.5</v>
       </c>
       <c r="U49">
-        <v>109.3</v>
+        <v>127.3</v>
       </c>
       <c r="V49">
-        <v>109.95</v>
+        <v>131.9</v>
       </c>
       <c r="W49">
-        <v>-1.2999999999999969</v>
+        <v>1.4500000000000171</v>
       </c>
       <c r="X49">
-        <v>-1.1685393258426939</v>
+        <v>1.1115369873514891</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>-2.4833702882483344</v>
+        <v>0.91813312930376212</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>2.4833702882483344</v>
+        <v>0.91813312930376212</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>0.44345898004434592</v>
+        <v>0.45489006823350592</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>0.59117780809459364</v>
+        <v>2.6013771996939496</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>108.95</v>
+        <v>129.05000000000001</v>
       </c>
       <c r="AJ49">
-        <v>112.25</v>
+        <v>131.25</v>
       </c>
       <c r="AK49">
-        <v>108</v>
+        <v>128.05000000000001</v>
       </c>
       <c r="AL49">
-        <v>111.25</v>
+        <v>130.44999999999999</v>
       </c>
       <c r="AM49">
-        <v>1.7999999999999969</v>
+        <v>2.4999999999999858</v>
       </c>
       <c r="AN49">
-        <v>1.6445865692096819</v>
+        <v>1.9538882375927991</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>2.1110601193207867</v>
+        <v>1.0848508330104434</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>2.1110601193207867</v>
+        <v>1.0848508330104434</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>0.89887640449438211</v>
+        <v>0.61326178612496085</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.87195961450206771</v>
+        <v>0.77489345215032923</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>222.05</v>
+        <v>293.25</v>
       </c>
       <c r="C50">
-        <v>225.9</v>
+        <v>308.55</v>
       </c>
       <c r="D50">
-        <v>218.7</v>
+        <v>293.14999999999998</v>
       </c>
       <c r="E50">
-        <v>219.7</v>
+        <v>307.2</v>
       </c>
       <c r="F50">
-        <v>-5.75</v>
+        <v>13.899999999999981</v>
       </c>
       <c r="G50">
-        <v>-2.55045464626303</v>
+        <v>4.7391749062393371</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>-1.0583201981535793</v>
+        <v>4.7570332480818376</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>1.0583201981535793</v>
+        <v>4.7570332480818376</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>1.7338437288898871</v>
+        <v>0.43945312500000744</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>0.45516613563950847</v>
+        <v>3.4100596760451067E-2</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>219.3</v>
+        <v>282.5</v>
       </c>
       <c r="T50">
-        <v>230</v>
+        <v>298.45</v>
       </c>
       <c r="U50">
-        <v>218.3</v>
+        <v>282.5</v>
       </c>
       <c r="V50">
-        <v>225.45</v>
+        <v>293.3</v>
       </c>
       <c r="W50">
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="X50">
-        <v>3.3226397800183318</v>
+        <v>3.0750307503075032</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>2.8043775649794696</v>
+        <v>3.8230088495575263</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>2.8043775649794696</v>
+        <v>3.8230088495575263</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>2.0181858505211849</v>
+        <v>1.755881350153419</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>0.45599635202918376</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>216.95</v>
+        <v>286.64999999999998</v>
       </c>
       <c r="AJ50">
-        <v>222</v>
+        <v>286.85000000000002</v>
       </c>
       <c r="AK50">
-        <v>215.3</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="AL50">
-        <v>218.2</v>
+        <v>284.55</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1.6999999999999891</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>0.60102527841611764</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>0.57616962433740493</v>
+        <v>-0.73260073260072078</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>0.57616962433740493</v>
+        <v>0.73260073260072078</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>1.7415215398716828</v>
+        <v>6.9771498342942787E-2</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>0.7605439041253641</v>
+        <v>1.2124406958355256</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="AV50" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW50" t="str">
         <f t="shared" si="60"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>174.9</v>
+        <v>222</v>
       </c>
       <c r="C51">
-        <v>175.1</v>
+        <v>224.7</v>
       </c>
       <c r="D51">
-        <v>167.8</v>
+        <v>214.1</v>
       </c>
       <c r="E51">
-        <v>172.05</v>
+        <v>216.2</v>
       </c>
       <c r="F51">
-        <v>-4.1999999999999886</v>
+        <v>-1.9000000000000059</v>
       </c>
       <c r="G51">
-        <v>-2.382978723404249</v>
+        <v>-0.8711600183402135</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>-1.6295025728987962</v>
+        <v>-2.6126126126126179</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>1.6295025728987962</v>
+        <v>2.6126126126126179</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>0.11435105774727766</v>
+        <v>1.2162162162162111</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>2.4702121476315022</v>
+        <v>0.97132284921368839</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="37"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>175.5</v>
+        <v>220.95</v>
       </c>
       <c r="T51">
-        <v>180.75</v>
+        <v>224.75</v>
       </c>
       <c r="U51">
-        <v>174.15</v>
+        <v>216.2</v>
       </c>
       <c r="V51">
-        <v>176.25</v>
+        <v>218.1</v>
       </c>
       <c r="W51">
-        <v>3.9000000000000061</v>
+        <v>-5.0500000000000114</v>
       </c>
       <c r="X51">
-        <v>2.262837249782423</v>
+        <v>-2.26305175890657</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>0.42735042735042739</v>
+        <v>-1.2898845892735888</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>0.42735042735042739</v>
+        <v>1.2898845892735888</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>2.5531914893617018</v>
+        <v>1.7198461190314602</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.76923076923076594</v>
+        <v>0.8711600183402135</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>172</v>
+        <v>220.5</v>
       </c>
       <c r="AJ51">
-        <v>176.4</v>
+        <v>228.9</v>
       </c>
       <c r="AK51">
-        <v>168.8</v>
+        <v>219.5</v>
       </c>
       <c r="AL51">
-        <v>172.35</v>
+        <v>223.15</v>
       </c>
       <c r="AM51">
-        <v>-1.75</v>
+        <v>1.5999999999999941</v>
       </c>
       <c r="AN51">
-        <v>-1.0051694428489371</v>
+        <v>0.72218460844053001</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>0.20348837209301995</v>
+        <v>1.2018140589569186</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>0.20348837209301995</v>
+        <v>1.2018140589569186</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>2.3498694516971343</v>
+        <v>2.5767421017252969</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>1.8604651162790631</v>
+        <v>0.45351473922902497</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="AV51" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW51" t="str">
         <f t="shared" si="60"/>

--- a/techniqo/candlepattern/nifty_50.xlsx
+++ b/techniqo/candlepattern/nifty_50.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,45 +840,45 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>345</v>
+        <v>352.25</v>
       </c>
       <c r="C2">
-        <v>353.6</v>
+        <v>356.1</v>
       </c>
       <c r="D2">
-        <v>343.45</v>
+        <v>348.95</v>
       </c>
       <c r="E2">
-        <v>351.65</v>
+        <v>353.55</v>
       </c>
       <c r="F2">
-        <v>9.1499999999999773</v>
+        <v>0.90000000000003411</v>
       </c>
       <c r="G2">
-        <v>2.6715328467153219</v>
+        <v>0.25521054870268939</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>1.9275362318840514</v>
+        <v>0.36905606813343117</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>1.9275362318840514</v>
+        <v>0.36905606813343117</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.55452865064696311</v>
+        <v>0.72125583368689328</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.44927536231884385</v>
+        <v>0.93683463449255111</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N2" t="str">
@@ -886,7 +886,7 @@
         <v>NO</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P2" s="1" t="str">
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>341</v>
+        <v>355.1</v>
       </c>
       <c r="T2">
-        <v>343.9</v>
+        <v>356.8</v>
       </c>
       <c r="U2">
-        <v>333.45</v>
+        <v>351</v>
       </c>
       <c r="V2">
-        <v>342.5</v>
+        <v>352.65</v>
       </c>
       <c r="W2">
-        <v>0.89999999999997726</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.26346604215455999</v>
+        <v>0.28437366699843603</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>0.43988269794721413</v>
+        <v>-0.68994649394538032</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>0.43988269794721413</v>
+        <v>0.68994649394538032</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.40875912408758458</v>
+        <v>0.47873838355392523</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>2.2140762463343142</v>
+        <v>0.46788600595490637</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AJ2">
-        <v>348.95</v>
+        <v>353.6</v>
       </c>
       <c r="AK2">
-        <v>336.6</v>
+        <v>343.45</v>
       </c>
       <c r="AL2">
-        <v>341.6</v>
+        <v>351.65</v>
       </c>
       <c r="AM2">
-        <v>-2.25</v>
+        <v>9.1499999999999773</v>
       </c>
       <c r="AN2">
-        <v>-0.65435509669914205</v>
+        <v>2.6715328467153219</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>-1.2716763005780281</v>
+        <v>1.9275362318840514</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>1.2716763005780281</v>
+        <v>1.9275362318840514</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>0.85260115606936093</v>
+        <v>0.55452865064696311</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>1.4637002341920373</v>
+        <v>0.44927536231884385</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="C3">
-        <v>2054</v>
+        <v>2027</v>
       </c>
       <c r="D3">
-        <v>2005</v>
+        <v>1994.15</v>
       </c>
       <c r="E3">
-        <v>2031.2</v>
+        <v>2012.1</v>
       </c>
       <c r="F3">
-        <v>-4.75</v>
+        <v>-5.4500000000000446</v>
       </c>
       <c r="G3">
-        <v>-0.2333063189174587</v>
+        <v>-0.27012961264900731</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>-0.91707317073170513</v>
+        <v>-0.73507646768624035</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>0.91707317073170513</v>
+        <v>0.73507646768624035</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>0.1951219512195122</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>1.2898779046868867</v>
+        <v>0.89210277819192985</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>2063</v>
+        <v>2045</v>
       </c>
       <c r="T3">
-        <v>2069.9499999999998</v>
+        <v>2049.5500000000002</v>
       </c>
       <c r="U3">
-        <v>2022</v>
+        <v>2009.05</v>
       </c>
       <c r="V3">
-        <v>2035.95</v>
+        <v>2017.55</v>
       </c>
       <c r="W3">
-        <v>-20.60000000000014</v>
+        <v>-13.650000000000089</v>
       </c>
       <c r="X3">
-        <v>-1.001677566798771</v>
+        <v>-0.6720165419456523</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3111972855065417</v>
+        <v>-1.3422982885085597</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>1.3111972855065417</v>
+        <v>1.3422982885085597</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>0.33688802714492577</v>
+        <v>0.22249388753057125</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>0.68518382082074925</v>
+        <v>0.42130306559936559</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>1985.05</v>
+        <v>2050</v>
       </c>
       <c r="AJ3">
-        <v>2069.6999999999998</v>
+        <v>2054</v>
       </c>
       <c r="AK3">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="AL3">
-        <v>2056.5500000000002</v>
+        <v>2031.2</v>
       </c>
       <c r="AM3">
-        <v>77.500000000000227</v>
+        <v>-4.75</v>
       </c>
       <c r="AN3">
-        <v>3.916020312776344</v>
+        <v>-0.2333063189174587</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>3.6019243847762139</v>
+        <v>-0.91707317073170513</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>3.6019243847762139</v>
+        <v>0.91707317073170513</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>0.63942038851472782</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>0.20402508752927909</v>
+        <v>1.2898779046868867</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>452</v>
+        <v>449.55</v>
       </c>
       <c r="C4">
-        <v>455</v>
+        <v>450.6</v>
       </c>
       <c r="D4">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E4">
-        <v>440.55</v>
+        <v>446</v>
       </c>
       <c r="F4">
-        <v>-6.6499999999999773</v>
+        <v>-3.5500000000000109</v>
       </c>
       <c r="G4">
-        <v>-1.4870304114490109</v>
+        <v>-0.78967856745634779</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5331858407079624</v>
+        <v>-0.78967856745634779</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>2.5331858407079624</v>
+        <v>0.78967856745634779</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>0.66371681415929207</v>
+        <v>0.23356690023356944</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>0.57882192713653635</v>
+        <v>1.3452914798206279</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>446</v>
+        <v>441.05</v>
       </c>
       <c r="T4">
-        <v>449.85</v>
+        <v>451.9</v>
       </c>
       <c r="U4">
-        <v>439.25</v>
+        <v>435.9</v>
       </c>
       <c r="V4">
-        <v>447.2</v>
+        <v>449.55</v>
       </c>
       <c r="W4">
-        <v>0.34999999999996589</v>
+        <v>9</v>
       </c>
       <c r="X4">
-        <v>7.8326060199164341E-2</v>
+        <v>2.042900919305414</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>0.26905829596412301</v>
+        <v>1.9272191361523634</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>0.26905829596412301</v>
+        <v>1.9272191361523634</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>0.59257602862254788</v>
+        <v>0.52274496718940411</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>1.5134529147982063</v>
+        <v>1.1676680648452633</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="AF4" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AG4" s="1" t="str">
         <f t="shared" si="19"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>436.45</v>
+        <v>452</v>
       </c>
       <c r="AJ4">
-        <v>448.7</v>
+        <v>455</v>
       </c>
       <c r="AK4">
-        <v>430.75</v>
+        <v>438</v>
       </c>
       <c r="AL4">
-        <v>446.85</v>
+        <v>440.55</v>
       </c>
       <c r="AM4">
-        <v>15.600000000000019</v>
+        <v>-6.6499999999999773</v>
       </c>
       <c r="AN4">
-        <v>3.617391304347831</v>
+        <v>-1.4870304114490109</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>2.3828617252835453</v>
+        <v>-2.5331858407079624</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>2.3828617252835453</v>
+        <v>2.5331858407079624</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>0.41400917533847281</v>
+        <v>0.66371681415929207</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>1.3059915225111671</v>
+        <v>0.57882192713653635</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>2922</v>
+        <v>2942.5</v>
       </c>
       <c r="C5">
-        <v>2988</v>
+        <v>3049</v>
       </c>
       <c r="D5">
-        <v>2895</v>
+        <v>2937.4</v>
       </c>
       <c r="E5">
-        <v>2957.7</v>
+        <v>3037.95</v>
       </c>
       <c r="F5">
-        <v>41.349999999999909</v>
+        <v>100.59999999999989</v>
       </c>
       <c r="G5">
-        <v>1.4178682256930719</v>
+        <v>3.424855737314243</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2217659137576939</v>
+        <v>3.2438402718776489</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>1.2217659137576939</v>
+        <v>3.2438402718776489</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>1.024444669844818</v>
+        <v>0.36373212199016386</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.92402464065708423</v>
+        <v>0.17332200509770293</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>2914</v>
+        <v>2957.4</v>
       </c>
       <c r="T5">
-        <v>2941.95</v>
+        <v>2960</v>
       </c>
       <c r="U5">
-        <v>2903.9</v>
+        <v>2921.05</v>
       </c>
       <c r="V5">
-        <v>2916.35</v>
+        <v>2937.35</v>
       </c>
       <c r="W5">
-        <v>1.6500000000000909</v>
+        <v>-20.349999999999909</v>
       </c>
       <c r="X5">
-        <v>5.6609599615744022E-2</v>
+        <v>-0.68803462149643002</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>8.0645161290319456E-2</v>
+        <v>-0.67796037059579972</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>8.0645161290319456E-2</v>
+        <v>0.67796037059579972</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>0.87780959075556464</v>
+        <v>8.7915060526134736E-2</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>0.34660260809883009</v>
+        <v>0.55492195346144402</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>2917.1</v>
+        <v>2922</v>
       </c>
       <c r="AJ5">
-        <v>2924.35</v>
+        <v>2988</v>
       </c>
       <c r="AK5">
-        <v>2871.5</v>
+        <v>2895</v>
       </c>
       <c r="AL5">
-        <v>2914.7</v>
+        <v>2957.7</v>
       </c>
       <c r="AM5">
-        <v>4.5499999999997272</v>
+        <v>41.349999999999909</v>
       </c>
       <c r="AN5">
-        <v>0.1563493290723752</v>
+        <v>1.4178682256930719</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>-8.2273490795656337E-2</v>
+        <v>1.2217659137576939</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>8.2273490795656337E-2</v>
+        <v>1.2217659137576939</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>0.24853450344520245</v>
+        <v>1.024444669844818</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>1.4821422444848464</v>
+        <v>0.92402464065708423</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>3557</v>
+        <v>3517.95</v>
       </c>
       <c r="C6">
-        <v>3575.05</v>
+        <v>3567.4</v>
       </c>
       <c r="D6">
-        <v>3420</v>
+        <v>3481.65</v>
       </c>
       <c r="E6">
-        <v>3440.7</v>
+        <v>3521.5</v>
       </c>
       <c r="F6">
-        <v>-103.7000000000003</v>
+        <v>8.0999999999999091</v>
       </c>
       <c r="G6">
-        <v>-2.9257420155738711</v>
+        <v>0.23054590994478019</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>-3.2696092212538703</v>
+        <v>0.1009110419420453</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>3.2696092212538703</v>
+        <v>0.1009110419420453</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.50745009839753108</v>
+        <v>1.3034218372852504</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>0.60162176301333503</v>
+        <v>1.0318509359143742</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>3490</v>
+        <v>3475</v>
       </c>
       <c r="T6">
-        <v>3557.7</v>
+        <v>3524.2</v>
       </c>
       <c r="U6">
-        <v>3456.7</v>
+        <v>3455</v>
       </c>
       <c r="V6">
-        <v>3544.4</v>
+        <v>3513.4</v>
       </c>
       <c r="W6">
-        <v>45.700000000000273</v>
+        <v>72.700000000000273</v>
       </c>
       <c r="X6">
-        <v>1.306199445508339</v>
+        <v>2.112942133868116</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>1.5587392550143293</v>
+        <v>1.1050359712230242</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>1.5587392550143293</v>
+        <v>1.1050359712230242</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>0.37523981491930158</v>
+        <v>0.307394546593036</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>0.95415472779370147</v>
+        <v>0.57553956834532372</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="AF6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AG6" s="1" t="str">
         <f t="shared" si="19"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>3456.5</v>
+        <v>3557</v>
       </c>
       <c r="AJ6">
-        <v>3523.45</v>
+        <v>3575.05</v>
       </c>
       <c r="AK6">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="AL6">
-        <v>3498.7</v>
+        <v>3440.7</v>
       </c>
       <c r="AM6">
-        <v>75.849999999999909</v>
+        <v>-103.7000000000003</v>
       </c>
       <c r="AN6">
-        <v>2.2159895993105141</v>
+        <v>-2.9257420155738711</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>1.2208881816866719</v>
+        <v>-3.2696092212538703</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>1.2208881816866719</v>
+        <v>3.2696092212538703</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>0.70740560779718187</v>
+        <v>0.50745009839753108</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>1.1138434832923478</v>
+        <v>0.60162176301333503</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>6158</v>
+        <v>6141.6</v>
       </c>
       <c r="C7">
-        <v>6194</v>
+        <v>6239.95</v>
       </c>
       <c r="D7">
-        <v>6091</v>
+        <v>6101.15</v>
       </c>
       <c r="E7">
-        <v>6112.15</v>
+        <v>6145.95</v>
       </c>
       <c r="F7">
-        <v>-16.25</v>
+        <v>30.39999999999964</v>
       </c>
       <c r="G7">
-        <v>-0.26515893218458331</v>
+        <v>0.49709347483054889</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.74455992205262034</v>
+        <v>7.0828448612730466E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0.74455992205262034</v>
+        <v>7.0828448612730466E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>0.58460539136083145</v>
+        <v>1.5294624915594823</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>0.34603208363668492</v>
+        <v>0.65862316008858812</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1817,38 +1817,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>6128.55</v>
+        <v>6130</v>
       </c>
       <c r="T7">
-        <v>6174.6</v>
+        <v>6159</v>
       </c>
       <c r="U7">
-        <v>6080</v>
+        <v>6027.45</v>
       </c>
       <c r="V7">
-        <v>6128.4</v>
+        <v>6115.55</v>
       </c>
       <c r="W7">
-        <v>-0.8500000000003638</v>
+        <v>3.4000000000005461</v>
       </c>
       <c r="X7">
-        <v>-1.386792837623467E-2</v>
+        <v>5.5626907062172E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-2.447561005466965E-3</v>
+        <v>-0.23572593800978495</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>2.447561005466965E-3</v>
+        <v>0.23572593800978495</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>0.75140122867562775</v>
+        <v>0.4730831973898858</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>0.78976568109130674</v>
+        <v>1.4405899714661865</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>6079</v>
+        <v>6158</v>
       </c>
       <c r="AJ7">
-        <v>6192</v>
+        <v>6194</v>
       </c>
       <c r="AK7">
-        <v>6042.85</v>
+        <v>6091</v>
       </c>
       <c r="AL7">
-        <v>6129.25</v>
+        <v>6112.15</v>
       </c>
       <c r="AM7">
-        <v>102.4499999999998</v>
+        <v>-16.25</v>
       </c>
       <c r="AN7">
-        <v>1.699907081701729</v>
+        <v>-0.26515893218458331</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>0.82661621977298905</v>
+        <v>-0.74455992205262034</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>0.82661621977298905</v>
+        <v>0.74455992205262034</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>1.0237794183627686</v>
+        <v>0.58460539136083145</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.59467017601578609</v>
+        <v>0.34603208363668492</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>425.9</v>
+        <v>415</v>
       </c>
       <c r="C8">
-        <v>429.5</v>
+        <v>420.5</v>
       </c>
       <c r="D8">
-        <v>414.15</v>
+        <v>411.4</v>
       </c>
       <c r="E8">
-        <v>417.15</v>
+        <v>413.05</v>
       </c>
       <c r="F8">
-        <v>-11.600000000000019</v>
+        <v>-1.3499999999999659</v>
       </c>
       <c r="G8">
-        <v>-2.7055393586005878</v>
+        <v>-0.3257722007721926</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0544728809579715</v>
+        <v>-0.4698795180722864</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>2.0544728809579715</v>
+        <v>0.4698795180722864</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>0.84526884245128497</v>
+        <v>1.3253012048192772</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0.71916576770945706</v>
+        <v>0.39946737683090039</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,38 +2000,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>431</v>
+        <v>417.5</v>
       </c>
       <c r="T8">
-        <v>436</v>
+        <v>425.5</v>
       </c>
       <c r="U8">
-        <v>422.35</v>
+        <v>412.45</v>
       </c>
       <c r="V8">
-        <v>428.75</v>
+        <v>414.4</v>
       </c>
       <c r="W8">
-        <v>-1.5500000000000109</v>
+        <v>-2.75</v>
       </c>
       <c r="X8">
-        <v>-0.36021380432256828</v>
+        <v>-0.6592352870670023</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>-0.52204176334106722</v>
+        <v>-0.74251497005988565</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>0.52204176334106722</v>
+        <v>0.74251497005988565</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>1.160092807424594</v>
+        <v>1.9161676646706587</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>1.4927113702623853</v>
+        <v>0.47055984555984287</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>408.5</v>
+        <v>425.9</v>
       </c>
       <c r="AJ8">
-        <v>433.5</v>
+        <v>429.5</v>
       </c>
       <c r="AK8">
-        <v>405.5</v>
+        <v>414.15</v>
       </c>
       <c r="AL8">
-        <v>430.3</v>
+        <v>417.15</v>
       </c>
       <c r="AM8">
-        <v>24.350000000000019</v>
+        <v>-11.600000000000019</v>
       </c>
       <c r="AN8">
-        <v>5.9982756497105614</v>
+        <v>-2.7055393586005878</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>5.3365973072215453</v>
+        <v>-2.0544728809579715</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>5.3365973072215453</v>
+        <v>2.0544728809579715</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>0.74366720892400384</v>
+        <v>0.84526884245128497</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>0.73439412484700128</v>
+        <v>0.71916576770945706</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C9">
-        <v>497.25</v>
+        <v>490.7</v>
       </c>
       <c r="D9">
-        <v>468.3</v>
+        <v>480.55</v>
       </c>
       <c r="E9">
-        <v>474.1</v>
+        <v>481.75</v>
       </c>
       <c r="F9">
-        <v>-17.549999999999951</v>
+        <v>-3.8000000000000109</v>
       </c>
       <c r="G9">
-        <v>-3.5696125292382699</v>
+        <v>-0.78261765008753192</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4153225806451566</v>
+        <v>-1.0780287474332648</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>4.4153225806451566</v>
+        <v>1.0780287474332648</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.25201612903225806</v>
+        <v>0.75975359342915583</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>1.2233705969204831</v>
+        <v>0.2490918526206515</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>499.3</v>
+        <v>475.15</v>
       </c>
       <c r="T9">
-        <v>502.45</v>
+        <v>487.65</v>
       </c>
       <c r="U9">
-        <v>488.55</v>
+        <v>470.05</v>
       </c>
       <c r="V9">
-        <v>491.65</v>
+        <v>485.55</v>
       </c>
       <c r="W9">
-        <v>-5.7000000000000446</v>
+        <v>11.44999999999999</v>
       </c>
       <c r="X9">
-        <v>-1.146074193224097</v>
+        <v>2.4151022990930162</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5321450030042127</v>
+        <v>2.1887824897400892</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>1.5321450030042127</v>
+        <v>2.1887824897400892</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>0.63088323653113898</v>
+        <v>0.43249922767994353</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>0.63052984846943272</v>
+        <v>1.0733452593917638</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="AJ9">
-        <v>508</v>
+        <v>497.25</v>
       </c>
       <c r="AK9">
-        <v>491.2</v>
+        <v>468.3</v>
       </c>
       <c r="AL9">
-        <v>497.35</v>
+        <v>474.1</v>
       </c>
       <c r="AM9">
-        <v>-6.8999999999999773</v>
+        <v>-17.549999999999951</v>
       </c>
       <c r="AN9">
-        <v>-1.368368864650467</v>
+        <v>-3.5696125292382699</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>-2.0964566929133812</v>
+        <v>-4.4153225806451566</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>2.0964566929133812</v>
+        <v>4.4153225806451566</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.25201612903225806</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>1.2365537347944171</v>
+        <v>1.2233705969204831</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="AX9" t="str">
         <f t="shared" si="30"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>204.95</v>
+        <v>202.7</v>
       </c>
       <c r="C10">
-        <v>206.1</v>
+        <v>204.45</v>
       </c>
       <c r="D10">
-        <v>199.35</v>
+        <v>199</v>
       </c>
       <c r="E10">
-        <v>202.6</v>
+        <v>200.15</v>
       </c>
       <c r="F10">
-        <v>0.75</v>
+        <v>-2.3499999999999939</v>
       </c>
       <c r="G10">
-        <v>0.37156304186276939</v>
+        <v>-1.160493827160491</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1466211271041689</v>
+        <v>-1.2580167735569725</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>1.1466211271041689</v>
+        <v>1.2580167735569725</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>0.56111246645523583</v>
+        <v>0.86334484459792793</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>1.6041461006910167</v>
+        <v>0.57456907319510653</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>202</v>
+        <v>204.75</v>
       </c>
       <c r="T10">
-        <v>208.7</v>
+        <v>204.75</v>
       </c>
       <c r="U10">
-        <v>200.8</v>
+        <v>200.35</v>
       </c>
       <c r="V10">
-        <v>201.85</v>
+        <v>202.5</v>
       </c>
       <c r="W10">
-        <v>1.9000000000000059</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="X10">
-        <v>0.95023755938985033</v>
+        <v>-4.9358341559720791E-2</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>-7.4257425742577071E-2</v>
+        <v>-1.098901098901099</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>7.4257425742577071E-2</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>3.3168316831683113</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>0.52018825860786866</v>
+        <v>1.0617283950617313</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>213.85</v>
+        <v>204.95</v>
       </c>
       <c r="AJ10">
-        <v>214</v>
+        <v>206.1</v>
       </c>
       <c r="AK10">
-        <v>197.9</v>
+        <v>199.35</v>
       </c>
       <c r="AL10">
-        <v>199.95</v>
+        <v>202.6</v>
       </c>
       <c r="AM10">
-        <v>-10.5</v>
+        <v>0.75</v>
       </c>
       <c r="AN10">
-        <v>-4.9893086243763367</v>
+        <v>0.37156304186276939</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>-6.4998830956277782</v>
+        <v>-1.1466211271041689</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>6.4998830956277782</v>
+        <v>1.1466211271041689</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>7.0142623334115362E-2</v>
+        <v>0.56111246645523583</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>1.0252563140785111</v>
+        <v>1.6041461006910167</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="AX10" t="str">
         <f t="shared" si="30"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>3788.9</v>
+        <v>3742</v>
       </c>
       <c r="C11">
-        <v>3796</v>
+        <v>3860</v>
       </c>
       <c r="D11">
-        <v>3711</v>
+        <v>3737.15</v>
       </c>
       <c r="E11">
-        <v>3719.5</v>
+        <v>3844.5</v>
       </c>
       <c r="F11">
-        <v>-52.75</v>
+        <v>110.40000000000011</v>
       </c>
       <c r="G11">
-        <v>-1.39836967327192</v>
+        <v>2.9565357114164081</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8316661827971203</v>
+        <v>2.7391769107429185</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>1.8316661827971203</v>
+        <v>2.7391769107429185</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0.18738947979624454</v>
+        <v>0.40317336454675512</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0.22852533942734238</v>
+        <v>0.12960983431319906</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>3724</v>
+        <v>3720.05</v>
       </c>
       <c r="T11">
-        <v>3828</v>
+        <v>3766.5</v>
       </c>
       <c r="U11">
-        <v>3720</v>
+        <v>3715</v>
       </c>
       <c r="V11">
-        <v>3772.25</v>
+        <v>3734.1</v>
       </c>
       <c r="W11">
-        <v>53</v>
+        <v>14.599999999999911</v>
       </c>
       <c r="X11">
-        <v>1.4250184849095919</v>
+        <v>0.39252587713402098</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>1.2956498388829216</v>
+        <v>0.37768309565730906</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>1.2956498388829216</v>
+        <v>0.37768309565730906</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>1.477897806348996</v>
+        <v>0.86767895878525192</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>0.10741138560687433</v>
+        <v>0.13575086356366667</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>3765.5</v>
+        <v>3788.9</v>
       </c>
       <c r="AJ11">
-        <v>3765.5</v>
+        <v>3796</v>
       </c>
       <c r="AK11">
-        <v>3700.05</v>
+        <v>3711</v>
       </c>
       <c r="AL11">
-        <v>3719.25</v>
+        <v>3719.5</v>
       </c>
       <c r="AM11">
-        <v>-19.050000000000178</v>
+        <v>-52.75</v>
       </c>
       <c r="AN11">
-        <v>-0.50958992055212748</v>
+        <v>-1.39836967327192</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>-1.2282565396361704</v>
+        <v>-1.8316661827971203</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>1.2282565396361704</v>
+        <v>1.8316661827971203</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.18738947979624454</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>0.51623311151441331</v>
+        <v>0.22852533942734238</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>729</v>
+        <v>743.95</v>
       </c>
       <c r="C12">
-        <v>730.25</v>
+        <v>756.5</v>
       </c>
       <c r="D12">
-        <v>717.75</v>
+        <v>732</v>
       </c>
       <c r="E12">
-        <v>721.6</v>
+        <v>752.6</v>
       </c>
       <c r="F12">
-        <v>-4.3500000000000227</v>
+        <v>10.149999999999981</v>
       </c>
       <c r="G12">
-        <v>-0.59921482195743825</v>
+        <v>1.367095427301499</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0150891632373082</v>
+        <v>1.1627125478862794</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>1.0150891632373082</v>
+        <v>1.1627125478862794</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>0.17146776406035666</v>
+        <v>0.5182035609885699</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>0.5335365853658568</v>
+        <v>1.6062907453457953</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>725.8</v>
+        <v>723</v>
       </c>
       <c r="T12">
-        <v>731.5</v>
+        <v>754</v>
       </c>
       <c r="U12">
-        <v>720.25</v>
+        <v>722.65</v>
       </c>
       <c r="V12">
-        <v>725.95</v>
+        <v>742.45</v>
       </c>
       <c r="W12">
-        <v>-0.84999999999990905</v>
+        <v>20.850000000000019</v>
       </c>
       <c r="X12">
-        <v>-0.11695101816179269</v>
+        <v>2.8894124168514441</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>2.0666850372015839E-2</v>
+        <v>2.6901798063623854</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>2.0666850372015839E-2</v>
+        <v>2.6901798063623854</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>0.76451546249741087</v>
+        <v>1.5556603138258407</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.76467346376411605</v>
+        <v>4.840940525588143E-2</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2793,35 +2793,35 @@
         <v>729</v>
       </c>
       <c r="AJ12">
-        <v>735.9</v>
+        <v>730.25</v>
       </c>
       <c r="AK12">
-        <v>719.25</v>
+        <v>717.75</v>
       </c>
       <c r="AL12">
-        <v>726.8</v>
+        <v>721.6</v>
       </c>
       <c r="AM12">
-        <v>-0.75</v>
+        <v>-4.3500000000000227</v>
       </c>
       <c r="AN12">
-        <v>-0.1030856985774174</v>
+        <v>-0.59921482195743825</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>-0.30178326474623396</v>
+        <v>-1.0150891632373082</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>0.30178326474623396</v>
+        <v>1.0150891632373082</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>0.94650205761316553</v>
+        <v>0.17146776406035666</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>1.0388002201430868</v>
+        <v>0.5335365853658568</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>124.6</v>
       </c>
       <c r="C13">
-        <v>126.85</v>
+        <v>124.6</v>
       </c>
       <c r="D13">
-        <v>124.1</v>
+        <v>123.1</v>
       </c>
       <c r="E13">
-        <v>124.95</v>
+        <v>123.85</v>
       </c>
       <c r="F13">
-        <v>-0.1499999999999915</v>
+        <v>-0.25</v>
       </c>
       <c r="G13">
-        <v>-0.1199040767386023</v>
+        <v>-0.20145044319097499</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.83333333333333104</v>
+        <v>-0.60192616372391661</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>0.83333333333333104</v>
+        <v>0.60192616372391661</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>0.6746031746031701</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.68027210884354428</v>
+        <v>0.60557125555106983</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>126.9</v>
+        <v>125.65</v>
       </c>
       <c r="T13">
-        <v>127</v>
+        <v>125.75</v>
       </c>
       <c r="U13">
-        <v>124.65</v>
+        <v>123.8</v>
       </c>
       <c r="V13">
-        <v>125.1</v>
+        <v>124.1</v>
       </c>
       <c r="W13">
-        <v>-1.5500000000000109</v>
+        <v>-0.85000000000000853</v>
       </c>
       <c r="X13">
-        <v>-1.223845242795113</v>
+        <v>-0.68027210884354428</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4184397163120654</v>
+        <v>-1.2335853561480392</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>1.4184397163120654</v>
+        <v>1.2335853561480392</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>7.880220646177645E-2</v>
+        <v>7.9586152009545816E-2</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.35971223021581827</v>
+        <v>0.24174053182916774</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AJ13">
-        <v>128.30000000000001</v>
+        <v>126.85</v>
       </c>
       <c r="AK13">
-        <v>125.5</v>
+        <v>124.1</v>
       </c>
       <c r="AL13">
-        <v>126.65</v>
+        <v>124.95</v>
       </c>
       <c r="AM13">
-        <v>-0.29999999999999721</v>
+        <v>-0.1499999999999915</v>
       </c>
       <c r="AN13">
-        <v>-0.2363135092556102</v>
+        <v>-0.1199040767386023</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>-1.0546874999999956</v>
+        <v>-0.83333333333333104</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>1.0546874999999956</v>
+        <v>0.83333333333333104</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>0.23437500000000888</v>
+        <v>0.6746031746031701</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.90801421239637237</v>
+        <v>0.68027210884354428</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>4423.6499999999996</v>
+        <v>4455</v>
       </c>
       <c r="C14">
-        <v>4423.6499999999996</v>
+        <v>4650.8</v>
       </c>
       <c r="D14">
-        <v>4336</v>
+        <v>4411</v>
       </c>
       <c r="E14">
-        <v>4364.1000000000004</v>
+        <v>4627.8999999999996</v>
       </c>
       <c r="F14">
-        <v>-37.5</v>
+        <v>185.5499999999993</v>
       </c>
       <c r="G14">
-        <v>-0.8519629225736095</v>
+        <v>4.1768433374227438</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>-1.346173408836578</v>
+        <v>3.8810325476992062</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>1.346173408836578</v>
+        <v>3.8810325476992062</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.49482486657016245</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.64388992002933854</v>
+        <v>0.98765432098765427</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>4400</v>
+        <v>4374.95</v>
       </c>
       <c r="T14">
-        <v>4447</v>
+        <v>4549</v>
       </c>
       <c r="U14">
-        <v>4375</v>
+        <v>4372.55</v>
       </c>
       <c r="V14">
-        <v>4401.6000000000004</v>
+        <v>4442.3500000000004</v>
       </c>
       <c r="W14">
-        <v>21.450000000000731</v>
+        <v>78.25</v>
       </c>
       <c r="X14">
-        <v>0.48970925653232722</v>
+        <v>1.793038656309434</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>3.6363636363644633E-2</v>
+        <v>1.5405890353032732</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>3.6363636363644633E-2</v>
+        <v>1.5405890353032732</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>1.031443111595775</v>
+        <v>2.4007563564329608</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>0.56818181818181823</v>
+        <v>5.4857769803075156E-2</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>4460</v>
+        <v>4423.6499999999996</v>
       </c>
       <c r="AJ14">
-        <v>4462</v>
+        <v>4423.6499999999996</v>
       </c>
       <c r="AK14">
-        <v>4340.55</v>
+        <v>4336</v>
       </c>
       <c r="AL14">
-        <v>4380.1499999999996</v>
+        <v>4364.1000000000004</v>
       </c>
       <c r="AM14">
-        <v>-49.300000000000182</v>
+        <v>-37.5</v>
       </c>
       <c r="AN14">
-        <v>-1.1130050006208489</v>
+        <v>-0.8519629225736095</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>-1.7903587443946272</v>
+        <v>-1.346173408836578</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>1.7903587443946272</v>
+        <v>1.346173408836578</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>4.4843049327354258E-2</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0.90407862744425316</v>
+        <v>0.64388992002933854</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="C15">
-        <v>2198</v>
+        <v>2187.85</v>
       </c>
       <c r="D15">
-        <v>2148.3000000000002</v>
+        <v>2145</v>
       </c>
       <c r="E15">
-        <v>2159.4</v>
+        <v>2163.75</v>
       </c>
       <c r="F15">
-        <v>-0.90000000000009095</v>
+        <v>23.150000000000091</v>
       </c>
       <c r="G15">
-        <v>-4.1660880433277363E-2</v>
+        <v>1.0814724843501871</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-0.25866050808313668</v>
+        <v>0.40603248259860786</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>0.25866050808313668</v>
+        <v>0.40603248259860786</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>1.5242494226327945</v>
+        <v>1.1138070479491582</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>0.51403167546540285</v>
+        <v>0.46403712296983757</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>2165</v>
+        <v>2159.4</v>
       </c>
       <c r="T15">
-        <v>2178.6999999999998</v>
+        <v>2170.3000000000002</v>
       </c>
       <c r="U15">
-        <v>2140.1</v>
+        <v>2120</v>
       </c>
       <c r="V15">
-        <v>2160.3000000000002</v>
+        <v>2140.6</v>
       </c>
       <c r="W15">
-        <v>-15.299999999999731</v>
+        <v>-18.800000000000178</v>
       </c>
       <c r="X15">
-        <v>-0.70325427468283364</v>
+        <v>-0.87061220709457166</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>-0.21709006928405628</v>
+        <v>-0.87061220709457166</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>0.21709006928405628</v>
+        <v>0.87061220709457166</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>0.63279445727481842</v>
+        <v>0.50476984347504361</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.93505531639125439</v>
+        <v>0.96234700551246899</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>2196.9499999999998</v>
+        <v>2165</v>
       </c>
       <c r="AJ15">
         <v>2198</v>
       </c>
       <c r="AK15">
-        <v>2152.6</v>
+        <v>2148.3000000000002</v>
       </c>
       <c r="AL15">
-        <v>2175.6</v>
+        <v>2159.4</v>
       </c>
       <c r="AM15">
-        <v>-1.3499999999999091</v>
+        <v>-0.90000000000009095</v>
       </c>
       <c r="AN15">
-        <v>-6.2013367325841617E-2</v>
+        <v>-4.1660880433277363E-2</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>-0.9718018161542098</v>
+        <v>-0.25866050808313668</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>0.9718018161542098</v>
+        <v>0.25866050808313668</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>4.7793531942018797E-2</v>
+        <v>1.5242494226327945</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>1.0571796286082003</v>
+        <v>0.51403167546540285</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>91.9</v>
+        <v>92.75</v>
       </c>
       <c r="C16">
-        <v>93.65</v>
+        <v>92.75</v>
       </c>
       <c r="D16">
-        <v>90.8</v>
+        <v>91.35</v>
       </c>
       <c r="E16">
-        <v>91.95</v>
+        <v>91.85</v>
       </c>
       <c r="F16">
-        <v>1.2000000000000031</v>
+        <v>-0.25</v>
       </c>
       <c r="G16">
-        <v>1.32231404958678</v>
+        <v>-0.2714440825190011</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>5.4406964091400598E-2</v>
+        <v>-0.9703504043126745</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>5.4406964091400598E-2</v>
+        <v>0.9703504043126745</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>1.8488308863512808</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>1.1969532100108906</v>
+        <v>0.54436581382689164</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>90.8</v>
+        <v>92</v>
       </c>
       <c r="T16">
-        <v>91.65</v>
+        <v>92.75</v>
       </c>
       <c r="U16">
-        <v>90.1</v>
+        <v>91.1</v>
       </c>
       <c r="V16">
-        <v>90.75</v>
+        <v>92.1</v>
       </c>
       <c r="W16">
-        <v>-4.9999999999997158E-2</v>
+        <v>0.1499999999999915</v>
       </c>
       <c r="X16">
-        <v>-5.506607929515106E-2</v>
+        <v>0.16313213703098581</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>-5.506607929515106E-2</v>
+        <v>0.10869565217390686</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>5.506607929515106E-2</v>
+        <v>0.10869565217390686</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>0.93612334801763053</v>
+        <v>0.70575461454940902</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>0.71625344352617715</v>
+        <v>0.97826086956522351</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>91.85</v>
+        <v>91.9</v>
       </c>
       <c r="AJ16">
-        <v>92.4</v>
+        <v>93.65</v>
       </c>
       <c r="AK16">
-        <v>89.8</v>
+        <v>90.8</v>
       </c>
       <c r="AL16">
-        <v>90.8</v>
+        <v>91.95</v>
       </c>
       <c r="AM16">
-        <v>-0.25</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="AN16">
-        <v>-0.27457440966501923</v>
+        <v>1.32231404958678</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>-1.1431682090364694</v>
+        <v>5.4406964091400598E-2</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>1.1431682090364694</v>
+        <v>5.4406964091400598E-2</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>0.59880239520959333</v>
+        <v>1.8488308863512808</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>1.1013215859030838</v>
+        <v>1.1969532100108906</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>721</v>
+        <v>722.95</v>
       </c>
       <c r="C17">
-        <v>735.95</v>
+        <v>737.2</v>
       </c>
       <c r="D17">
-        <v>703</v>
+        <v>714.1</v>
       </c>
       <c r="E17">
-        <v>707</v>
+        <v>720.4</v>
       </c>
       <c r="F17">
-        <v>-13.950000000000051</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>-1.9349469450031269</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9417475728155338</v>
+        <v>-0.35272148834636807</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>1.9417475728155338</v>
+        <v>0.35272148834636807</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>2.0735090152565943</v>
+        <v>1.971090670170828</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>0.56577086280056577</v>
+        <v>0.87451415880065997</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="8"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>715</v>
+        <v>711.6</v>
       </c>
       <c r="T17">
-        <v>727</v>
+        <v>723.5</v>
       </c>
       <c r="U17">
-        <v>704.65</v>
+        <v>709.8</v>
       </c>
       <c r="V17">
-        <v>720.95</v>
+        <v>720.4</v>
       </c>
       <c r="W17">
-        <v>7.6500000000000909</v>
+        <v>13.399999999999981</v>
       </c>
       <c r="X17">
-        <v>1.072480022430967</v>
+        <v>1.8953323903818919</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>0.83216783216783863</v>
+        <v>1.2366498032602522</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>0.83216783216783863</v>
+        <v>1.2366498032602522</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>0.83917053887231485</v>
+        <v>0.43031649083842627</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>1.4475524475524506</v>
+        <v>0.25295109612142608</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>696.55</v>
+        <v>721</v>
       </c>
       <c r="AJ17">
-        <v>717.75</v>
+        <v>735.95</v>
       </c>
       <c r="AK17">
-        <v>681.3</v>
+        <v>703</v>
       </c>
       <c r="AL17">
-        <v>713.3</v>
+        <v>707</v>
       </c>
       <c r="AM17">
-        <v>26.199999999999928</v>
+        <v>-13.950000000000051</v>
       </c>
       <c r="AN17">
-        <v>3.813127637898404</v>
+        <v>-1.9349469450031269</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>2.4047089225468379</v>
+        <v>-1.9417475728155338</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>2.4047089225468379</v>
+        <v>1.9417475728155338</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>0.62386092808075788</v>
+        <v>2.0735090152565943</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>2.1893618548560765</v>
+        <v>0.56577086280056577</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>745</v>
+        <v>790.05</v>
       </c>
       <c r="C18">
-        <v>825.1</v>
+        <v>796.3</v>
       </c>
       <c r="D18">
-        <v>744.15</v>
+        <v>779.25</v>
       </c>
       <c r="E18">
-        <v>794.95</v>
+        <v>789.25</v>
       </c>
       <c r="F18">
-        <v>73.300000000000068</v>
+        <v>-3.450000000000045</v>
       </c>
       <c r="G18">
-        <v>10.15727845908682</v>
+        <v>-0.43522139523149311</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>6.7046979865771874</v>
+        <v>-0.10125941396113596</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>6.7046979865771874</v>
+        <v>0.10125941396113596</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>3.7926913642367417</v>
+        <v>0.79108917157141956</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0.11409395973154668</v>
+        <v>1.2670256572695597</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>712</v>
+        <v>791.05</v>
       </c>
       <c r="T18">
-        <v>734</v>
+        <v>809.85</v>
       </c>
       <c r="U18">
-        <v>710.15</v>
+        <v>783.05</v>
       </c>
       <c r="V18">
-        <v>721.65</v>
+        <v>792.7</v>
       </c>
       <c r="W18">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="X18">
-        <v>-0.1038205980066445</v>
+        <v>-0.28303666897289143</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>1.3553370786516823</v>
+        <v>0.20858352822199494</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>1.3553370786516823</v>
+        <v>0.20858352822199494</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>1.7113559204600601</v>
+        <v>2.1634918632521734</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>0.25983146067416046</v>
+        <v>1.0113140762277986</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>728.65</v>
+        <v>745</v>
       </c>
       <c r="AJ18">
-        <v>728.95</v>
+        <v>825.1</v>
       </c>
       <c r="AK18">
-        <v>713.8</v>
+        <v>744.15</v>
       </c>
       <c r="AL18">
-        <v>722.4</v>
+        <v>794.95</v>
       </c>
       <c r="AM18">
-        <v>0.44999999999993179</v>
+        <v>73.300000000000068</v>
       </c>
       <c r="AN18">
-        <v>6.2331186370237802E-2</v>
+        <v>10.15727845908682</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>-0.85775063473546975</v>
+        <v>6.7046979865771874</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>0.85775063473546975</v>
+        <v>6.7046979865771874</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>4.1172030467311903E-2</v>
+        <v>3.7926913642367417</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>1.1904761904761938</v>
+        <v>0.11409395973154668</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="AU18" t="str">
         <f t="shared" si="27"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AV18" t="str">
         <f t="shared" si="28"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>1088</v>
+        <v>1070.2</v>
       </c>
       <c r="C19">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D19">
-        <v>1052.3499999999999</v>
+        <v>1068.3499999999999</v>
       </c>
       <c r="E19">
-        <v>1057.95</v>
+        <v>1093.6500000000001</v>
       </c>
       <c r="F19">
-        <v>-20.700000000000049</v>
+        <v>23.150000000000091</v>
       </c>
       <c r="G19">
-        <v>-1.919065498539845</v>
+        <v>2.1625408687529282</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-2.7619485294117605</v>
+        <v>2.1911792188376045</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>2.7619485294117605</v>
+        <v>2.1911792188376045</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>0.55147058823529416</v>
+        <v>0.21487678873496172</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0.52932558249445971</v>
+        <v>0.17286488506822428</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>1096.45</v>
+        <v>1068</v>
       </c>
       <c r="T19">
-        <v>1104.8499999999999</v>
+        <v>1076.1500000000001</v>
       </c>
       <c r="U19">
-        <v>1071</v>
+        <v>1058.0999999999999</v>
       </c>
       <c r="V19">
-        <v>1078.6500000000001</v>
+        <v>1070.5</v>
       </c>
       <c r="W19">
-        <v>-11.89999999999986</v>
+        <v>12.549999999999949</v>
       </c>
       <c r="X19">
-        <v>-1.0911925175370101</v>
+        <v>1.1862564393402291</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6234210406311234</v>
+        <v>0.23408239700374533</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>1.6234210406311234</v>
+        <v>0.23408239700374533</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>0.76610880569108153</v>
+        <v>0.5277907519850622</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>0.70921985815603672</v>
+        <v>0.92696629213484005</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="AJ19">
-        <v>1104.8499999999999</v>
+        <v>1094</v>
       </c>
       <c r="AK19">
-        <v>1084</v>
+        <v>1052.3499999999999</v>
       </c>
       <c r="AL19">
-        <v>1090.55</v>
+        <v>1057.95</v>
       </c>
       <c r="AM19">
-        <v>-5.9500000000000446</v>
+        <v>-20.700000000000049</v>
       </c>
       <c r="AN19">
-        <v>-0.54263565891473287</v>
+        <v>-1.919065498539845</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>-1.1287398005439753</v>
+        <v>-2.7619485294117605</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>1.1287398005439753</v>
+        <v>2.7619485294117605</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>0.16772438803263001</v>
+        <v>0.55147058823529416</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.60061436889642428</v>
+        <v>0.52932558249445971</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AX19" t="str">
         <f t="shared" si="30"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
@@ -4134,42 +4134,42 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>3014.95</v>
+        <v>3033</v>
       </c>
       <c r="C20">
-        <v>3039</v>
+        <v>3105</v>
       </c>
       <c r="D20">
-        <v>2956</v>
+        <v>3024.65</v>
       </c>
       <c r="E20">
-        <v>3028.5</v>
+        <v>3056.2</v>
       </c>
       <c r="F20">
-        <v>36.25</v>
+        <v>19.049999999999731</v>
       </c>
       <c r="G20">
-        <v>1.2114629459436881</v>
+        <v>0.62723276756168533</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0.44942702200700452</v>
+        <v>0.76491922189250972</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>0.44942702200700452</v>
+        <v>0.76491922189250972</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>0.34670629024269439</v>
+        <v>1.5967541391270264</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>1.9552563060747219</v>
+        <v>0.27530497856907055</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="5"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>2949.15</v>
+        <v>3028.5</v>
       </c>
       <c r="T20">
-        <v>3007.7</v>
+        <v>3051.7</v>
       </c>
       <c r="U20">
-        <v>2948.75</v>
+        <v>3005.05</v>
       </c>
       <c r="V20">
-        <v>2992.25</v>
+        <v>3037.15</v>
       </c>
       <c r="W20">
-        <v>43.5</v>
+        <v>8.6500000000000909</v>
       </c>
       <c r="X20">
-        <v>1.475201356506995</v>
+        <v>0.28561994386660372</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>1.4614380414695729</v>
+        <v>0.28561994386660366</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>1.4614380414695729</v>
+        <v>0.28561994386660366</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>0.51633386247806234</v>
+        <v>0.4790675468778206</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>1.356323008324741E-2</v>
+        <v>0.77431071487534475</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>2920</v>
+        <v>3014.95</v>
       </c>
       <c r="AJ20">
-        <v>2957.4</v>
+        <v>3039</v>
       </c>
       <c r="AK20">
-        <v>2888.25</v>
+        <v>2956</v>
       </c>
       <c r="AL20">
-        <v>2948.75</v>
+        <v>3028.5</v>
       </c>
       <c r="AM20">
-        <v>44.75</v>
+        <v>36.25</v>
       </c>
       <c r="AN20">
-        <v>1.540977961432507</v>
+        <v>1.2114629459436881</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>0.9845890410958904</v>
+        <v>0.44942702200700452</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>0.9845890410958904</v>
+        <v>0.44942702200700452</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>0.29334463755829049</v>
+        <v>0.34670629024269439</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>1.0873287671232876</v>
+        <v>1.9552563060747219</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>179</v>
+        <v>177.1</v>
       </c>
       <c r="C21">
-        <v>180.5</v>
+        <v>184.6</v>
       </c>
       <c r="D21">
-        <v>174.6</v>
+        <v>175.45</v>
       </c>
       <c r="E21">
-        <v>175.8</v>
+        <v>183.8</v>
       </c>
       <c r="F21">
-        <v>-2.8499999999999939</v>
+        <v>7.0500000000000114</v>
       </c>
       <c r="G21">
-        <v>-1.5952980688497029</v>
+        <v>3.988684582743995</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7877094972066976</v>
+        <v>3.7831733483907497</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>1.7877094972066976</v>
+        <v>3.7831733483907497</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>0.83798882681564246</v>
+        <v>0.43525571273122032</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>0.6825938566552997</v>
+        <v>0.93167701863354369</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>178.7</v>
+        <v>177.4</v>
       </c>
       <c r="T21">
-        <v>180</v>
+        <v>179.35</v>
       </c>
       <c r="U21">
-        <v>174.8</v>
+        <v>174.5</v>
       </c>
       <c r="V21">
-        <v>178.65</v>
+        <v>176.75</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>0.94999999999998863</v>
       </c>
       <c r="X21">
-        <v>1.132182281347297</v>
+        <v>0.54038680318543153</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>-2.7979854504747038E-2</v>
+        <v>-0.36640360766629404</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>2.7979854504747038E-2</v>
+        <v>0.36640360766629404</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>0.72747621712367738</v>
+        <v>1.0992108229988662</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>2.1550517772180209</v>
+        <v>1.272984441301273</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AJ21">
-        <v>185.3</v>
+        <v>180.5</v>
       </c>
       <c r="AK21">
-        <v>173.35</v>
+        <v>174.6</v>
       </c>
       <c r="AL21">
-        <v>176.65</v>
+        <v>175.8</v>
       </c>
       <c r="AM21">
-        <v>-6.1500000000000057</v>
+        <v>-2.8499999999999939</v>
       </c>
       <c r="AN21">
-        <v>-3.3643326039387329</v>
+        <v>-1.5952980688497029</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>-4.5135135135135105</v>
+        <v>-1.7877094972066976</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>4.5135135135135105</v>
+        <v>1.7877094972066976</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>0.16216216216216831</v>
+        <v>0.83798882681564246</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>1.8681007642230463</v>
+        <v>0.6825938566552997</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>2167</v>
+        <v>2125</v>
       </c>
       <c r="C22">
-        <v>2169.6999999999998</v>
+        <v>2158.9499999999998</v>
       </c>
       <c r="D22">
-        <v>2115</v>
+        <v>2112.6999999999998</v>
       </c>
       <c r="E22">
-        <v>2123.5</v>
+        <v>2143.5</v>
       </c>
       <c r="F22">
-        <v>-35.75</v>
+        <v>19.050000000000178</v>
       </c>
       <c r="G22">
-        <v>-1.655667477133264</v>
+        <v>0.89670267598673459</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0073834794646981</v>
+        <v>0.87058823529411766</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>2.0073834794646981</v>
+        <v>0.87058823529411766</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>0.12459621596676596</v>
+        <v>0.72078376487053042</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.40028255238992233</v>
+        <v>0.57882352941177329</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>2125</v>
+        <v>2136.9</v>
       </c>
       <c r="T22">
-        <v>2169</v>
+        <v>2137</v>
       </c>
       <c r="U22">
-        <v>2124.5</v>
+        <v>2109</v>
       </c>
       <c r="V22">
-        <v>2159.25</v>
+        <v>2124.4499999999998</v>
       </c>
       <c r="W22">
-        <v>25.349999999999909</v>
+        <v>0.9499999999998181</v>
       </c>
       <c r="X22">
-        <v>1.187965696611833</v>
+        <v>4.4737461737688632E-2</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>1.6117647058823528</v>
+        <v>-0.5826196827179686</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>1.6117647058823528</v>
+        <v>0.5826196827179686</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>0.45154567558179926</v>
+        <v>4.6796761664050284E-3</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>2.3529411764705882E-2</v>
+        <v>0.7272470521782024</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>2142</v>
+        <v>2167</v>
       </c>
       <c r="AJ22">
-        <v>2143.6</v>
+        <v>2169.6999999999998</v>
       </c>
       <c r="AK22">
-        <v>2118.1999999999998</v>
+        <v>2115</v>
       </c>
       <c r="AL22">
-        <v>2133.9</v>
+        <v>2123.5</v>
       </c>
       <c r="AM22">
-        <v>1.6500000000000909</v>
+        <v>-35.75</v>
       </c>
       <c r="AN22">
-        <v>7.7383046078090795E-2</v>
+        <v>-1.655667477133264</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>-0.37815126050419745</v>
+        <v>-2.0073834794646981</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>0.37815126050419745</v>
+        <v>2.0073834794646981</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>7.4696545284776331E-2</v>
+        <v>0.12459621596676596</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0.73574206851306401</v>
+        <v>0.40028255238992233</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>1781</v>
+        <v>1766</v>
       </c>
       <c r="C23">
-        <v>1796.85</v>
+        <v>1774.7</v>
       </c>
       <c r="D23">
-        <v>1728.4</v>
+        <v>1743.45</v>
       </c>
       <c r="E23">
-        <v>1738</v>
+        <v>1768.15</v>
       </c>
       <c r="F23">
-        <v>-30.150000000000091</v>
+        <v>9.4000000000000909</v>
       </c>
       <c r="G23">
-        <v>-1.705172072505166</v>
+        <v>0.53447050461976353</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4143739472206627</v>
+        <v>0.12174405436014106</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>2.4143739472206627</v>
+        <v>0.12174405436014106</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>0.8899494665917973</v>
+        <v>0.37044368407657463</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0.55235903337168635</v>
+        <v>1.2768969422423531</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>1771</v>
+        <v>1754.9</v>
       </c>
       <c r="T23">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="U23">
-        <v>1760</v>
+        <v>1742.8</v>
       </c>
       <c r="V23">
-        <v>1768.15</v>
+        <v>1758.75</v>
       </c>
       <c r="W23">
-        <v>-9.2999999999999545</v>
+        <v>20.75</v>
       </c>
       <c r="X23">
-        <v>-0.52322146895833654</v>
+        <v>1.1939010356731881</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>-0.16092603049124274</v>
+        <v>0.21938571998403947</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>0.16092603049124274</v>
+        <v>0.21938571998403947</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>0.84697910784867303</v>
+        <v>1.0376687988628288</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.46093374430902867</v>
+        <v>0.68949797709271965</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4806,35 +4806,35 @@
         <v>1781</v>
       </c>
       <c r="AJ23">
-        <v>1792.95</v>
+        <v>1796.85</v>
       </c>
       <c r="AK23">
-        <v>1760</v>
+        <v>1728.4</v>
       </c>
       <c r="AL23">
-        <v>1777.45</v>
+        <v>1738</v>
       </c>
       <c r="AM23">
-        <v>16.700000000000049</v>
+        <v>-30.150000000000091</v>
       </c>
       <c r="AN23">
-        <v>0.94845946329689312</v>
+        <v>-1.705172072505166</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>-0.19932622122402888</v>
+        <v>-2.4143739472206627</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>0.19932622122402888</v>
+        <v>2.4143739472206627</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>0.67097136440202387</v>
+        <v>0.8899494665917973</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>0.98174350895946694</v>
+        <v>0.55235903337168635</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>373.5</v>
+        <v>371.35</v>
       </c>
       <c r="C24">
-        <v>373.85</v>
+        <v>376.7</v>
       </c>
       <c r="D24">
-        <v>359.35</v>
+        <v>365</v>
       </c>
       <c r="E24">
-        <v>363.7</v>
+        <v>374.7</v>
       </c>
       <c r="F24">
-        <v>-6.8000000000000114</v>
+        <v>3.1499999999999768</v>
       </c>
       <c r="G24">
-        <v>-1.8353576248313119</v>
+        <v>0.84779975777149164</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6238286479250363</v>
+        <v>0.90211390871144903</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>2.6238286479250363</v>
+        <v>0.90211390871144903</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>9.3708165997328716E-2</v>
+        <v>0.53376034160661867</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>1.1960406928787368</v>
+        <v>1.7099771105426209</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>373</v>
+        <v>364.05</v>
       </c>
       <c r="T24">
-        <v>373.65</v>
+        <v>372.25</v>
       </c>
       <c r="U24">
-        <v>365.1</v>
+        <v>363.7</v>
       </c>
       <c r="V24">
-        <v>370.5</v>
+        <v>371.55</v>
       </c>
       <c r="W24">
-        <v>-0.1999999999999886</v>
+        <v>7.8500000000000227</v>
       </c>
       <c r="X24">
-        <v>-5.3951982735362447E-2</v>
+        <v>2.1583722848501581</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>-0.67024128686327078</v>
+        <v>2.0601565718994643</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>0.67024128686327078</v>
+        <v>2.0601565718994643</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>0.1742627345844443</v>
+        <v>0.18839994617144087</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>1.4574898785425041</v>
+        <v>9.6140640021981236E-2</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>371.7</v>
+        <v>373.5</v>
       </c>
       <c r="AJ24">
-        <v>375</v>
+        <v>373.85</v>
       </c>
       <c r="AK24">
-        <v>365.45</v>
+        <v>359.35</v>
       </c>
       <c r="AL24">
-        <v>370.7</v>
+        <v>363.7</v>
       </c>
       <c r="AM24">
-        <v>3.0999999999999659</v>
+        <v>-6.8000000000000114</v>
       </c>
       <c r="AN24">
-        <v>0.84330794341674797</v>
+        <v>-1.8353576248313119</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>-0.26903416733925206</v>
+        <v>-2.6238286479250363</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>0.26903416733925206</v>
+        <v>2.6238286479250363</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>0.88781275221953493</v>
+        <v>9.3708165997328716E-2</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>1.4162395468033451</v>
+        <v>1.1960406928787368</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>185.8</v>
+        <v>181.85</v>
       </c>
       <c r="C25">
-        <v>185.85</v>
+        <v>183.5</v>
       </c>
       <c r="D25">
-        <v>183</v>
+        <v>180.05</v>
       </c>
       <c r="E25">
-        <v>183.35</v>
+        <v>180.65</v>
       </c>
       <c r="F25">
-        <v>-0.59999999999999432</v>
+        <v>-1.1500000000000059</v>
       </c>
       <c r="G25">
-        <v>-0.32617559119325601</v>
+        <v>-0.6325632563256357</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.318622174381064</v>
+        <v>-0.65988452020895727</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>1.318622174381064</v>
+        <v>0.65988452020895727</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>2.6910656620012349E-2</v>
+        <v>0.90734121528732792</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>0.19089173711480464</v>
+        <v>0.33213396069747814</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="T25">
-        <v>186.5</v>
+        <v>184.2</v>
       </c>
       <c r="U25">
-        <v>182.75</v>
+        <v>180.8</v>
       </c>
       <c r="V25">
-        <v>183.95</v>
+        <v>181.8</v>
       </c>
       <c r="W25">
-        <v>-0.95000000000001705</v>
+        <v>-1.5499999999999829</v>
       </c>
       <c r="X25">
-        <v>-0.51379123850731045</v>
+        <v>-0.84537769293699638</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>-0.51379123850731045</v>
+        <v>-1.1956521739130372</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>0.51379123850731045</v>
+        <v>1.1956521739130372</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>0.8653326122228201</v>
+        <v>0.10869565217390686</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>0.65235118238651191</v>
+        <v>0.55005500550054998</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>184.1</v>
+        <v>185.8</v>
       </c>
       <c r="AJ25">
-        <v>185.7</v>
+        <v>185.85</v>
       </c>
       <c r="AK25">
-        <v>183.2</v>
+        <v>183</v>
       </c>
       <c r="AL25">
-        <v>184.9</v>
+        <v>183.35</v>
       </c>
       <c r="AM25">
-        <v>1.0999999999999941</v>
+        <v>-0.59999999999999432</v>
       </c>
       <c r="AN25">
-        <v>0.59847660500543753</v>
+        <v>-0.32617559119325601</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>0.43454644215101107</v>
+        <v>-1.318622174381064</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>0.43454644215101107</v>
+        <v>1.318622174381064</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>0.43266630611140233</v>
+        <v>2.6910656620012349E-2</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>0.48886474741988362</v>
+        <v>0.19089173711480464</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>83.2</v>
+        <v>82.25</v>
       </c>
       <c r="C26">
-        <v>83.8</v>
+        <v>83.05</v>
       </c>
       <c r="D26">
-        <v>82.35</v>
+        <v>81.45</v>
       </c>
       <c r="E26">
         <v>82.7</v>
       </c>
       <c r="F26">
-        <v>-0.39999999999999147</v>
+        <v>0.45000000000000279</v>
       </c>
       <c r="G26">
-        <v>-0.48134777376653609</v>
+        <v>0.54711246200608243</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-0.60096153846153844</v>
+        <v>0.54711246200608243</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>0.60096153846153844</v>
+        <v>0.54711246200608243</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>0.72115384615383926</v>
+        <v>0.42321644498185523</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>0.4232164449818725</v>
+        <v>0.97264437689969263</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>83.3</v>
+        <v>82.7</v>
       </c>
       <c r="T26">
-        <v>84</v>
+        <v>83.4</v>
       </c>
       <c r="U26">
-        <v>82.05</v>
+        <v>81.8</v>
       </c>
       <c r="V26">
-        <v>83.1</v>
+        <v>82.25</v>
       </c>
       <c r="W26">
         <v>-0.45000000000000279</v>
       </c>
       <c r="X26">
-        <v>-0.53859964093357615</v>
+        <v>-0.54413542926239766</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>-0.24009603841536956</v>
+        <v>-0.54413542926239766</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>0.24009603841536956</v>
+        <v>0.54413542926239766</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>0.84033613445378497</v>
+        <v>0.84643288996372767</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>1.2635379061371808</v>
+        <v>0.54711246200608243</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>80.7</v>
+        <v>83.2</v>
       </c>
       <c r="AJ26">
-        <v>83.95</v>
+        <v>83.8</v>
       </c>
       <c r="AK26">
-        <v>80.7</v>
+        <v>82.35</v>
       </c>
       <c r="AL26">
-        <v>83.55</v>
+        <v>82.7</v>
       </c>
       <c r="AM26">
-        <v>3</v>
+        <v>-0.39999999999999147</v>
       </c>
       <c r="AN26">
-        <v>3.7243947858472999</v>
+        <v>-0.48134777376653609</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>3.5315985130111449</v>
+        <v>-0.60096153846153844</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>3.5315985130111449</v>
+        <v>0.60096153846153844</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>0.47875523638540479</v>
+        <v>0.72115384615383926</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.4232164449818725</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>617.1</v>
+        <v>641</v>
       </c>
       <c r="C27">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="D27">
-        <v>603.85</v>
+        <v>613.65</v>
       </c>
       <c r="E27">
-        <v>609.35</v>
+        <v>621.65</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>-11.75</v>
       </c>
       <c r="G27">
-        <v>-0.16384041943147379</v>
+        <v>-1.85506788759078</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2558742505266569</v>
+        <v>-3.0187207488299568</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>1.2558742505266569</v>
+        <v>3.0187207488299568</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>0.46994004213255181</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>0.90260113235414785</v>
+        <v>1.2868977720582322</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5477,38 +5477,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>618</v>
+        <v>609.35</v>
       </c>
       <c r="T27">
-        <v>622.4</v>
+        <v>639</v>
       </c>
       <c r="U27">
-        <v>603.25</v>
+        <v>601.20000000000005</v>
       </c>
       <c r="V27">
-        <v>610.35</v>
+        <v>633.4</v>
       </c>
       <c r="W27">
-        <v>-10.100000000000019</v>
+        <v>24.049999999999951</v>
       </c>
       <c r="X27">
-        <v>-1.627850753485377</v>
+        <v>3.9468285878394931</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>-1.2378640776698993</v>
+        <v>3.9468285878394931</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>1.2378640776698993</v>
+        <v>3.9468285878394931</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>0.71197411003235878</v>
+        <v>0.88411746131986468</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>1.1632669779634672</v>
+        <v>1.3374907688520516</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>614</v>
+        <v>617.1</v>
       </c>
       <c r="AJ27">
-        <v>627.79999999999995</v>
+        <v>620</v>
       </c>
       <c r="AK27">
-        <v>610</v>
+        <v>603.85</v>
       </c>
       <c r="AL27">
-        <v>620.45000000000005</v>
+        <v>609.35</v>
       </c>
       <c r="AM27">
-        <v>15.850000000000019</v>
+        <v>-1</v>
       </c>
       <c r="AN27">
-        <v>2.6215679788289812</v>
+        <v>-0.16384041943147379</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>1.0504885993485416</v>
+        <v>-1.2558742505266569</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>1.0504885993485416</v>
+        <v>1.2558742505266569</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>1.1846240631799354</v>
+        <v>0.46994004213255181</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>0.65146579804560267</v>
+        <v>0.90260113235414785</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="C28">
-        <v>991.05</v>
+        <v>1005.65</v>
       </c>
       <c r="D28">
-        <v>948.3</v>
+        <v>982</v>
       </c>
       <c r="E28">
-        <v>978.4</v>
+        <v>1001.75</v>
       </c>
       <c r="F28">
-        <v>32.699999999999932</v>
+        <v>19.299999999999951</v>
       </c>
       <c r="G28">
-        <v>3.457756159458595</v>
+        <v>1.9644765636928041</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>2.2361546499477511</v>
+        <v>1.5973630831643004</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>2.2361546499477511</v>
+        <v>1.5973630831643004</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>1.292927228127553</v>
+        <v>0.38931869228849286</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0.90909090909091395</v>
+        <v>0.40567951318458417</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>934.9</v>
+        <v>979.5</v>
       </c>
       <c r="T28">
-        <v>954.15</v>
+        <v>994</v>
       </c>
       <c r="U28">
-        <v>931</v>
+        <v>971.65</v>
       </c>
       <c r="V28">
-        <v>945.7</v>
+        <v>982.45</v>
       </c>
       <c r="W28">
-        <v>5.6500000000000909</v>
+        <v>4.0500000000000682</v>
       </c>
       <c r="X28">
-        <v>0.60103186000745612</v>
+        <v>0.41394112837286068</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>1.1552037651085751</v>
+        <v>0.30117406840225069</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>1.1552037651085751</v>
+        <v>0.30117406840225069</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>0.89351802897324006</v>
+        <v>1.1756323477021686</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>0.4171569151780915</v>
+        <v>0.80142930066360618</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>935.3</v>
+        <v>957</v>
       </c>
       <c r="AJ28">
-        <v>942</v>
+        <v>991.05</v>
       </c>
       <c r="AK28">
-        <v>924.8</v>
+        <v>948.3</v>
       </c>
       <c r="AL28">
-        <v>940.05</v>
+        <v>978.4</v>
       </c>
       <c r="AM28">
-        <v>12.299999999999949</v>
+        <v>32.699999999999932</v>
       </c>
       <c r="AN28">
-        <v>1.3257881972514101</v>
+        <v>3.457756159458595</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>0.50785844114187961</v>
+        <v>2.2361546499477511</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>0.50785844114187961</v>
+        <v>2.2361546499477511</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>0.20743577469284036</v>
+        <v>1.292927228127553</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>1.1226344488399445</v>
+        <v>0.90909090909091395</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>287.10000000000002</v>
+        <v>289</v>
       </c>
       <c r="C29">
-        <v>293.95</v>
+        <v>291.7</v>
       </c>
       <c r="D29">
-        <v>285.60000000000002</v>
+        <v>286.3</v>
       </c>
       <c r="E29">
-        <v>289.85000000000002</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="F29">
-        <v>2.0500000000000109</v>
+        <v>-0.95000000000004547</v>
       </c>
       <c r="G29">
-        <v>0.71230020847811371</v>
+        <v>-0.32803867403316478</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>0.95785440613026818</v>
+        <v>-0.12110726643599402</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>0.95785440613026818</v>
+        <v>0.12110726643599402</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>1.4145247541831865</v>
+        <v>0.93425605536331791</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>0.52246603970741889</v>
+        <v>0.81413476528666762</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>283.95</v>
+        <v>290.95</v>
       </c>
       <c r="T29">
-        <v>289</v>
+        <v>294.55</v>
       </c>
       <c r="U29">
-        <v>282.7</v>
+        <v>288.75</v>
       </c>
       <c r="V29">
-        <v>287.8</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="W29">
-        <v>2.4499999999999891</v>
+        <v>-0.25</v>
       </c>
       <c r="X29">
-        <v>0.85859470825301853</v>
+        <v>-8.6251509401414517E-2</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>1.3558725127663402</v>
+        <v>-0.46399725038665268</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>1.3558725127663402</v>
+        <v>0.46399725038665268</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>0.4169562195969384</v>
+        <v>1.2373260010311129</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>0.44021834830075718</v>
+        <v>0.29350828729282552</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>289.35000000000002</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="AJ29">
-        <v>290.25</v>
+        <v>293.95</v>
       </c>
       <c r="AK29">
-        <v>278.45</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="AL29">
-        <v>285.35000000000002</v>
+        <v>289.85000000000002</v>
       </c>
       <c r="AM29">
-        <v>-1.5</v>
+        <v>2.0500000000000109</v>
       </c>
       <c r="AN29">
-        <v>-0.52292138748474803</v>
+        <v>0.71230020847811371</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>-1.3824088474166234</v>
+        <v>0.95785440613026818</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>1.3824088474166234</v>
+        <v>0.95785440613026818</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>0.31104199066873239</v>
+        <v>1.4145247541831865</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>2.4180830558962798</v>
+        <v>0.52246603970741889</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="C30">
-        <v>1347.95</v>
+        <v>1332</v>
       </c>
       <c r="D30">
-        <v>1300</v>
+        <v>1300.55</v>
       </c>
       <c r="E30">
-        <v>1304.7</v>
+        <v>1325.4</v>
       </c>
       <c r="F30">
-        <v>-25.64999999999986</v>
+        <v>1.450000000000045</v>
       </c>
       <c r="G30">
-        <v>-1.928064043296867</v>
+        <v>0.1095207522942744</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4158563949139831</v>
+        <v>0.10574018126888905</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>2.4158563949139831</v>
+        <v>0.10574018126888905</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>0.8189977561705345</v>
+        <v>0.49796287913082149</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0.36023606959454629</v>
+        <v>1.7711480362537799</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>1317</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="T30">
-        <v>1336.2</v>
+        <v>1328.85</v>
       </c>
       <c r="U30">
-        <v>1311</v>
+        <v>1289</v>
       </c>
       <c r="V30">
-        <v>1330.35</v>
+        <v>1323.95</v>
       </c>
       <c r="W30">
-        <v>10.849999999999911</v>
+        <v>19.25</v>
       </c>
       <c r="X30">
-        <v>0.82228116710874632</v>
+        <v>1.4754349658925421</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>1.0136674259681024</v>
+        <v>1.2116810641388378</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>1.0136674259681024</v>
+        <v>1.2116810641388378</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>0.43973390461157869</v>
+        <v>0.37010461120131904</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>0.45558086560364464</v>
+        <v>1.4601330173534064</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="AF30" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AG30" s="1" t="str">
         <f t="shared" si="19"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>1330</v>
+        <v>1337</v>
       </c>
       <c r="AJ30">
-        <v>1343.05</v>
+        <v>1347.95</v>
       </c>
       <c r="AK30">
-        <v>1315.1</v>
+        <v>1300</v>
       </c>
       <c r="AL30">
-        <v>1319.5</v>
+        <v>1304.7</v>
       </c>
       <c r="AM30">
-        <v>-6.6500000000000909</v>
+        <v>-25.64999999999986</v>
       </c>
       <c r="AN30">
-        <v>-0.50145157033518761</v>
+        <v>-1.928064043296867</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>-0.78947368421052633</v>
+        <v>-2.4158563949139831</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>0.78947368421052633</v>
+        <v>2.4158563949139831</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>0.98120300751879352</v>
+        <v>0.8189977561705345</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>0.33345964380447829</v>
+        <v>0.36023606959454629</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>922.4</v>
+        <v>915</v>
       </c>
       <c r="C31">
-        <v>923.35</v>
+        <v>924</v>
       </c>
       <c r="D31">
-        <v>901</v>
+        <v>911.35</v>
       </c>
       <c r="E31">
-        <v>902.1</v>
+        <v>921.8</v>
       </c>
       <c r="F31">
-        <v>-15.299999999999949</v>
+        <v>11.849999999999911</v>
       </c>
       <c r="G31">
-        <v>-1.667756703727922</v>
+        <v>1.302269355459081</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2007805724197698</v>
+        <v>0.74316939890709888</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>2.2007805724197698</v>
+        <v>0.74316939890709888</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>0.10299219427580719</v>
+        <v>0.23866348448687846</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.1219377009200779</v>
+        <v>0.39890710382513417</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="T31">
-        <v>921.55</v>
+        <v>915.2</v>
       </c>
       <c r="U31">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="V31">
-        <v>917.4</v>
+        <v>909.95</v>
       </c>
       <c r="W31">
-        <v>-3.5500000000000682</v>
+        <v>7.8500000000000227</v>
       </c>
       <c r="X31">
-        <v>-0.38547152396982121</v>
+        <v>0.87019177474781317</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>-0.28260869565217639</v>
+        <v>-5.4945054945004972E-3</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>0.28260869565217639</v>
+        <v>5.4945054945004972E-3</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>0.16847826086956028</v>
+        <v>0.5714285714285765</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>0.58862001308044232</v>
+        <v>1.0934666739930816</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>917.7</v>
+        <v>922.4</v>
       </c>
       <c r="AJ31">
-        <v>923</v>
+        <v>923.35</v>
       </c>
       <c r="AK31">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="AL31">
-        <v>920.95</v>
+        <v>902.1</v>
       </c>
       <c r="AM31">
-        <v>11.450000000000051</v>
+        <v>-15.299999999999949</v>
       </c>
       <c r="AN31">
-        <v>1.258933479934035</v>
+        <v>-1.667756703727922</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>0.35414623515310012</v>
+        <v>-2.2007805724197698</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>0.35414623515310012</v>
+        <v>2.2007805724197698</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>0.22259623215157764</v>
+        <v>0.10299219427580719</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.6211180124223652</v>
+        <v>0.1219377009200779</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C32">
-        <v>629.4</v>
+        <v>649.79999999999995</v>
       </c>
       <c r="D32">
-        <v>611.9</v>
+        <v>616</v>
       </c>
       <c r="E32">
-        <v>615.29999999999995</v>
+        <v>639.45000000000005</v>
       </c>
       <c r="F32">
-        <v>1.049999999999955</v>
+        <v>26</v>
       </c>
       <c r="G32">
-        <v>0.1709401709401635</v>
+        <v>4.2383242318037331</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>4.8780487804870654E-2</v>
+        <v>3.8068181818181888</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>4.8780487804870654E-2</v>
+        <v>3.8068181818181888</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>2.2915650901999065</v>
+        <v>1.618578465869092</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0.50406504065041013</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="N32" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O32" s="1" t="str">
         <f t="shared" si="7"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>614.9</v>
+        <v>619.25</v>
       </c>
       <c r="T32">
-        <v>621.9</v>
+        <v>624</v>
       </c>
       <c r="U32">
-        <v>612.1</v>
+        <v>611.95000000000005</v>
       </c>
       <c r="V32">
-        <v>614.25</v>
+        <v>613.45000000000005</v>
       </c>
       <c r="W32">
-        <v>-1.200000000000045</v>
+        <v>-1.8499999999999091</v>
       </c>
       <c r="X32">
-        <v>-0.19497928345114071</v>
+        <v>-0.30066634162195832</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>-0.10570824524312526</v>
+        <v>-0.93661687525231407</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>0.10570824524312526</v>
+        <v>0.93661687525231407</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>1.1383964872336967</v>
+        <v>0.76705692369802181</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.35002035002034632</v>
+        <v>0.24451870568098455</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6450,38 +6450,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>619.5</v>
+        <v>615</v>
       </c>
       <c r="AJ32">
-        <v>623.9</v>
+        <v>629.4</v>
       </c>
       <c r="AK32">
-        <v>612.9</v>
+        <v>611.9</v>
       </c>
       <c r="AL32">
-        <v>615.45000000000005</v>
+        <v>615.29999999999995</v>
       </c>
       <c r="AM32">
-        <v>1.550000000000068</v>
+        <v>1.049999999999955</v>
       </c>
       <c r="AN32">
-        <v>0.25248411793452818</v>
+        <v>0.1709401709401635</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>-0.65375302663437518</v>
+        <v>4.8780487804870654E-2</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>0.65375302663437518</v>
+        <v>4.8780487804870654E-2</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>0.71025020177562181</v>
+        <v>2.2915650901999065</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>0.41433097733366936</v>
+        <v>0.50406504065041013</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="AU32" t="str">
         <f t="shared" si="27"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AV32" t="str">
         <f t="shared" si="28"/>
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>7219</v>
+        <v>7074</v>
       </c>
       <c r="C33">
-        <v>7239.6</v>
+        <v>7169</v>
       </c>
       <c r="D33">
-        <v>7085</v>
+        <v>7041</v>
       </c>
       <c r="E33">
-        <v>7128.85</v>
+        <v>7057.95</v>
       </c>
       <c r="F33">
-        <v>-64.75</v>
+        <v>5.1499999999996362</v>
       </c>
       <c r="G33">
-        <v>-0.90010564946619209</v>
+        <v>7.3020644283116443E-2</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>-1.248787920764644</v>
+        <v>-0.22688719253605008</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>1.248787920764644</v>
+        <v>0.22688719253605008</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>0.28535808283696307</v>
+        <v>1.3429459994345492</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0.61510622330390397</v>
+        <v>0.24015471914649181</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>7279.95</v>
+        <v>7164</v>
       </c>
       <c r="T33">
-        <v>7349.9</v>
+        <v>7175</v>
       </c>
       <c r="U33">
-        <v>7175</v>
+        <v>7005</v>
       </c>
       <c r="V33">
-        <v>7193.6</v>
+        <v>7052.8</v>
       </c>
       <c r="W33">
-        <v>-38.049999999999272</v>
+        <v>-76.050000000000182</v>
       </c>
       <c r="X33">
-        <v>-0.5261593135729643</v>
+        <v>-1.066791979070961</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>-1.186134520154664</v>
+        <v>-1.5522054718034592</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>1.186134520154664</v>
+        <v>1.5522054718034592</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0.96085824765279726</v>
+        <v>0.15354550530429928</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>0.25856316725979156</v>
+        <v>0.67774500907441271</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>7264</v>
+        <v>7219</v>
       </c>
       <c r="AJ33">
-        <v>7299.4</v>
+        <v>7239.6</v>
       </c>
       <c r="AK33">
-        <v>7168</v>
+        <v>7085</v>
       </c>
       <c r="AL33">
-        <v>7231.65</v>
+        <v>7128.85</v>
       </c>
       <c r="AM33">
-        <v>16.39999999999964</v>
+        <v>-64.75</v>
       </c>
       <c r="AN33">
-        <v>0.22729635147776769</v>
+        <v>-0.90010564946619209</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>-0.44534691629956447</v>
+        <v>-1.248787920764644</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>0.44534691629956447</v>
+        <v>1.248787920764644</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>0.48733480176210953</v>
+        <v>0.28535808283696307</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0.88015874662075233</v>
+        <v>0.61510622330390397</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,45 +6696,45 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>90.4</v>
+        <v>91.6</v>
       </c>
       <c r="C34">
-        <v>91.95</v>
+        <v>91.6</v>
       </c>
       <c r="D34">
-        <v>89.75</v>
+        <v>89.3</v>
       </c>
       <c r="E34">
-        <v>90.85</v>
+        <v>89.65</v>
       </c>
       <c r="F34">
-        <v>0.75</v>
+        <v>-1.4499999999999891</v>
       </c>
       <c r="G34">
-        <v>0.83240843507214213</v>
+        <v>-1.5916575192096469</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>0.49778761061945642</v>
+        <v>-2.1288209606986777</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>0.49778761061945642</v>
+        <v>2.1288209606986777</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>1.2107870115575219</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.71902654867257265</v>
+        <v>0.39040713887340606</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34:M51" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M34:M51" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N34" t="str">
@@ -6742,7 +6742,7 @@
         <v>NO</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P34" s="1" t="str">
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>90.2</v>
+        <v>90.9</v>
       </c>
       <c r="T34">
-        <v>90.9</v>
+        <v>92.75</v>
       </c>
       <c r="U34">
-        <v>89.45</v>
+        <v>90.55</v>
       </c>
       <c r="V34">
-        <v>90.1</v>
+        <v>91.1</v>
       </c>
       <c r="W34">
-        <v>-0.45000000000000279</v>
+        <v>0.25</v>
       </c>
       <c r="X34">
-        <v>-0.49696300386527098</v>
+        <v>0.27517886626307098</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>-0.11086474501109593</v>
+        <v>0.22002200220020751</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>0.11086474501109593</v>
+        <v>0.22002200220020751</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>0.77605321507760849</v>
+        <v>1.8111964873765156</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0.72142064372918036</v>
+        <v>0.3850385038503944</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>91</v>
+        <v>90.4</v>
       </c>
       <c r="AJ34">
-        <v>91.5</v>
+        <v>91.95</v>
       </c>
       <c r="AK34">
-        <v>89.25</v>
+        <v>89.75</v>
       </c>
       <c r="AL34">
-        <v>90.55</v>
+        <v>90.85</v>
       </c>
       <c r="AM34">
-        <v>0.1499999999999915</v>
+        <v>0.75</v>
       </c>
       <c r="AN34">
-        <v>0.16592920353981361</v>
+        <v>0.83240843507214213</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>-0.49450549450549763</v>
+        <v>0.49778761061945642</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>0.49450549450549763</v>
+        <v>0.49778761061945642</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>0.5494505494505495</v>
+        <v>1.2107870115575219</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>1.435670900055215</v>
+        <v>0.71902654867257265</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="AU34" t="str">
         <f t="shared" ref="AU34:AU51" si="58">IF(AND(AO34&lt;0,S34&lt;AL34,V34&lt;AL34,B34&gt;V34,E34&gt;V34,H34&gt;0),"YES","NO")</f>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AV34" t="str">
         <f t="shared" ref="AV34:AV51" si="59">IF(AND(AO34&gt;0,S34&gt;AL34,V34&gt;AL34,B34&lt;V34,E34&lt;V34,H34&lt;0),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>16400</v>
+        <v>16066.5</v>
       </c>
       <c r="C35">
-        <v>16400</v>
+        <v>16225</v>
       </c>
       <c r="D35">
-        <v>16040.05</v>
+        <v>16050</v>
       </c>
       <c r="E35">
-        <v>16083.3</v>
+        <v>16197.8</v>
       </c>
       <c r="F35">
-        <v>-242.05000000000109</v>
+        <v>156.84999999999849</v>
       </c>
       <c r="G35">
-        <v>-1.4826634651018269</v>
+        <v>0.97780991774177062</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>-1.9310975609756142</v>
+        <v>0.8172283944854154</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>1.9310975609756142</v>
+        <v>0.8172283944854154</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.16792403906703829</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>0.26891247442999883</v>
+        <v>0.10269816076930258</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>16400</v>
+        <v>16090</v>
       </c>
       <c r="T35">
-        <v>16400</v>
+        <v>16165.9</v>
       </c>
       <c r="U35">
-        <v>16204</v>
+        <v>16012</v>
       </c>
       <c r="V35">
-        <v>16325.35</v>
+        <v>16040.95</v>
       </c>
       <c r="W35">
-        <v>-95.350000000000364</v>
+        <v>-42.349999999998538</v>
       </c>
       <c r="X35">
-        <v>-0.58066952078778833</v>
+        <v>-0.26331660791005917</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>-0.45518292682926609</v>
+        <v>-0.3048477315102503</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>0.45518292682926609</v>
+        <v>0.3048477315102503</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.47172156619017791</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>0.74332250150839252</v>
+        <v>0.1804755952733518</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>16261.25</v>
+        <v>16400</v>
       </c>
       <c r="AJ35">
-        <v>16450</v>
+        <v>16400</v>
       </c>
       <c r="AK35">
-        <v>16201.25</v>
+        <v>16040.05</v>
       </c>
       <c r="AL35">
-        <v>16420.7</v>
+        <v>16083.3</v>
       </c>
       <c r="AM35">
-        <v>108.2000000000007</v>
+        <v>-242.05000000000109</v>
       </c>
       <c r="AN35">
-        <v>0.66329501915709266</v>
+        <v>-1.4826634651018269</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>0.98055192558998072</v>
+        <v>-1.9310975609756142</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>0.98055192558998072</v>
+        <v>1.9310975609756142</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>0.17843331892062622</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>0.36897532477515566</v>
+        <v>0.26891247442999883</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>73.849999999999994</v>
+        <v>74.25</v>
       </c>
       <c r="C36">
-        <v>74.75</v>
+        <v>74.45</v>
       </c>
       <c r="D36">
-        <v>73.25</v>
+        <v>72.55</v>
       </c>
       <c r="E36">
-        <v>73.650000000000006</v>
+        <v>73.05</v>
       </c>
       <c r="F36">
-        <v>0.35000000000000853</v>
+        <v>-0.75</v>
       </c>
       <c r="G36">
-        <v>0.47748976807641003</v>
+        <v>-1.0162601626016261</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>-0.27081922816518439</v>
+        <v>-1.6161616161616199</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>0.27081922816518439</v>
+        <v>1.6161616161616199</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>1.2186865267434066</v>
+        <v>0.26936026936027319</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.54310930074678299</v>
+        <v>0.6844626967830254</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>73.45</v>
+        <v>73.75</v>
       </c>
       <c r="T36">
-        <v>73.7</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="U36">
-        <v>72.599999999999994</v>
+        <v>73.25</v>
       </c>
       <c r="V36">
-        <v>73.3</v>
+        <v>73.8</v>
       </c>
       <c r="W36">
-        <v>-0.35000000000000853</v>
+        <v>0.1499999999999915</v>
       </c>
       <c r="X36">
-        <v>-0.4752206381534399</v>
+        <v>0.20366598778002909</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>-0.20422055820286683</v>
+        <v>6.7796610169487667E-2</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>0.20422055820286683</v>
+        <v>6.7796610169487667E-2</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>0.3403675970047651</v>
+        <v>0.74525745257452192</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>0.95497953615280073</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>73.5</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="AJ36">
-        <v>74.400000000000006</v>
+        <v>74.75</v>
       </c>
       <c r="AK36">
-        <v>72.650000000000006</v>
+        <v>73.25</v>
       </c>
       <c r="AL36">
         <v>73.650000000000006</v>
       </c>
       <c r="AM36">
-        <v>0.95000000000000284</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AN36">
-        <v>1.30674002751032</v>
+        <v>0.47748976807641003</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>0.20408163265306897</v>
+        <v>-0.27081922816518439</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>0.20408163265306897</v>
+        <v>0.27081922816518439</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>1.0183299389002036</v>
+        <v>1.2186865267434066</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>1.156462585034006</v>
+        <v>0.54310930074678299</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>177.5</v>
+        <v>173</v>
       </c>
       <c r="C37">
-        <v>177.5</v>
+        <v>173.45</v>
       </c>
       <c r="D37">
-        <v>170.75</v>
+        <v>170.8</v>
       </c>
       <c r="E37">
-        <v>171.5</v>
+        <v>171.95</v>
       </c>
       <c r="F37">
-        <v>-3.6500000000000061</v>
+        <v>-1.350000000000023</v>
       </c>
       <c r="G37">
-        <v>-2.0839280616614362</v>
+        <v>-0.77899596076169797</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>-3.3802816901408446</v>
+        <v>-0.60693641618497762</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>3.3802816901408446</v>
+        <v>0.60693641618497762</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.26011560693640962</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>0.43731778425655976</v>
+        <v>0.66879906949693357</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>178.1</v>
+        <v>171.85</v>
       </c>
       <c r="T37">
-        <v>178.3</v>
+        <v>173.9</v>
       </c>
       <c r="U37">
-        <v>174.1</v>
+        <v>171</v>
       </c>
       <c r="V37">
-        <v>175.15</v>
+        <v>173.3</v>
       </c>
       <c r="W37">
-        <v>-2.4499999999999891</v>
+        <v>1.8000000000000109</v>
       </c>
       <c r="X37">
-        <v>-1.379504504504498</v>
+        <v>1.04956268221575</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>-1.6563728242560294</v>
+        <v>0.84375909223160728</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>1.6563728242560294</v>
+        <v>0.84375909223160728</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>0.11229646266143574</v>
+        <v>0.34622042700519001</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>0.59948615472452826</v>
+        <v>0.49461739889438139</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>176</v>
+        <v>177.5</v>
       </c>
       <c r="AJ37">
-        <v>178.45</v>
+        <v>177.5</v>
       </c>
       <c r="AK37">
-        <v>174.15</v>
+        <v>170.75</v>
       </c>
       <c r="AL37">
-        <v>177.6</v>
+        <v>171.5</v>
       </c>
       <c r="AM37">
-        <v>2.3499999999999939</v>
+        <v>-3.6500000000000061</v>
       </c>
       <c r="AN37">
-        <v>1.3409415121255319</v>
+        <v>-2.0839280616614362</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>0.90909090909090595</v>
+        <v>-3.3802816901408446</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>0.90909090909090595</v>
+        <v>3.3802816901408446</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>0.47860360360360044</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>1.0511363636363604</v>
+        <v>0.43731778425655976</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="C38">
-        <v>2360</v>
+        <v>2369.35</v>
       </c>
       <c r="D38">
-        <v>2282</v>
+        <v>2310.5500000000002</v>
       </c>
       <c r="E38">
-        <v>2302.5500000000002</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="F38">
-        <v>-17.199999999999822</v>
+        <v>5.7000000000002728</v>
       </c>
       <c r="G38">
-        <v>-0.74145920896647555</v>
+        <v>0.24581150139078739</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>-0.96559139784945458</v>
+        <v>0.19612068965518026</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>0.96559139784945458</v>
+        <v>0.19612068965518026</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>1.5053763440860215</v>
+        <v>1.9272547374760589</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.89248876245902076</v>
+        <v>0.40732758620688869</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="37"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O38" s="1" t="str">
         <f t="shared" si="38"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>2312</v>
+        <v>2311.9499999999998</v>
       </c>
       <c r="T38">
-        <v>2337.85</v>
+        <v>2325.75</v>
       </c>
       <c r="U38">
-        <v>2287.1</v>
+        <v>2288.15</v>
       </c>
       <c r="V38">
-        <v>2319.75</v>
+        <v>2318.85</v>
       </c>
       <c r="W38">
-        <v>5.75</v>
+        <v>16.299999999999731</v>
       </c>
       <c r="X38">
-        <v>0.24848746758859119</v>
+        <v>0.70791079455385231</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>0.33520761245674741</v>
+        <v>0.2984493609290898</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>0.33520761245674741</v>
+        <v>0.2984493609290898</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>0.78025649315658618</v>
+        <v>0.2975612911572586</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>1.0769896193771666</v>
+        <v>1.0294340275524874</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="AF38" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AG38" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7548,38 +7548,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>2183.1</v>
+        <v>2325</v>
       </c>
       <c r="AJ38">
-        <v>2344.9499999999998</v>
+        <v>2360</v>
       </c>
       <c r="AK38">
-        <v>2175.35</v>
+        <v>2282</v>
       </c>
       <c r="AL38">
-        <v>2314</v>
+        <v>2302.5500000000002</v>
       </c>
       <c r="AM38">
-        <v>152.65000000000009</v>
+        <v>-17.199999999999822</v>
       </c>
       <c r="AN38">
-        <v>7.0627154324843318</v>
+        <v>-0.74145920896647555</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>5.9960606477028122</v>
+        <v>-0.96559139784945458</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>5.9960606477028122</v>
+        <v>0.96559139784945458</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>1.3375108038029306</v>
+        <v>1.5053763440860215</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>0.35499977096788971</v>
+        <v>0.89248876245902076</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>19512.3</v>
+        <v>20065.25</v>
       </c>
       <c r="C39">
-        <v>19985</v>
+        <v>20492.55</v>
       </c>
       <c r="D39">
-        <v>19500</v>
+        <v>19946.150000000001</v>
       </c>
       <c r="E39">
-        <v>19789.5</v>
+        <v>20387.849999999999</v>
       </c>
       <c r="F39">
-        <v>287</v>
+        <v>322.59999999999849</v>
       </c>
       <c r="G39">
-        <v>1.471606204332778</v>
+        <v>1.6077547002902961</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>1.4206423640472972</v>
+        <v>1.6077547002902957</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>1.4206423640472972</v>
+        <v>1.6077547002902957</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>0.98789762247656587</v>
+        <v>0.51354115318682814</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>6.3037161175254958E-2</v>
+        <v>0.59356349908423045</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>19735.5</v>
+        <v>19779</v>
       </c>
       <c r="T39">
-        <v>19735.5</v>
+        <v>20147.900000000001</v>
       </c>
       <c r="U39">
-        <v>19365.099999999999</v>
+        <v>19600</v>
       </c>
       <c r="V39">
-        <v>19502.5</v>
+        <v>20065.25</v>
       </c>
       <c r="W39">
-        <v>-140.84999999999849</v>
+        <v>275.75</v>
       </c>
       <c r="X39">
-        <v>-0.71703655435553793</v>
+        <v>1.3934157002450791</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>-1.1806136150591573</v>
+        <v>1.4472420243692805</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>1.1806136150591573</v>
+        <v>1.4472420243692805</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.41190615616551729</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>0.70452506088963707</v>
+        <v>0.90500025279336671</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
+        <v>19512.3</v>
+      </c>
+      <c r="AJ39">
+        <v>19985</v>
+      </c>
+      <c r="AK39">
         <v>19500</v>
       </c>
-      <c r="AJ39">
-        <v>19750</v>
-      </c>
-      <c r="AK39">
-        <v>19319</v>
-      </c>
       <c r="AL39">
-        <v>19643.349999999999</v>
+        <v>19789.5</v>
       </c>
       <c r="AM39">
-        <v>241.84999999999849</v>
+        <v>287</v>
       </c>
       <c r="AN39">
-        <v>1.246553101564305</v>
+        <v>1.471606204332778</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>0.73512820512819765</v>
+        <v>1.4206423640472972</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>0.73512820512819765</v>
+        <v>1.4206423640472972</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>0.54293183189222538</v>
+        <v>0.98789762247656587</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>0.92820512820512824</v>
+        <v>6.3037161175254958E-2</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>205.9</v>
+        <v>199.85</v>
       </c>
       <c r="C40">
-        <v>206.2</v>
+        <v>200.05</v>
       </c>
       <c r="D40">
-        <v>197.35</v>
+        <v>196.25</v>
       </c>
       <c r="E40">
-        <v>198.5</v>
+        <v>198.2</v>
       </c>
       <c r="F40">
-        <v>-4.1999999999999886</v>
+        <v>-1.9500000000000171</v>
       </c>
       <c r="G40">
-        <v>-2.072027627035022</v>
+        <v>-0.97426929802648854</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>-3.5939776590577974</v>
+        <v>-0.82561921441081099</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>3.5939776590577974</v>
+        <v>0.82561921441081099</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>0.14570179698882124</v>
+        <v>0.10007505629222771</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>0.579345088161212</v>
+        <v>0.98385469223006494</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>198.55</v>
+        <v>199.9</v>
       </c>
       <c r="T40">
-        <v>203.85</v>
+        <v>201</v>
       </c>
       <c r="U40">
-        <v>197</v>
+        <v>197.1</v>
       </c>
       <c r="V40">
-        <v>202.7</v>
+        <v>200.15</v>
       </c>
       <c r="W40">
-        <v>4.5499999999999829</v>
+        <v>1.6500000000000059</v>
       </c>
       <c r="X40">
-        <v>2.2962402220539908</v>
+        <v>0.83123425692695507</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>2.0901536136993086</v>
+        <v>0.12506253126563283</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>2.0901536136993086</v>
+        <v>0.12506253126563283</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.56734089787864128</v>
+        <v>0.42468148888333462</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>0.78065978342987219</v>
+        <v>1.4007003501750932</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>197.7</v>
+        <v>205.9</v>
       </c>
       <c r="AJ40">
-        <v>201.45</v>
+        <v>206.2</v>
       </c>
       <c r="AK40">
-        <v>195.2</v>
+        <v>197.35</v>
       </c>
       <c r="AL40">
-        <v>198.15</v>
+        <v>198.5</v>
       </c>
       <c r="AM40">
-        <v>3.3000000000000109</v>
+        <v>-4.1999999999999886</v>
       </c>
       <c r="AN40">
-        <v>1.693610469592</v>
+        <v>-2.072027627035022</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>0.22761760242792972</v>
+        <v>-3.5939776590577974</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>0.22761760242792972</v>
+        <v>3.5939776590577974</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>1.6654049962149802</v>
+        <v>0.14570179698882124</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>1.2645422357106728</v>
+        <v>0.579345088161212</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>505.55</v>
+        <v>510.15</v>
       </c>
       <c r="C41">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D41">
-        <v>494</v>
+        <v>503.4</v>
       </c>
       <c r="E41">
-        <v>495.8</v>
+        <v>518.5</v>
       </c>
       <c r="F41">
-        <v>-9.75</v>
+        <v>12.100000000000019</v>
       </c>
       <c r="G41">
-        <v>-1.928592621896944</v>
+        <v>2.3894154818325481</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>-1.9285926218969438</v>
+        <v>1.6367734979907917</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>1.9285926218969438</v>
+        <v>1.6367734979907917</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>0.68242508159430093</v>
+        <v>0.28929604628736744</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>0.36304961678096231</v>
+        <v>1.3231402528668039</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="T41">
-        <v>512.35</v>
+        <v>512.4</v>
       </c>
       <c r="U41">
-        <v>502.6</v>
+        <v>496</v>
       </c>
       <c r="V41">
-        <v>505.55</v>
+        <v>506.4</v>
       </c>
       <c r="W41">
-        <v>-2.3999999999999768</v>
+        <v>10.599999999999969</v>
       </c>
       <c r="X41">
-        <v>-0.4724874495521168</v>
+        <v>2.137958854376758</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>-0.2859960552268222</v>
+        <v>1.6867469879518027</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>0.2859960552268222</v>
+        <v>1.6867469879518027</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>1.0552268244575982</v>
+        <v>1.1848341232227488</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>0.58352289585599615</v>
+        <v>0.40160642570281119</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>512.70000000000005</v>
+        <v>505.55</v>
       </c>
       <c r="AJ41">
-        <v>516.70000000000005</v>
+        <v>509</v>
       </c>
       <c r="AK41">
-        <v>503.65</v>
+        <v>494</v>
       </c>
       <c r="AL41">
-        <v>507.95</v>
+        <v>495.8</v>
       </c>
       <c r="AM41">
-        <v>-1.350000000000023</v>
+        <v>-9.75</v>
       </c>
       <c r="AN41">
-        <v>-0.26506970351463238</v>
+        <v>-1.928592621896944</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>-0.92646771991419086</v>
+        <v>-1.9285926218969438</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>0.92646771991419086</v>
+        <v>1.9285926218969438</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>0.78018334308562498</v>
+        <v>0.68242508159430093</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>0.84654001378088617</v>
+        <v>0.36304961678096231</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>2384.1</v>
+        <v>2488.9499999999998</v>
       </c>
       <c r="C42">
-        <v>2505.75</v>
+        <v>2507.6</v>
       </c>
       <c r="D42">
-        <v>2381.85</v>
+        <v>2477.3000000000002</v>
       </c>
       <c r="E42">
-        <v>2491.4</v>
+        <v>2503</v>
       </c>
       <c r="F42">
-        <v>117.3000000000002</v>
+        <v>11.599999999999911</v>
       </c>
       <c r="G42">
-        <v>4.9408196790362746</v>
+        <v>0.46560166974391543</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>4.5006501405142476</v>
+        <v>0.56449506820145778</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>4.5006501405142476</v>
+        <v>0.56449506820145778</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>0.57598137593320664</v>
+        <v>0.18377946464242545</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>9.4375235938089844E-2</v>
+        <v>0.46806886438054746</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>2330.9499999999998</v>
+        <v>2491.4</v>
       </c>
       <c r="T42">
-        <v>2383</v>
+        <v>2538</v>
       </c>
       <c r="U42">
-        <v>2330.15</v>
+        <v>2464.6</v>
       </c>
       <c r="V42">
-        <v>2374.1</v>
+        <v>2491.4</v>
       </c>
       <c r="W42">
-        <v>42.949999999999818</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>1.842438281534857</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>1.8511765589137517</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>1.8511765589137517</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>0.37487890147845881</v>
+        <v>1.8704342939712575</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>3.4320770501286055E-2</v>
+        <v>1.075700409408372</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>2335</v>
+        <v>2384.1</v>
       </c>
       <c r="AJ42">
-        <v>2348.5</v>
+        <v>2505.75</v>
       </c>
       <c r="AK42">
-        <v>2324.3000000000002</v>
+        <v>2381.85</v>
       </c>
       <c r="AL42">
-        <v>2331.15</v>
+        <v>2491.4</v>
       </c>
       <c r="AM42">
-        <v>3.5</v>
+        <v>117.3000000000002</v>
       </c>
       <c r="AN42">
-        <v>0.15036624922131761</v>
+        <v>4.9408196790362746</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>-0.16488222698072416</v>
+        <v>4.5006501405142476</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>0.16488222698072416</v>
+        <v>4.5006501405142476</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>0.57815845824411138</v>
+        <v>0.57598137593320664</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>0.29384638483151698</v>
+        <v>9.4375235938089844E-2</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>147.19999999999999</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="C43">
-        <v>151.1</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="D43">
-        <v>145.5</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="E43">
-        <v>148.55000000000001</v>
+        <v>151.44999999999999</v>
       </c>
       <c r="F43">
-        <v>4.25</v>
+        <v>3.0499999999999829</v>
       </c>
       <c r="G43">
-        <v>2.9452529452529448</v>
+        <v>2.0552560646900151</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>0.91711956521740678</v>
+        <v>1.5080428954423595</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>0.91711956521740678</v>
+        <v>1.5080428954423595</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>1.7165937394816442</v>
+        <v>1.881809177946532</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>1.1548913043478184</v>
+        <v>0.43565683646111075</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>143.1</v>
+        <v>149.4</v>
       </c>
       <c r="T43">
-        <v>146.80000000000001</v>
+        <v>149.4</v>
       </c>
       <c r="U43">
-        <v>141.65</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="V43">
-        <v>144.30000000000001</v>
+        <v>148.4</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>-0.15000000000000571</v>
       </c>
       <c r="X43">
-        <v>0.69783670621074656</v>
+        <v>-0.1009761023224542</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>0.83857442348009592</v>
+        <v>-0.66934404283801874</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>0.83857442348009592</v>
+        <v>0.66934404283801874</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>1.7325017325017324</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>1.01327742837176</v>
+        <v>1.2466307277627993</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>142.80000000000001</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="AJ43">
-        <v>144.5</v>
+        <v>151.1</v>
       </c>
       <c r="AK43">
-        <v>138</v>
+        <v>145.5</v>
       </c>
       <c r="AL43">
-        <v>143.30000000000001</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="AM43">
-        <v>3.2000000000000171</v>
+        <v>4.25</v>
       </c>
       <c r="AN43">
-        <v>2.2840827980014402</v>
+        <v>2.9452529452529448</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>0.35014005602240894</v>
+        <v>0.91711956521740678</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>0.35014005602240894</v>
+        <v>0.91711956521740678</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>0.8374040474528881</v>
+        <v>1.7165937394816442</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>3.3613445378151336</v>
+        <v>1.1548913043478184</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
+        <v>406.45</v>
+      </c>
+      <c r="C44">
         <v>410</v>
       </c>
-      <c r="C44">
-        <v>414.1</v>
-      </c>
       <c r="D44">
-        <v>402.15</v>
+        <v>402.7</v>
       </c>
       <c r="E44">
-        <v>404.65</v>
+        <v>404.6</v>
       </c>
       <c r="F44">
-        <v>-2.8500000000000232</v>
+        <v>-0.64999999999997726</v>
       </c>
       <c r="G44">
-        <v>-0.69938650306749017</v>
+        <v>-0.16039481801356631</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>-1.3048780487804934</v>
+        <v>-0.45516053635132631</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>1.3048780487804934</v>
+        <v>0.45516053635132631</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>1.0000000000000056</v>
+        <v>0.87341616434986125</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>0.61781786729272214</v>
+        <v>0.46959960454770988</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>408.75</v>
+        <v>407</v>
       </c>
       <c r="T44">
-        <v>412.65</v>
+        <v>410.55</v>
       </c>
       <c r="U44">
-        <v>402.5</v>
+        <v>403.55</v>
       </c>
       <c r="V44">
-        <v>407.5</v>
+        <v>405.25</v>
       </c>
       <c r="W44">
-        <v>-0.5</v>
+        <v>0.60000000000002274</v>
       </c>
       <c r="X44">
-        <v>-0.1225490196078431</v>
+        <v>0.14827628815025889</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>-0.3058103975535168</v>
+        <v>-0.42997542997542998</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>0.3058103975535168</v>
+        <v>0.42997542997542998</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>0.95412844036696698</v>
+        <v>0.87223587223587506</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>1.2269938650306749</v>
+        <v>0.41949413942010821</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="AJ44">
-        <v>425.9</v>
+        <v>414.1</v>
       </c>
       <c r="AK44">
-        <v>401.1</v>
+        <v>402.15</v>
       </c>
       <c r="AL44">
-        <v>408</v>
+        <v>404.65</v>
       </c>
       <c r="AM44">
-        <v>-9.3999999999999773</v>
+        <v>-2.8500000000000232</v>
       </c>
       <c r="AN44">
-        <v>-2.252036415907996</v>
+        <v>-0.69938650306749017</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>-3.7735849056603774</v>
+        <v>-1.3048780487804934</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>3.7735849056603774</v>
+        <v>1.3048780487804934</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>0.44811320754716444</v>
+        <v>1.0000000000000056</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>1.6911764705882297</v>
+        <v>0.61781786729272214</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>770.15</v>
+        <v>792</v>
       </c>
       <c r="C45">
-        <v>796.6</v>
+        <v>794.25</v>
       </c>
       <c r="D45">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E45">
-        <v>790.75</v>
+        <v>792</v>
       </c>
       <c r="F45">
-        <v>25.600000000000019</v>
+        <v>0.85000000000002274</v>
       </c>
       <c r="G45">
-        <v>3.345749199503369</v>
+        <v>0.1074385388358747</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>2.6748036096864278</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>2.6748036096864278</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>0.73980398355991428</v>
+        <v>0.28409090909090912</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>1.9476725313247713E-2</v>
+        <v>1.0101010101010102</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>749.4</v>
+        <v>790.75</v>
       </c>
       <c r="T45">
-        <v>770.6</v>
+        <v>803.1</v>
       </c>
       <c r="U45">
-        <v>747.5</v>
+        <v>775</v>
       </c>
       <c r="V45">
-        <v>765.15</v>
+        <v>791.15</v>
       </c>
       <c r="W45">
-        <v>15.149999999999981</v>
+        <v>0.39999999999997732</v>
       </c>
       <c r="X45">
-        <v>2.0199999999999969</v>
+        <v>5.0584887764777403E-2</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>2.1016813450760607</v>
+        <v>5.0584887764777396E-2</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>2.1016813450760607</v>
+        <v>5.0584887764777396E-2</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>0.71227863817552717</v>
+        <v>1.5104594577513804</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>0.2535361622631408</v>
+        <v>1.991779955738223</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>756.65</v>
+        <v>770.15</v>
       </c>
       <c r="AJ45">
-        <v>758.4</v>
+        <v>796.6</v>
       </c>
       <c r="AK45">
-        <v>739.3</v>
+        <v>770</v>
       </c>
       <c r="AL45">
-        <v>750</v>
+        <v>790.75</v>
       </c>
       <c r="AM45">
-        <v>-3.3500000000000232</v>
+        <v>25.600000000000019</v>
       </c>
       <c r="AN45">
-        <v>-0.44468042742417502</v>
+        <v>3.345749199503369</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>-0.8788739840084554</v>
+        <v>2.6748036096864278</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>0.8788739840084554</v>
+        <v>2.6748036096864278</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>0.23128262737064695</v>
+        <v>0.73980398355991428</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>1.4266666666666727</v>
+        <v>1.9476725313247713E-2</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>1168.5</v>
+        <v>1180</v>
       </c>
       <c r="C46">
-        <v>1191.5999999999999</v>
+        <v>1189</v>
       </c>
       <c r="D46">
-        <v>1167.95</v>
+        <v>1164.7</v>
       </c>
       <c r="E46">
-        <v>1188</v>
+        <v>1181.7</v>
       </c>
       <c r="F46">
-        <v>20.25</v>
+        <v>7.1500000000000909</v>
       </c>
       <c r="G46">
-        <v>1.7341040462427739</v>
+        <v>0.60874377421140791</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>1.6688061617458279</v>
+        <v>0.14406779661017333</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>1.6688061617458279</v>
+        <v>0.14406779661017333</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.30303030303029538</v>
+        <v>0.61775408310061386</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>4.7068891741545105E-2</v>
+        <v>1.2966101694915215</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>1156</v>
+        <v>1194.8</v>
       </c>
       <c r="T46">
-        <v>1194</v>
+        <v>1220</v>
       </c>
       <c r="U46">
-        <v>1155</v>
+        <v>1170.1500000000001</v>
       </c>
       <c r="V46">
-        <v>1167.75</v>
+        <v>1174.55</v>
       </c>
       <c r="W46">
-        <v>12.5</v>
+        <v>-13.450000000000051</v>
       </c>
       <c r="X46">
-        <v>1.08201687946332</v>
+        <v>-1.1321548821548859</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>1.0164359861591694</v>
+        <v>-1.6948443254101104</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>1.0164359861591694</v>
+        <v>1.6948443254101104</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>2.2479126525369297</v>
+        <v>2.1091396049548079</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>8.6505190311418692E-2</v>
+        <v>0.37461155336085</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>1165</v>
+        <v>1168.5</v>
       </c>
       <c r="AJ46">
-        <v>1165.8499999999999</v>
+        <v>1191.5999999999999</v>
       </c>
       <c r="AK46">
-        <v>1138.75</v>
+        <v>1167.95</v>
       </c>
       <c r="AL46">
-        <v>1155.25</v>
+        <v>1188</v>
       </c>
       <c r="AM46">
-        <v>-5.8499999999999091</v>
+        <v>20.25</v>
       </c>
       <c r="AN46">
-        <v>-0.50383257256049518</v>
+        <v>1.7341040462427739</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>-0.83690987124463523</v>
+        <v>1.6688061617458279</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>0.83690987124463523</v>
+        <v>1.6688061617458279</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>7.296137339055013E-2</v>
+        <v>0.30303030303029538</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>1.4282622808915819</v>
+        <v>4.7068891741545105E-2</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>507.95</v>
+        <v>530.04999999999995</v>
       </c>
       <c r="C47">
-        <v>519.79999999999995</v>
+        <v>533.25</v>
       </c>
       <c r="D47">
-        <v>502</v>
+        <v>521.95000000000005</v>
       </c>
       <c r="E47">
-        <v>515.9</v>
+        <v>528.5</v>
       </c>
       <c r="F47">
-        <v>16.899999999999981</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="G47">
-        <v>3.386773547094184</v>
+        <v>-0.22654332641118469</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>1.5651146766413997</v>
+        <v>-0.29242524290160449</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>1.5651146766413997</v>
+        <v>0.29242524290160449</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>0.75596045745299034</v>
+        <v>0.60371663050656466</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>1.1713751353479651</v>
+        <v>1.2393566698202374</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>492.6</v>
+        <v>518.25</v>
       </c>
       <c r="T47">
-        <v>501</v>
+        <v>532.25</v>
       </c>
       <c r="U47">
-        <v>488.1</v>
+        <v>516.04999999999995</v>
       </c>
       <c r="V47">
-        <v>499</v>
+        <v>529.70000000000005</v>
       </c>
       <c r="W47">
-        <v>8</v>
+        <v>13.80000000000007</v>
       </c>
       <c r="X47">
-        <v>1.629327902240326</v>
+        <v>2.6749370032952262</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>1.2992285830288219</v>
+        <v>2.2093584177520587</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>1.2992285830288219</v>
+        <v>2.2093584177520587</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>0.40080160320641278</v>
+        <v>0.48140456862374065</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.91352009744214369</v>
+        <v>0.42450554751568653</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>497.9</v>
+        <v>507.95</v>
       </c>
       <c r="AJ47">
-        <v>497.9</v>
+        <v>519.79999999999995</v>
       </c>
       <c r="AK47">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="AL47">
-        <v>491</v>
+        <v>515.9</v>
       </c>
       <c r="AM47">
-        <v>-3.5500000000000109</v>
+        <v>16.899999999999981</v>
       </c>
       <c r="AN47">
-        <v>-0.71782428470326787</v>
+        <v>3.386773547094184</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>-1.3858204458726608</v>
+        <v>1.5651146766413997</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>1.3858204458726608</v>
+        <v>1.5651146766413997</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.75596045745299034</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>1.2219959266802443</v>
+        <v>1.1713751353479651</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>3899.95</v>
+        <v>3933</v>
       </c>
       <c r="C48">
-        <v>3969.7</v>
+        <v>3983.85</v>
       </c>
       <c r="D48">
-        <v>3890</v>
+        <v>3920.05</v>
       </c>
       <c r="E48">
-        <v>3914.1</v>
+        <v>3974.9</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>43.450000000000273</v>
       </c>
       <c r="G48">
-        <v>0.25614097999538937</v>
+        <v>1.105190197001114</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>0.36282516442518731</v>
+        <v>1.0653445207220975</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>0.36282516442518731</v>
+        <v>1.0653445207220975</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>1.4205053524437268</v>
+        <v>0.2251628971797987</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>0.25513147604456005</v>
+        <v>0.32926519196541615</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>3915.5</v>
+        <v>3917.1</v>
       </c>
       <c r="T48">
-        <v>3944.2</v>
+        <v>3954.95</v>
       </c>
       <c r="U48">
-        <v>3878</v>
+        <v>3885.15</v>
       </c>
       <c r="V48">
-        <v>3904.1</v>
+        <v>3931.45</v>
       </c>
       <c r="W48">
-        <v>-11.400000000000089</v>
+        <v>17.349999999999909</v>
       </c>
       <c r="X48">
-        <v>-0.29115055548461483</v>
+        <v>0.44326920620321159</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>-0.29115055548461477</v>
+        <v>0.36634244721860332</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>0.29115055548461477</v>
+        <v>0.36634244721860332</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0.73298429319371261</v>
+        <v>0.59774383497182981</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>0.66852795778796414</v>
+        <v>0.81565443823236117</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>3837</v>
+        <v>3899.95</v>
       </c>
       <c r="AJ48">
-        <v>3939</v>
+        <v>3969.7</v>
       </c>
       <c r="AK48">
-        <v>3825</v>
+        <v>3890</v>
       </c>
       <c r="AL48">
-        <v>3915.5</v>
+        <v>3914.1</v>
       </c>
       <c r="AM48">
-        <v>79.900000000000091</v>
+        <v>10</v>
       </c>
       <c r="AN48">
-        <v>2.083116070497447</v>
+        <v>0.25614097999538937</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>2.0458691686213188</v>
+        <v>0.36282516442518731</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>2.0458691686213188</v>
+        <v>0.36282516442518731</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>0.60017877665687647</v>
+        <v>1.4205053524437268</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>0.31274433150899139</v>
+        <v>0.25513147604456005</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="C49">
-        <v>132.35</v>
+        <v>135</v>
       </c>
       <c r="D49">
-        <v>128.5</v>
+        <v>131.9</v>
       </c>
       <c r="E49">
-        <v>129.65</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="F49">
-        <v>-2.25</v>
+        <v>2.75</v>
       </c>
       <c r="G49">
-        <v>-1.705837755875663</v>
+        <v>2.0904599011782592</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>-1.7803030303030261</v>
+        <v>1.3584905660377444</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>1.7803030303030261</v>
+        <v>1.3584905660377444</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>0.26515151515151081</v>
+        <v>0.5212211466865142</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>0.88700347088315135</v>
+        <v>0.45283018867924096</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>130.69999999999999</v>
+        <v>129.1</v>
       </c>
       <c r="T49">
-        <v>132.5</v>
+        <v>132.85</v>
       </c>
       <c r="U49">
-        <v>127.3</v>
+        <v>128.55000000000001</v>
       </c>
       <c r="V49">
-        <v>131.9</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="W49">
-        <v>1.4500000000000171</v>
+        <v>1.9000000000000059</v>
       </c>
       <c r="X49">
-        <v>1.1115369873514891</v>
+        <v>1.4654839953721599</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>0.91813312930376212</v>
+        <v>1.8977536793183714</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>0.91813312930376212</v>
+        <v>1.8977536793183714</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>0.45489006823350592</v>
+        <v>0.98821740782970946</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>2.6013771996939496</v>
+        <v>0.42602633617349572</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>129.05000000000001</v>
+        <v>132</v>
       </c>
       <c r="AJ49">
-        <v>131.25</v>
+        <v>132.35</v>
       </c>
       <c r="AK49">
-        <v>128.05000000000001</v>
+        <v>128.5</v>
       </c>
       <c r="AL49">
-        <v>130.44999999999999</v>
+        <v>129.65</v>
       </c>
       <c r="AM49">
-        <v>2.4999999999999858</v>
+        <v>-2.25</v>
       </c>
       <c r="AN49">
-        <v>1.9538882375927991</v>
+        <v>-1.705837755875663</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>1.0848508330104434</v>
+        <v>-1.7803030303030261</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>1.0848508330104434</v>
+        <v>1.7803030303030261</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>0.61326178612496085</v>
+        <v>0.26515151515151081</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.77489345215032923</v>
+        <v>0.88700347088315135</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>293.25</v>
+        <v>307</v>
       </c>
       <c r="C50">
-        <v>308.55</v>
+        <v>313.5</v>
       </c>
       <c r="D50">
-        <v>293.14999999999998</v>
+        <v>304.05</v>
       </c>
       <c r="E50">
-        <v>307.2</v>
+        <v>312.14999999999998</v>
       </c>
       <c r="F50">
-        <v>13.899999999999981</v>
+        <v>4.7999999999999554</v>
       </c>
       <c r="G50">
-        <v>4.7391749062393371</v>
+        <v>1.5617374328940801</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>4.7570332480818376</v>
+        <v>1.6775244299674192</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>4.7570332480818376</v>
+        <v>1.6775244299674192</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>0.43945312500000744</v>
+        <v>0.43248438250841675</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>3.4100596760451067E-2</v>
+        <v>0.96091205211726016</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>282.5</v>
+        <v>307.2</v>
       </c>
       <c r="T50">
-        <v>298.45</v>
+        <v>311.25</v>
       </c>
       <c r="U50">
-        <v>282.5</v>
+        <v>302.75</v>
       </c>
       <c r="V50">
-        <v>293.3</v>
+        <v>307.35000000000002</v>
       </c>
       <c r="W50">
-        <v>8.75</v>
+        <v>0.15000000000003411</v>
       </c>
       <c r="X50">
-        <v>3.0750307503075032</v>
+        <v>4.8828125000011102E-2</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>3.8230088495575263</v>
+        <v>4.8828125000011102E-2</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>3.8230088495575263</v>
+        <v>4.8828125000011102E-2</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>1.755881350153419</v>
+        <v>1.2689116642264444</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.4485677083333297</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>286.64999999999998</v>
+        <v>293.25</v>
       </c>
       <c r="AJ50">
-        <v>286.85000000000002</v>
+        <v>308.55</v>
       </c>
       <c r="AK50">
-        <v>281.10000000000002</v>
+        <v>293.14999999999998</v>
       </c>
       <c r="AL50">
-        <v>284.55</v>
+        <v>307.2</v>
       </c>
       <c r="AM50">
-        <v>1.6999999999999891</v>
+        <v>13.899999999999981</v>
       </c>
       <c r="AN50">
-        <v>0.60102527841611764</v>
+        <v>4.7391749062393371</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>-0.73260073260072078</v>
+        <v>4.7570332480818376</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>0.73260073260072078</v>
+        <v>4.7570332480818376</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>6.9771498342942787E-2</v>
+        <v>0.43945312500000744</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>1.2124406958355256</v>
+        <v>3.4100596760451067E-2</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>222</v>
+        <v>218.5</v>
       </c>
       <c r="C51">
-        <v>224.7</v>
+        <v>219.35</v>
       </c>
       <c r="D51">
-        <v>214.1</v>
+        <v>213.65</v>
       </c>
       <c r="E51">
-        <v>216.2</v>
+        <v>215.85</v>
       </c>
       <c r="F51">
-        <v>-1.9000000000000059</v>
+        <v>-1.5999999999999941</v>
       </c>
       <c r="G51">
-        <v>-0.8711600183402135</v>
+        <v>-0.73580133363991462</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>-2.6126126126126179</v>
+        <v>-1.212814645308927</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>2.6126126126126179</v>
+        <v>1.212814645308927</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>1.2162162162162111</v>
+        <v>0.38901601830663357</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>0.97132284921368839</v>
+        <v>1.0192263145702982</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>220.95</v>
+        <v>218.5</v>
       </c>
       <c r="T51">
-        <v>224.75</v>
+        <v>220.2</v>
       </c>
       <c r="U51">
-        <v>216.2</v>
+        <v>216.3</v>
       </c>
       <c r="V51">
-        <v>218.1</v>
+        <v>217.45</v>
       </c>
       <c r="W51">
-        <v>-5.0500000000000114</v>
+        <v>1.25</v>
       </c>
       <c r="X51">
-        <v>-2.26305175890657</v>
+        <v>0.57816836262719706</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>-1.2898845892735888</v>
+        <v>-0.48054919908467342</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>1.2898845892735888</v>
+        <v>0.48054919908467342</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>1.7198461190314602</v>
+        <v>0.77803203661326714</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.8711600183402135</v>
+        <v>0.52885720855368012</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>220.5</v>
+        <v>222</v>
       </c>
       <c r="AJ51">
-        <v>228.9</v>
+        <v>224.7</v>
       </c>
       <c r="AK51">
-        <v>219.5</v>
+        <v>214.1</v>
       </c>
       <c r="AL51">
-        <v>223.15</v>
+        <v>216.2</v>
       </c>
       <c r="AM51">
-        <v>1.5999999999999941</v>
+        <v>-1.9000000000000059</v>
       </c>
       <c r="AN51">
-        <v>0.72218460844053001</v>
+        <v>-0.8711600183402135</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>1.2018140589569186</v>
+        <v>-2.6126126126126179</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>1.2018140589569186</v>
+        <v>2.6126126126126179</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>2.5767421017252969</v>
+        <v>1.2162162162162111</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>0.45351473922902497</v>
+        <v>0.97132284921368839</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>

--- a/techniqo/candlepattern/nifty_50.xlsx
+++ b/techniqo/candlepattern/nifty_50.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,38 +840,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>352.25</v>
+        <v>348.7</v>
       </c>
       <c r="C2">
-        <v>356.1</v>
+        <v>359.8</v>
       </c>
       <c r="D2">
-        <v>348.95</v>
+        <v>347.1</v>
       </c>
       <c r="E2">
-        <v>353.55</v>
+        <v>357.85</v>
       </c>
       <c r="F2">
-        <v>0.90000000000003411</v>
+        <v>11.75</v>
       </c>
       <c r="G2">
-        <v>0.25521054870268939</v>
+        <v>3.3949725512857549</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>0.36905606813343117</v>
+        <v>2.624032119300268</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>0.36905606813343117</v>
+        <v>2.624032119300268</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.72125583368689328</v>
+        <v>0.54492105630850596</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.93683463449255111</v>
+        <v>0.4588471465442977</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>355.1</v>
+        <v>352</v>
       </c>
       <c r="T2">
-        <v>356.8</v>
+        <v>355.5</v>
       </c>
       <c r="U2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="V2">
-        <v>352.65</v>
+        <v>346.1</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>-7.4499999999999886</v>
       </c>
       <c r="X2">
-        <v>0.28437366699843603</v>
+        <v>-2.107198416065617</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-0.68994649394538032</v>
+        <v>-1.6761363636363571</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>0.68994649394538032</v>
+        <v>1.6761363636363571</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.47873838355392523</v>
+        <v>0.99431818181818177</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.46788600595490637</v>
+        <v>0.31782721756718368</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>345</v>
+        <v>352.25</v>
       </c>
       <c r="AJ2">
-        <v>353.6</v>
+        <v>356.1</v>
       </c>
       <c r="AK2">
-        <v>343.45</v>
+        <v>348.95</v>
       </c>
       <c r="AL2">
-        <v>351.65</v>
+        <v>353.55</v>
       </c>
       <c r="AM2">
-        <v>9.1499999999999773</v>
+        <v>0.90000000000003411</v>
       </c>
       <c r="AN2">
-        <v>2.6715328467153219</v>
+        <v>0.25521054870268939</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>1.9275362318840514</v>
+        <v>0.36905606813343117</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>1.9275362318840514</v>
+        <v>0.36905606813343117</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>0.55452865064696311</v>
+        <v>0.72125583368689328</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.44927536231884385</v>
+        <v>0.93683463449255111</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>2027</v>
+        <v>2026.3</v>
       </c>
       <c r="C3">
-        <v>2027</v>
+        <v>2044.35</v>
       </c>
       <c r="D3">
-        <v>1994.15</v>
+        <v>2015</v>
       </c>
       <c r="E3">
-        <v>2012.1</v>
+        <v>2028.4</v>
       </c>
       <c r="F3">
-        <v>-5.4500000000000446</v>
+        <v>20.450000000000049</v>
       </c>
       <c r="G3">
-        <v>-0.27012961264900731</v>
+        <v>1.0184516546726781</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>-0.73507646768624035</v>
+        <v>0.10363717119874336</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>0.73507646768624035</v>
+        <v>0.10363717119874336</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.78633405639912335</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>0.89210277819192985</v>
+        <v>0.55766668311700907</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
+        <v>2000</v>
+      </c>
+      <c r="T3">
         <v>2045</v>
       </c>
-      <c r="T3">
-        <v>2049.5500000000002</v>
-      </c>
       <c r="U3">
-        <v>2009.05</v>
+        <v>2000</v>
       </c>
       <c r="V3">
-        <v>2017.55</v>
+        <v>2007.95</v>
       </c>
       <c r="W3">
-        <v>-13.650000000000089</v>
+        <v>-4.1499999999998636</v>
       </c>
       <c r="X3">
-        <v>-0.6720165419456523</v>
+        <v>-0.20625217434520471</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3422982885085597</v>
+        <v>0.3975000000000023</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>1.3422982885085597</v>
+        <v>0.3975000000000023</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>0.22249388753057125</v>
+        <v>1.845165467267609</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>0.42130306559936559</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="AJ3">
-        <v>2054</v>
+        <v>2027</v>
       </c>
       <c r="AK3">
-        <v>2005</v>
+        <v>1994.15</v>
       </c>
       <c r="AL3">
-        <v>2031.2</v>
+        <v>2012.1</v>
       </c>
       <c r="AM3">
-        <v>-4.75</v>
+        <v>-5.4500000000000446</v>
       </c>
       <c r="AN3">
-        <v>-0.2333063189174587</v>
+        <v>-0.27012961264900731</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>-0.91707317073170513</v>
+        <v>-0.73507646768624035</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>0.91707317073170513</v>
+        <v>0.73507646768624035</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>0.1951219512195122</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>1.2898779046868867</v>
+        <v>0.89210277819192985</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="AU3" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV3" t="str">
         <f t="shared" si="28"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>449.55</v>
+        <v>444.55</v>
       </c>
       <c r="C4">
-        <v>450.6</v>
+        <v>449.3</v>
       </c>
       <c r="D4">
-        <v>440</v>
+        <v>436.05</v>
       </c>
       <c r="E4">
-        <v>446</v>
+        <v>443.35</v>
       </c>
       <c r="F4">
-        <v>-3.5500000000000109</v>
+        <v>0.45000000000004547</v>
       </c>
       <c r="G4">
-        <v>-0.78967856745634779</v>
+        <v>0.1016030706705905</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.78967856745634779</v>
+        <v>-0.26993589022606873</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>0.78967856745634779</v>
+        <v>0.26993589022606873</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>0.23356690023356944</v>
+        <v>1.0684962321448654</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>1.3452914798206279</v>
+        <v>1.6465546408029799</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>441.05</v>
+        <v>440.95</v>
       </c>
       <c r="T4">
-        <v>451.9</v>
+        <v>446.45</v>
       </c>
       <c r="U4">
-        <v>435.9</v>
+        <v>438.5</v>
       </c>
       <c r="V4">
-        <v>449.55</v>
+        <v>442.9</v>
       </c>
       <c r="W4">
-        <v>9</v>
+        <v>-3.1000000000000232</v>
       </c>
       <c r="X4">
-        <v>2.042900919305414</v>
+        <v>-0.69506726457399615</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>1.9272191361523634</v>
+        <v>0.44222700986506153</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>1.9272191361523634</v>
+        <v>0.44222700986506153</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>0.52274496718940411</v>
+        <v>0.80153533529013588</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>1.1676680648452633</v>
+        <v>0.55561855085610357</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>452</v>
+        <v>449.55</v>
       </c>
       <c r="AJ4">
-        <v>455</v>
+        <v>450.6</v>
       </c>
       <c r="AK4">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AL4">
-        <v>440.55</v>
+        <v>446</v>
       </c>
       <c r="AM4">
-        <v>-6.6499999999999773</v>
+        <v>-3.5500000000000109</v>
       </c>
       <c r="AN4">
-        <v>-1.4870304114490109</v>
+        <v>-0.78967856745634779</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>-2.5331858407079624</v>
+        <v>-0.78967856745634779</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>2.5331858407079624</v>
+        <v>0.78967856745634779</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>0.66371681415929207</v>
+        <v>0.23356690023356944</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>0.57882192713653635</v>
+        <v>1.3452914798206279</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>2942.5</v>
+        <v>3023.1</v>
       </c>
       <c r="C5">
-        <v>3049</v>
+        <v>3070</v>
       </c>
       <c r="D5">
-        <v>2937.4</v>
+        <v>2996</v>
       </c>
       <c r="E5">
-        <v>3037.95</v>
+        <v>3050.95</v>
       </c>
       <c r="F5">
-        <v>100.59999999999989</v>
+        <v>31.75</v>
       </c>
       <c r="G5">
-        <v>3.424855737314243</v>
+        <v>1.0516030736618971</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>3.2438402718776489</v>
+        <v>0.9212397869736334</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>3.2438402718776489</v>
+        <v>0.9212397869736334</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>0.36373212199016386</v>
+        <v>0.62439568003409374</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.17332200509770293</v>
+        <v>0.89643081604974717</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>2957.4</v>
+        <v>3015</v>
       </c>
       <c r="T5">
-        <v>2960</v>
+        <v>3029.95</v>
       </c>
       <c r="U5">
-        <v>2921.05</v>
+        <v>2985.25</v>
       </c>
       <c r="V5">
-        <v>2937.35</v>
+        <v>3019.2</v>
       </c>
       <c r="W5">
-        <v>-20.349999999999909</v>
+        <v>-18.75</v>
       </c>
       <c r="X5">
-        <v>-0.68803462149643002</v>
+        <v>-0.6171925146891819</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>-0.67796037059579972</v>
+        <v>0.13930348258705863</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>0.67796037059579972</v>
+        <v>0.13930348258705863</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>8.7915060526134736E-2</v>
+        <v>0.35605458399576045</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>0.55492195346144402</v>
+        <v>0.98673300165837474</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>2922</v>
+        <v>2942.5</v>
       </c>
       <c r="AJ5">
-        <v>2988</v>
+        <v>3049</v>
       </c>
       <c r="AK5">
-        <v>2895</v>
+        <v>2937.4</v>
       </c>
       <c r="AL5">
-        <v>2957.7</v>
+        <v>3037.95</v>
       </c>
       <c r="AM5">
-        <v>41.349999999999909</v>
+        <v>100.59999999999989</v>
       </c>
       <c r="AN5">
-        <v>1.4178682256930719</v>
+        <v>3.424855737314243</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>1.2217659137576939</v>
+        <v>3.2438402718776489</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>1.2217659137576939</v>
+        <v>3.2438402718776489</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>1.024444669844818</v>
+        <v>0.36373212199016386</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>0.92402464065708423</v>
+        <v>0.17332200509770293</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>3517.95</v>
+        <v>3491.4</v>
       </c>
       <c r="C6">
-        <v>3567.4</v>
+        <v>3503.8</v>
       </c>
       <c r="D6">
-        <v>3481.65</v>
+        <v>3429</v>
       </c>
       <c r="E6">
-        <v>3521.5</v>
+        <v>3474.8</v>
       </c>
       <c r="F6">
-        <v>8.0999999999999091</v>
+        <v>2.8500000000003638</v>
       </c>
       <c r="G6">
-        <v>0.23054590994478019</v>
+        <v>8.2086435576559674E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.1009110419420453</v>
+        <v>-0.47545397261843125</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0.1009110419420453</v>
+        <v>0.47545397261843125</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>1.3034218372852504</v>
+        <v>0.35515838918485682</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>1.0318509359143742</v>
+        <v>1.3180614711638132</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>3475</v>
+        <v>3488.8</v>
       </c>
       <c r="T6">
-        <v>3524.2</v>
+        <v>3517</v>
       </c>
       <c r="U6">
-        <v>3455</v>
+        <v>3456.2</v>
       </c>
       <c r="V6">
-        <v>3513.4</v>
+        <v>3471.95</v>
       </c>
       <c r="W6">
-        <v>72.700000000000273</v>
+        <v>-49.550000000000182</v>
       </c>
       <c r="X6">
-        <v>2.112942133868116</v>
+        <v>-1.407070850489853</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>1.1050359712230242</v>
+        <v>-0.48297408851181967</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>1.1050359712230242</v>
+        <v>0.48297408851181967</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>0.307394546593036</v>
+        <v>0.80830084842925409</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>0.57553956834532372</v>
+        <v>0.45363556502829827</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>3557</v>
+        <v>3517.95</v>
       </c>
       <c r="AJ6">
-        <v>3575.05</v>
+        <v>3567.4</v>
       </c>
       <c r="AK6">
-        <v>3420</v>
+        <v>3481.65</v>
       </c>
       <c r="AL6">
-        <v>3440.7</v>
+        <v>3521.5</v>
       </c>
       <c r="AM6">
-        <v>-103.7000000000003</v>
+        <v>8.0999999999999091</v>
       </c>
       <c r="AN6">
-        <v>-2.9257420155738711</v>
+        <v>0.23054590994478019</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>-3.2696092212538703</v>
+        <v>0.1009110419420453</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>3.2696092212538703</v>
+        <v>0.1009110419420453</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>0.50745009839753108</v>
+        <v>1.3034218372852504</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>0.60162176301333503</v>
+        <v>1.0318509359143742</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>6141.6</v>
+        <v>6040.05</v>
       </c>
       <c r="C7">
-        <v>6239.95</v>
+        <v>6060</v>
       </c>
       <c r="D7">
-        <v>6101.15</v>
+        <v>5862.45</v>
       </c>
       <c r="E7">
-        <v>6145.95</v>
+        <v>5888.45</v>
       </c>
       <c r="F7">
-        <v>30.39999999999964</v>
+        <v>-118.5500000000002</v>
       </c>
       <c r="G7">
-        <v>0.49709347483054889</v>
+        <v>-1.9735308806392571</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>7.0828448612730466E-2</v>
+        <v>-2.5099129974089678</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>7.0828448612730466E-2</v>
+        <v>2.5099129974089678</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>1.5294624915594823</v>
+        <v>0.33029527901258793</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>0.65862316008858812</v>
+        <v>0.4415423413631771</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1817,38 +1817,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>6130</v>
+        <v>6118.9</v>
       </c>
       <c r="T7">
-        <v>6159</v>
+        <v>6123.65</v>
       </c>
       <c r="U7">
-        <v>6027.45</v>
+        <v>5990.1</v>
       </c>
       <c r="V7">
-        <v>6115.55</v>
+        <v>6007</v>
       </c>
       <c r="W7">
-        <v>3.4000000000005461</v>
+        <v>-138.94999999999979</v>
       </c>
       <c r="X7">
-        <v>5.5626907062172E-2</v>
+        <v>-2.2608384383211679</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-0.23572593800978495</v>
+        <v>-1.8287600712546315</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>0.23572593800978495</v>
+        <v>1.8287600712546315</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>0.4730831973898858</v>
+        <v>7.7628331889718738E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>1.4405899714661865</v>
+        <v>0.2813384384884241</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>6158</v>
+        <v>6141.6</v>
       </c>
       <c r="AJ7">
-        <v>6194</v>
+        <v>6239.95</v>
       </c>
       <c r="AK7">
-        <v>6091</v>
+        <v>6101.15</v>
       </c>
       <c r="AL7">
-        <v>6112.15</v>
+        <v>6145.95</v>
       </c>
       <c r="AM7">
-        <v>-16.25</v>
+        <v>30.39999999999964</v>
       </c>
       <c r="AN7">
-        <v>-0.26515893218458331</v>
+        <v>0.49709347483054889</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>-0.74455992205262034</v>
+        <v>7.0828448612730466E-2</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>0.74455992205262034</v>
+        <v>7.0828448612730466E-2</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>0.58460539136083145</v>
+        <v>1.5294624915594823</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.34603208363668492</v>
+        <v>0.65862316008858812</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C8">
-        <v>420.5</v>
+        <v>422.9</v>
       </c>
       <c r="D8">
-        <v>411.4</v>
+        <v>409.6</v>
       </c>
       <c r="E8">
-        <v>413.05</v>
+        <v>412.05</v>
       </c>
       <c r="F8">
-        <v>-1.3499999999999659</v>
+        <v>-3.5500000000000109</v>
       </c>
       <c r="G8">
-        <v>-0.3257722007721926</v>
+        <v>-0.85418671799807788</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.4698795180722864</v>
+        <v>-1.8928571428571401</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>0.4698795180722864</v>
+        <v>1.8928571428571401</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>1.3253012048192772</v>
+        <v>0.69047619047618503</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0.39946737683090039</v>
+        <v>0.59458803543259031</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,38 +2000,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>417.5</v>
+        <v>413</v>
       </c>
       <c r="T8">
-        <v>425.5</v>
+        <v>419</v>
       </c>
       <c r="U8">
-        <v>412.45</v>
+        <v>411.55</v>
       </c>
       <c r="V8">
-        <v>414.4</v>
+        <v>415.6</v>
       </c>
       <c r="W8">
-        <v>-2.75</v>
+        <v>2.5500000000000109</v>
       </c>
       <c r="X8">
-        <v>-0.6592352870670023</v>
+        <v>0.61735867328410876</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>-0.74251497005988565</v>
+        <v>0.62953995157385534</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>0.74251497005988565</v>
+        <v>0.62953995157385534</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>1.9161676646706587</v>
+        <v>0.81809432146293959</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>0.47055984555984287</v>
+        <v>0.3510895883777212</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>425.9</v>
+        <v>415</v>
       </c>
       <c r="AJ8">
-        <v>429.5</v>
+        <v>420.5</v>
       </c>
       <c r="AK8">
-        <v>414.15</v>
+        <v>411.4</v>
       </c>
       <c r="AL8">
-        <v>417.15</v>
+        <v>413.05</v>
       </c>
       <c r="AM8">
-        <v>-11.600000000000019</v>
+        <v>-1.3499999999999659</v>
       </c>
       <c r="AN8">
-        <v>-2.7055393586005878</v>
+        <v>-0.3257722007721926</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>-2.0544728809579715</v>
+        <v>-0.4698795180722864</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>2.0544728809579715</v>
+        <v>0.4698795180722864</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>0.84526884245128497</v>
+        <v>1.3253012048192772</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>0.71916576770945706</v>
+        <v>0.39946737683090039</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C9">
-        <v>490.7</v>
+        <v>497.65</v>
       </c>
       <c r="D9">
-        <v>480.55</v>
+        <v>475.3</v>
       </c>
       <c r="E9">
-        <v>481.75</v>
+        <v>494.55</v>
       </c>
       <c r="F9">
-        <v>-3.8000000000000109</v>
+        <v>15.55000000000001</v>
       </c>
       <c r="G9">
-        <v>-0.78261765008753192</v>
+        <v>3.2463465553235928</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0780287474332648</v>
+        <v>2.3913043478260896</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>1.0780287474332648</v>
+        <v>2.3913043478260896</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.75975359342915583</v>
+        <v>0.62683247396622499</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>0.2490918526206515</v>
+        <v>1.5942028985507222</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>475.15</v>
+        <v>480</v>
       </c>
       <c r="T9">
-        <v>487.65</v>
+        <v>482.35</v>
       </c>
       <c r="U9">
-        <v>470.05</v>
+        <v>474</v>
       </c>
       <c r="V9">
-        <v>485.55</v>
+        <v>479</v>
       </c>
       <c r="W9">
-        <v>11.44999999999999</v>
+        <v>-2.75</v>
       </c>
       <c r="X9">
-        <v>2.4151022990930162</v>
+        <v>-0.57083549558899838</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>2.1887824897400892</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>2.1887824897400892</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>0.43249922767994353</v>
+        <v>0.48958333333333803</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>1.0733452593917638</v>
+        <v>1.0438413361169103</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="AJ9">
-        <v>497.25</v>
+        <v>490.7</v>
       </c>
       <c r="AK9">
-        <v>468.3</v>
+        <v>480.55</v>
       </c>
       <c r="AL9">
-        <v>474.1</v>
+        <v>481.75</v>
       </c>
       <c r="AM9">
-        <v>-17.549999999999951</v>
+        <v>-3.8000000000000109</v>
       </c>
       <c r="AN9">
-        <v>-3.5696125292382699</v>
+        <v>-0.78261765008753192</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>-4.4153225806451566</v>
+        <v>-1.0780287474332648</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>4.4153225806451566</v>
+        <v>1.0780287474332648</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>0.25201612903225806</v>
+        <v>0.75975359342915583</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>1.2233705969204831</v>
+        <v>0.2490918526206515</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="AU9" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV9" t="str">
         <f t="shared" si="28"/>
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>202.7</v>
+        <v>198</v>
       </c>
       <c r="C10">
-        <v>204.45</v>
+        <v>200.75</v>
       </c>
       <c r="D10">
-        <v>199</v>
+        <v>195.3</v>
       </c>
       <c r="E10">
-        <v>200.15</v>
+        <v>199.35</v>
       </c>
       <c r="F10">
-        <v>-2.3499999999999939</v>
+        <v>2.9499999999999891</v>
       </c>
       <c r="G10">
-        <v>-1.160493827160491</v>
+        <v>1.502036659877795</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2580167735569725</v>
+        <v>0.68181818181817888</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>1.2580167735569725</v>
+        <v>0.68181818181817888</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>0.86334484459792793</v>
+        <v>0.70228241785804146</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>0.57456907319510653</v>
+        <v>1.3636363636363578</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2366,42 +2366,42 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>204.75</v>
+        <v>200.2</v>
       </c>
       <c r="T10">
-        <v>204.75</v>
+        <v>201</v>
       </c>
       <c r="U10">
-        <v>200.35</v>
+        <v>195.55</v>
       </c>
       <c r="V10">
-        <v>202.5</v>
+        <v>196.4</v>
       </c>
       <c r="W10">
-        <v>-9.9999999999994316E-2</v>
+        <v>-3.75</v>
       </c>
       <c r="X10">
-        <v>-4.9358341559720791E-2</v>
+        <v>-1.8735948038970771</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>-1.098901098901099</v>
+        <v>-1.8981018981018898</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>1.098901098901099</v>
+        <v>1.8981018981018898</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.39960039960040533</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>1.0617283950617313</v>
+        <v>0.4327902240325836</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AD10" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>204.95</v>
+        <v>202.7</v>
       </c>
       <c r="AJ10">
-        <v>206.1</v>
+        <v>204.45</v>
       </c>
       <c r="AK10">
-        <v>199.35</v>
+        <v>199</v>
       </c>
       <c r="AL10">
-        <v>202.6</v>
+        <v>200.15</v>
       </c>
       <c r="AM10">
-        <v>0.75</v>
+        <v>-2.3499999999999939</v>
       </c>
       <c r="AN10">
-        <v>0.37156304186276939</v>
+        <v>-1.160493827160491</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>-1.1466211271041689</v>
+        <v>-1.2580167735569725</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>1.1466211271041689</v>
+        <v>1.2580167735569725</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>0.56111246645523583</v>
+        <v>0.86334484459792793</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>1.6041461006910167</v>
+        <v>0.57456907319510653</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="AX10" t="str">
         <f t="shared" si="30"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>3742</v>
+        <v>3837.7</v>
       </c>
       <c r="C11">
-        <v>3860</v>
+        <v>3839.75</v>
       </c>
       <c r="D11">
-        <v>3737.15</v>
+        <v>3774.85</v>
       </c>
       <c r="E11">
-        <v>3844.5</v>
+        <v>3797.5</v>
       </c>
       <c r="F11">
-        <v>110.40000000000011</v>
+        <v>-18.150000000000091</v>
       </c>
       <c r="G11">
-        <v>2.9565357114164081</v>
+        <v>-0.47567255906595451</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>2.7391769107429185</v>
+        <v>-1.0475024102978299</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>2.7391769107429185</v>
+        <v>1.0475024102978299</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0.40317336454675512</v>
+        <v>5.3417411470416704E-2</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0.12960983431319906</v>
+        <v>0.59644502962475554</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>3720.05</v>
+        <v>3848</v>
       </c>
       <c r="T11">
-        <v>3766.5</v>
+        <v>3890.95</v>
       </c>
       <c r="U11">
-        <v>3715</v>
+        <v>3768.75</v>
       </c>
       <c r="V11">
-        <v>3734.1</v>
+        <v>3815.65</v>
       </c>
       <c r="W11">
-        <v>14.599999999999911</v>
+        <v>-28.849999999999909</v>
       </c>
       <c r="X11">
-        <v>0.39252587713402098</v>
+        <v>-0.75042268175315152</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>0.37768309565730906</v>
+        <v>-0.84069646569646328</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>0.37768309565730906</v>
+        <v>0.84069646569646328</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>0.86767895878525192</v>
+        <v>1.1161642411642363</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>0.13575086356366667</v>
+        <v>1.22914837576822</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>3788.9</v>
+        <v>3742</v>
       </c>
       <c r="AJ11">
-        <v>3796</v>
+        <v>3860</v>
       </c>
       <c r="AK11">
-        <v>3711</v>
+        <v>3737.15</v>
       </c>
       <c r="AL11">
-        <v>3719.5</v>
+        <v>3844.5</v>
       </c>
       <c r="AM11">
-        <v>-52.75</v>
+        <v>110.40000000000011</v>
       </c>
       <c r="AN11">
-        <v>-1.39836967327192</v>
+        <v>2.9565357114164081</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>-1.8316661827971203</v>
+        <v>2.7391769107429185</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>1.8316661827971203</v>
+        <v>2.7391769107429185</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>0.18738947979624454</v>
+        <v>0.40317336454675512</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>0.22852533942734238</v>
+        <v>0.12960983431319906</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>743.95</v>
+        <v>780</v>
       </c>
       <c r="C12">
-        <v>756.5</v>
+        <v>819.3</v>
       </c>
       <c r="D12">
-        <v>732</v>
+        <v>776.15</v>
       </c>
       <c r="E12">
-        <v>752.6</v>
+        <v>806.25</v>
       </c>
       <c r="F12">
-        <v>10.149999999999981</v>
+        <v>54.75</v>
       </c>
       <c r="G12">
-        <v>1.367095427301499</v>
+        <v>7.2854291417165662</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>1.1627125478862794</v>
+        <v>3.3653846153846154</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>1.1627125478862794</v>
+        <v>3.3653846153846154</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>0.5182035609885699</v>
+        <v>1.618604651162785</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>1.6062907453457953</v>
+        <v>0.49358974358974644</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="T12">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="U12">
-        <v>722.65</v>
+        <v>746.7</v>
       </c>
       <c r="V12">
-        <v>742.45</v>
+        <v>751.5</v>
       </c>
       <c r="W12">
-        <v>20.850000000000019</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="X12">
-        <v>2.8894124168514441</v>
+        <v>-0.14615997874036971</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>2.6901798063623854</v>
+        <v>6.6577896138482029E-2</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>2.6901798063623854</v>
+        <v>6.6577896138482029E-2</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>1.5556603138258407</v>
+        <v>1.3972055888223553</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>4.840940525588143E-2</v>
+        <v>0.57256990679093933</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>729</v>
+        <v>743.95</v>
       </c>
       <c r="AJ12">
-        <v>730.25</v>
+        <v>756.5</v>
       </c>
       <c r="AK12">
-        <v>717.75</v>
+        <v>732</v>
       </c>
       <c r="AL12">
-        <v>721.6</v>
+        <v>752.6</v>
       </c>
       <c r="AM12">
-        <v>-4.3500000000000227</v>
+        <v>10.149999999999981</v>
       </c>
       <c r="AN12">
-        <v>-0.59921482195743825</v>
+        <v>1.367095427301499</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>-1.0150891632373082</v>
+        <v>1.1627125478862794</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>1.0150891632373082</v>
+        <v>1.1627125478862794</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>0.17146776406035666</v>
+        <v>0.5182035609885699</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>0.5335365853658568</v>
+        <v>1.6062907453457953</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,30 +2853,30 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>124.6</v>
+        <v>125.25</v>
       </c>
       <c r="C13">
-        <v>124.6</v>
+        <v>125.25</v>
       </c>
       <c r="D13">
-        <v>123.1</v>
+        <v>122.9</v>
       </c>
       <c r="E13">
-        <v>123.85</v>
+        <v>123.65</v>
       </c>
       <c r="F13">
-        <v>-0.25</v>
+        <v>-0.64999999999999147</v>
       </c>
       <c r="G13">
-        <v>-0.20145044319097499</v>
+        <v>-0.52292839903458688</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.60192616372391661</v>
+        <v>-1.2774451097804345</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>0.60192616372391661</v>
+        <v>1.2774451097804345</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.60557125555106983</v>
+        <v>0.60655074807925602</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>125.65</v>
+        <v>123.85</v>
       </c>
       <c r="T13">
-        <v>125.75</v>
+        <v>125.9</v>
       </c>
       <c r="U13">
-        <v>123.8</v>
+        <v>123.55</v>
       </c>
       <c r="V13">
-        <v>124.1</v>
+        <v>124.3</v>
       </c>
       <c r="W13">
-        <v>-0.85000000000000853</v>
+        <v>0.45000000000000279</v>
       </c>
       <c r="X13">
-        <v>-0.68027210884354428</v>
+        <v>0.36334275333064431</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>-1.2335853561480392</v>
+        <v>0.36334275333064425</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>1.2335853561480392</v>
+        <v>0.36334275333064425</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>7.9586152009545816E-2</v>
+        <v>1.2872083668543914</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.24174053182916774</v>
+        <v>0.24222850222042563</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>126</v>
+        <v>124.6</v>
       </c>
       <c r="AJ13">
-        <v>126.85</v>
+        <v>124.6</v>
       </c>
       <c r="AK13">
-        <v>124.1</v>
+        <v>123.1</v>
       </c>
       <c r="AL13">
-        <v>124.95</v>
+        <v>123.85</v>
       </c>
       <c r="AM13">
-        <v>-0.1499999999999915</v>
+        <v>-0.25</v>
       </c>
       <c r="AN13">
-        <v>-0.1199040767386023</v>
+        <v>-0.20145044319097499</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>-0.83333333333333104</v>
+        <v>-0.60192616372391661</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>0.83333333333333104</v>
+        <v>0.60192616372391661</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>0.6746031746031701</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.68027210884354428</v>
+        <v>0.60557125555106983</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>4455</v>
+        <v>5000</v>
       </c>
       <c r="C14">
-        <v>4650.8</v>
+        <v>5496.95</v>
       </c>
       <c r="D14">
-        <v>4411</v>
+        <v>4950.25</v>
       </c>
       <c r="E14">
-        <v>4627.8999999999996</v>
+        <v>5333.35</v>
       </c>
       <c r="F14">
-        <v>185.5499999999993</v>
+        <v>506.10000000000042</v>
       </c>
       <c r="G14">
-        <v>4.1768433374227438</v>
+        <v>10.48423015174272</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>3.8810325476992062</v>
+        <v>6.6670000000000078</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>3.8810325476992062</v>
+        <v>6.6670000000000078</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>0.49482486657016245</v>
+        <v>3.0674904140924455</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.98765432098765427</v>
+        <v>0.99500000000000011</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>4374.95</v>
+        <v>4704</v>
       </c>
       <c r="T14">
-        <v>4549</v>
+        <v>4845.55</v>
       </c>
       <c r="U14">
-        <v>4372.55</v>
+        <v>4654.95</v>
       </c>
       <c r="V14">
-        <v>4442.3500000000004</v>
+        <v>4827.25</v>
       </c>
       <c r="W14">
-        <v>78.25</v>
+        <v>199.35000000000039</v>
       </c>
       <c r="X14">
-        <v>1.793038656309434</v>
+        <v>4.3075693078934369</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>1.5405890353032732</v>
+        <v>2.6201105442176869</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>1.5405890353032732</v>
+        <v>2.6201105442176869</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>2.4007563564329608</v>
+        <v>0.37909783002745212</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>5.4857769803075156E-2</v>
+        <v>1.0427295918367385</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>4423.6499999999996</v>
+        <v>4455</v>
       </c>
       <c r="AJ14">
-        <v>4423.6499999999996</v>
+        <v>4650.8</v>
       </c>
       <c r="AK14">
-        <v>4336</v>
+        <v>4411</v>
       </c>
       <c r="AL14">
-        <v>4364.1000000000004</v>
+        <v>4627.8999999999996</v>
       </c>
       <c r="AM14">
-        <v>-37.5</v>
+        <v>185.5499999999993</v>
       </c>
       <c r="AN14">
-        <v>-0.8519629225736095</v>
+        <v>4.1768433374227438</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>-1.346173408836578</v>
+        <v>3.8810325476992062</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>1.346173408836578</v>
+        <v>3.8810325476992062</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.49482486657016245</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0.64388992002933854</v>
+        <v>0.98765432098765427</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="C15">
-        <v>2187.85</v>
+        <v>2203.8000000000002</v>
       </c>
       <c r="D15">
-        <v>2145</v>
+        <v>2135.1999999999998</v>
       </c>
       <c r="E15">
-        <v>2163.75</v>
+        <v>2152.9499999999998</v>
       </c>
       <c r="F15">
-        <v>23.150000000000091</v>
+        <v>7.5</v>
       </c>
       <c r="G15">
-        <v>1.0814724843501871</v>
+        <v>0.349577011815703</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0.40603248259860786</v>
+        <v>-0.32638888888889733</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>0.40603248259860786</v>
+        <v>0.32638888888889733</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>1.1138070479491582</v>
+        <v>2.0277777777777861</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>0.46403712296983757</v>
+        <v>0.82445017301841661</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>2159.4</v>
+        <v>2146</v>
       </c>
       <c r="T15">
-        <v>2170.3000000000002</v>
+        <v>2161.9499999999998</v>
       </c>
       <c r="U15">
-        <v>2120</v>
+        <v>2125</v>
       </c>
       <c r="V15">
-        <v>2140.6</v>
+        <v>2145.4499999999998</v>
       </c>
       <c r="W15">
-        <v>-18.800000000000178</v>
+        <v>-18.300000000000178</v>
       </c>
       <c r="X15">
-        <v>-0.87061220709457166</v>
+        <v>-0.84575389948007773</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>-0.87061220709457166</v>
+        <v>-2.5629077353223763E-2</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>0.87061220709457166</v>
+        <v>2.5629077353223763E-2</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>0.50476984347504361</v>
+        <v>0.74324324324323476</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.96234700551246899</v>
+        <v>0.95317998555080852</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="AJ15">
-        <v>2198</v>
+        <v>2187.85</v>
       </c>
       <c r="AK15">
-        <v>2148.3000000000002</v>
+        <v>2145</v>
       </c>
       <c r="AL15">
-        <v>2159.4</v>
+        <v>2163.75</v>
       </c>
       <c r="AM15">
-        <v>-0.90000000000009095</v>
+        <v>23.150000000000091</v>
       </c>
       <c r="AN15">
-        <v>-4.1660880433277363E-2</v>
+        <v>1.0814724843501871</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>-0.25866050808313668</v>
+        <v>0.40603248259860786</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>0.25866050808313668</v>
+        <v>0.40603248259860786</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>1.5242494226327945</v>
+        <v>1.1138070479491582</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>0.51403167546540285</v>
+        <v>0.46403712296983757</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>92.75</v>
+        <v>91</v>
       </c>
       <c r="C16">
-        <v>92.75</v>
+        <v>93.45</v>
       </c>
       <c r="D16">
-        <v>91.35</v>
+        <v>90.8</v>
       </c>
       <c r="E16">
-        <v>91.85</v>
+        <v>92.1</v>
       </c>
       <c r="F16">
-        <v>-0.25</v>
+        <v>1.3499999999999941</v>
       </c>
       <c r="G16">
-        <v>-0.2714440825190011</v>
+        <v>1.4876033057851179</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.9703504043126745</v>
+        <v>1.2087912087912025</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>0.9703504043126745</v>
+        <v>1.2087912087912025</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4657980456026152</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>0.54436581382689164</v>
+        <v>0.21978021978022291</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>92</v>
+        <v>91.85</v>
       </c>
       <c r="T16">
-        <v>92.75</v>
+        <v>91.85</v>
       </c>
       <c r="U16">
-        <v>91.1</v>
+        <v>90.5</v>
       </c>
       <c r="V16">
-        <v>92.1</v>
+        <v>90.75</v>
       </c>
       <c r="W16">
-        <v>0.1499999999999915</v>
+        <v>-1.0999999999999941</v>
       </c>
       <c r="X16">
-        <v>0.16313213703098581</v>
+        <v>-1.197604790419156</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>0.10869565217390686</v>
+        <v>-1.1976047904191556</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>0.10869565217390686</v>
+        <v>1.1976047904191556</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>0.70575461454940902</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>0.97826086956522351</v>
+        <v>0.27548209366391185</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>91.9</v>
+        <v>92.75</v>
       </c>
       <c r="AJ16">
-        <v>93.65</v>
+        <v>92.75</v>
       </c>
       <c r="AK16">
-        <v>90.8</v>
+        <v>91.35</v>
       </c>
       <c r="AL16">
-        <v>91.95</v>
+        <v>91.85</v>
       </c>
       <c r="AM16">
-        <v>1.2000000000000031</v>
+        <v>-0.25</v>
       </c>
       <c r="AN16">
-        <v>1.32231404958678</v>
+        <v>-0.2714440825190011</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>5.4406964091400598E-2</v>
+        <v>-0.9703504043126745</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>5.4406964091400598E-2</v>
+        <v>0.9703504043126745</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>1.8488308863512808</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>1.1969532100108906</v>
+        <v>0.54436581382689164</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>722.95</v>
+        <v>727.95</v>
       </c>
       <c r="C17">
-        <v>737.2</v>
+        <v>748.65</v>
       </c>
       <c r="D17">
-        <v>714.1</v>
+        <v>724.65</v>
       </c>
       <c r="E17">
-        <v>720.4</v>
+        <v>745</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>20.299999999999951</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.8011591003173661</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>-0.35272148834636807</v>
+        <v>2.3421938319939493</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0.35272148834636807</v>
+        <v>2.3421938319939493</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>1.971090670170828</v>
+        <v>0.48993288590603717</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>0.87451415880065997</v>
+        <v>0.45332783845045238</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>711.6</v>
+        <v>720.4</v>
       </c>
       <c r="T17">
-        <v>723.5</v>
+        <v>738.75</v>
       </c>
       <c r="U17">
-        <v>709.8</v>
+        <v>716.55</v>
       </c>
       <c r="V17">
-        <v>720.4</v>
+        <v>724.7</v>
       </c>
       <c r="W17">
-        <v>13.399999999999981</v>
+        <v>4.3000000000000682</v>
       </c>
       <c r="X17">
-        <v>1.8953323903818919</v>
+        <v>0.59689061632427376</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>1.2366498032602522</v>
+        <v>0.59689061632427376</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>1.2366498032602522</v>
+        <v>0.59689061632427376</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>0.43031649083842627</v>
+        <v>1.9387332689388648</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>0.25295109612142608</v>
+        <v>0.53442531926707704</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>721</v>
+        <v>722.95</v>
       </c>
       <c r="AJ17">
-        <v>735.95</v>
+        <v>737.2</v>
       </c>
       <c r="AK17">
-        <v>703</v>
+        <v>714.1</v>
       </c>
       <c r="AL17">
-        <v>707</v>
+        <v>720.4</v>
       </c>
       <c r="AM17">
-        <v>-13.950000000000051</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>-1.9349469450031269</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>-1.9417475728155338</v>
+        <v>-0.35272148834636807</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>1.9417475728155338</v>
+        <v>0.35272148834636807</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>2.0735090152565943</v>
+        <v>1.971090670170828</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>0.56577086280056577</v>
+        <v>0.87451415880065997</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>790.05</v>
+        <v>808.3</v>
       </c>
       <c r="C18">
-        <v>796.3</v>
+        <v>824</v>
       </c>
       <c r="D18">
-        <v>779.25</v>
+        <v>804</v>
       </c>
       <c r="E18">
-        <v>789.25</v>
+        <v>810.6</v>
       </c>
       <c r="F18">
-        <v>-3.450000000000045</v>
+        <v>2.3000000000000682</v>
       </c>
       <c r="G18">
-        <v>-0.43522139523149311</v>
+        <v>0.28454781640480858</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10125941396113596</v>
+        <v>0.28454781640480864</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>0.10125941396113596</v>
+        <v>0.28454781640480864</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0.79108917157141956</v>
+        <v>1.6530964717493184</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>1.2670256572695597</v>
+        <v>0.53198070023505561</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>791.05</v>
+        <v>794.95</v>
       </c>
       <c r="T18">
-        <v>809.85</v>
+        <v>817.5</v>
       </c>
       <c r="U18">
-        <v>783.05</v>
+        <v>789.5</v>
       </c>
       <c r="V18">
-        <v>792.7</v>
+        <v>808.3</v>
       </c>
       <c r="W18">
-        <v>-2.25</v>
+        <v>19.049999999999951</v>
       </c>
       <c r="X18">
-        <v>-0.28303666897289143</v>
+        <v>2.4136838770985061</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>0.20858352822199494</v>
+        <v>1.6793509025724775</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>0.20858352822199494</v>
+        <v>1.6793509025724775</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>2.1634918632521734</v>
+        <v>1.1381912656192066</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>1.0113140762277986</v>
+        <v>0.68557770928989814</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>745</v>
+        <v>790.05</v>
       </c>
       <c r="AJ18">
-        <v>825.1</v>
+        <v>796.3</v>
       </c>
       <c r="AK18">
-        <v>744.15</v>
+        <v>779.25</v>
       </c>
       <c r="AL18">
-        <v>794.95</v>
+        <v>789.25</v>
       </c>
       <c r="AM18">
-        <v>73.300000000000068</v>
+        <v>-3.450000000000045</v>
       </c>
       <c r="AN18">
-        <v>10.15727845908682</v>
+        <v>-0.43522139523149311</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>6.7046979865771874</v>
+        <v>-0.10125941396113596</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>6.7046979865771874</v>
+        <v>0.10125941396113596</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>3.7926913642367417</v>
+        <v>0.79108917157141956</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>0.11409395973154668</v>
+        <v>1.2670256572695597</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>1070.2</v>
+        <v>1092</v>
       </c>
       <c r="C19">
-        <v>1096</v>
+        <v>1092.2</v>
       </c>
       <c r="D19">
-        <v>1068.3499999999999</v>
+        <v>1047.2</v>
       </c>
       <c r="E19">
-        <v>1093.6500000000001</v>
+        <v>1057.3</v>
       </c>
       <c r="F19">
-        <v>23.150000000000091</v>
+        <v>-26.299999999999951</v>
       </c>
       <c r="G19">
-        <v>2.1625408687529282</v>
+        <v>-2.4270948689553302</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>2.1911792188376045</v>
+        <v>-3.1776556776556815</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>2.1911792188376045</v>
+        <v>3.1776556776556815</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>0.21487678873496172</v>
+        <v>1.8315018315022479E-2</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0.17286488506822428</v>
+        <v>0.95526340679087385</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>1068</v>
+        <v>1084</v>
       </c>
       <c r="T19">
-        <v>1076.1500000000001</v>
+        <v>1094</v>
       </c>
       <c r="U19">
-        <v>1058.0999999999999</v>
+        <v>1078</v>
       </c>
       <c r="V19">
-        <v>1070.5</v>
+        <v>1083.5999999999999</v>
       </c>
       <c r="W19">
-        <v>12.549999999999949</v>
+        <v>-10.05000000000018</v>
       </c>
       <c r="X19">
-        <v>1.1862564393402291</v>
+        <v>-0.91894116033467577</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>0.23408239700374533</v>
+        <v>-3.6900369003698426E-2</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>0.23408239700374533</v>
+        <v>3.6900369003698426E-2</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>0.5277907519850622</v>
+        <v>0.92250922509225086</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>0.92696629213484005</v>
+        <v>0.51679586563306656</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>1088</v>
+        <v>1070.2</v>
       </c>
       <c r="AJ19">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="AK19">
-        <v>1052.3499999999999</v>
+        <v>1068.3499999999999</v>
       </c>
       <c r="AL19">
-        <v>1057.95</v>
+        <v>1093.6500000000001</v>
       </c>
       <c r="AM19">
-        <v>-20.700000000000049</v>
+        <v>23.150000000000091</v>
       </c>
       <c r="AN19">
-        <v>-1.919065498539845</v>
+        <v>2.1625408687529282</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>-2.7619485294117605</v>
+        <v>2.1911792188376045</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>2.7619485294117605</v>
+        <v>2.1911792188376045</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>0.55147058823529416</v>
+        <v>0.21487678873496172</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.52932558249445971</v>
+        <v>0.17286488506822428</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4134,38 +4134,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>3033</v>
+        <v>3080</v>
       </c>
       <c r="C20">
-        <v>3105</v>
+        <v>3121.85</v>
       </c>
       <c r="D20">
-        <v>3024.65</v>
+        <v>3075.1</v>
       </c>
       <c r="E20">
-        <v>3056.2</v>
+        <v>3112.65</v>
       </c>
       <c r="F20">
-        <v>19.049999999999731</v>
+        <v>51.650000000000091</v>
       </c>
       <c r="G20">
-        <v>0.62723276756168533</v>
+        <v>1.687357072852012</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0.76491922189250972</v>
+        <v>1.060064935064938</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>0.76491922189250972</v>
+        <v>1.060064935064938</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>1.5967541391270264</v>
+        <v>0.2955680850721995</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>0.27530497856907055</v>
+        <v>0.15909090909091206</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>3028.5</v>
+        <v>3042.8</v>
       </c>
       <c r="T20">
-        <v>3051.7</v>
+        <v>3098</v>
       </c>
       <c r="U20">
-        <v>3005.05</v>
+        <v>3030.05</v>
       </c>
       <c r="V20">
-        <v>3037.15</v>
+        <v>3061</v>
       </c>
       <c r="W20">
-        <v>8.6500000000000909</v>
+        <v>4.8000000000001819</v>
       </c>
       <c r="X20">
-        <v>0.28561994386660372</v>
+        <v>0.15705778417643421</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>0.28561994386660366</v>
+        <v>0.59813329827789596</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>0.28561994386660366</v>
+        <v>0.59813329827789596</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>0.4790675468778206</v>
+        <v>1.2087553087226397</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>0.77431071487534475</v>
+        <v>0.41902195346391485</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>3014.95</v>
+        <v>3033</v>
       </c>
       <c r="AJ20">
-        <v>3039</v>
+        <v>3105</v>
       </c>
       <c r="AK20">
-        <v>2956</v>
+        <v>3024.65</v>
       </c>
       <c r="AL20">
-        <v>3028.5</v>
+        <v>3056.2</v>
       </c>
       <c r="AM20">
-        <v>36.25</v>
+        <v>19.049999999999731</v>
       </c>
       <c r="AN20">
-        <v>1.2114629459436881</v>
+        <v>0.62723276756168533</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>0.44942702200700452</v>
+        <v>0.76491922189250972</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>0.44942702200700452</v>
+        <v>0.76491922189250972</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>0.34670629024269439</v>
+        <v>1.5967541391270264</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>1.9552563060747219</v>
+        <v>0.27530497856907055</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>177.1</v>
+        <v>177.45</v>
       </c>
       <c r="C21">
-        <v>184.6</v>
+        <v>182.2</v>
       </c>
       <c r="D21">
-        <v>175.45</v>
+        <v>176.55</v>
       </c>
       <c r="E21">
-        <v>183.8</v>
+        <v>179.5</v>
       </c>
       <c r="F21">
-        <v>7.0500000000000114</v>
+        <v>3.6500000000000061</v>
       </c>
       <c r="G21">
-        <v>3.988684582743995</v>
+        <v>2.07563264145579</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>3.7831733483907497</v>
+        <v>1.1552550014088541</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>3.7831733483907497</v>
+        <v>1.1552550014088541</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>0.43525571273122032</v>
+        <v>1.5041782729804951</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>0.93167701863354369</v>
+        <v>0.50718512256972514</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,42 +4379,42 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>177.4</v>
+        <v>182.7</v>
       </c>
       <c r="T21">
-        <v>179.35</v>
+        <v>182.7</v>
       </c>
       <c r="U21">
-        <v>174.5</v>
+        <v>175.35</v>
       </c>
       <c r="V21">
-        <v>176.75</v>
+        <v>175.85</v>
       </c>
       <c r="W21">
-        <v>0.94999999999998863</v>
+        <v>-7.9500000000000171</v>
       </c>
       <c r="X21">
-        <v>0.54038680318543153</v>
+        <v>-4.3253536452666026</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>-0.36640360766629404</v>
+        <v>-3.7493158182813326</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>0.36640360766629404</v>
+        <v>3.7493158182813326</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>1.0992108229988662</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>1.272984441301273</v>
+        <v>0.28433323855558718</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AD21" s="1" t="str">
         <f t="shared" si="16"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>179</v>
+        <v>177.1</v>
       </c>
       <c r="AJ21">
-        <v>180.5</v>
+        <v>184.6</v>
       </c>
       <c r="AK21">
-        <v>174.6</v>
+        <v>175.45</v>
       </c>
       <c r="AL21">
-        <v>175.8</v>
+        <v>183.8</v>
       </c>
       <c r="AM21">
-        <v>-2.8499999999999939</v>
+        <v>7.0500000000000114</v>
       </c>
       <c r="AN21">
-        <v>-1.5952980688497029</v>
+        <v>3.988684582743995</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>-1.7877094972066976</v>
+        <v>3.7831733483907497</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>1.7877094972066976</v>
+        <v>3.7831733483907497</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>0.83798882681564246</v>
+        <v>0.43525571273122032</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>0.6825938566552997</v>
+        <v>0.93167701863354369</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="C22">
-        <v>2158.9499999999998</v>
+        <v>2127.5500000000002</v>
       </c>
       <c r="D22">
-        <v>2112.6999999999998</v>
+        <v>2090</v>
       </c>
       <c r="E22">
-        <v>2143.5</v>
+        <v>2098.6999999999998</v>
       </c>
       <c r="F22">
-        <v>19.050000000000178</v>
+        <v>-29.5</v>
       </c>
       <c r="G22">
-        <v>0.89670267598673459</v>
+        <v>-1.3861479184287191</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.87058823529411766</v>
+        <v>-1.004716981132084</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0.87058823529411766</v>
+        <v>1.004716981132084</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>0.72078376487053042</v>
+        <v>0.35613207547170667</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.57882352941177329</v>
+        <v>0.41454233573163479</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>2136.9</v>
+        <v>2135</v>
       </c>
       <c r="T22">
-        <v>2137</v>
+        <v>2145.0500000000002</v>
       </c>
       <c r="U22">
-        <v>2109</v>
+        <v>2122.25</v>
       </c>
       <c r="V22">
-        <v>2124.4499999999998</v>
+        <v>2128.1999999999998</v>
       </c>
       <c r="W22">
-        <v>0.9499999999998181</v>
+        <v>-15.30000000000018</v>
       </c>
       <c r="X22">
-        <v>4.4737461737688632E-2</v>
+        <v>-0.71378586424073631</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>-0.5826196827179686</v>
+        <v>-0.31850117096019587</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>0.5826196827179686</v>
+        <v>0.31850117096019587</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>4.6796761664050284E-3</v>
+        <v>0.47072599531616771</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>0.7272470521782024</v>
+        <v>0.27957898693730937</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>2167</v>
+        <v>2125</v>
       </c>
       <c r="AJ22">
-        <v>2169.6999999999998</v>
+        <v>2158.9499999999998</v>
       </c>
       <c r="AK22">
-        <v>2115</v>
+        <v>2112.6999999999998</v>
       </c>
       <c r="AL22">
-        <v>2123.5</v>
+        <v>2143.5</v>
       </c>
       <c r="AM22">
-        <v>-35.75</v>
+        <v>19.050000000000178</v>
       </c>
       <c r="AN22">
-        <v>-1.655667477133264</v>
+        <v>0.89670267598673459</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>-2.0073834794646981</v>
+        <v>0.87058823529411766</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>2.0073834794646981</v>
+        <v>0.87058823529411766</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>0.12459621596676596</v>
+        <v>0.72078376487053042</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0.40028255238992233</v>
+        <v>0.57882352941177329</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>1766</v>
+        <v>1752.9</v>
       </c>
       <c r="C23">
-        <v>1774.7</v>
+        <v>1754.75</v>
       </c>
       <c r="D23">
-        <v>1743.45</v>
+        <v>1708.3</v>
       </c>
       <c r="E23">
-        <v>1768.15</v>
+        <v>1724</v>
       </c>
       <c r="F23">
-        <v>9.4000000000000909</v>
+        <v>-20.349999999999909</v>
       </c>
       <c r="G23">
-        <v>0.53447050461976353</v>
+        <v>-1.166623670708282</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0.12174405436014106</v>
+        <v>-1.6486964458896736</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0.12174405436014106</v>
+        <v>1.6486964458896736</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>0.37044368407657463</v>
+        <v>0.10553939186490439</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>1.2768969422423531</v>
+        <v>0.91067285382830898</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>1754.9</v>
+        <v>1750</v>
       </c>
       <c r="T23">
-        <v>1777</v>
+        <v>1773.2</v>
       </c>
       <c r="U23">
-        <v>1742.8</v>
+        <v>1736.5</v>
       </c>
       <c r="V23">
-        <v>1758.75</v>
+        <v>1744.35</v>
       </c>
       <c r="W23">
-        <v>20.75</v>
+        <v>-23.800000000000178</v>
       </c>
       <c r="X23">
-        <v>1.1939010356731881</v>
+        <v>-1.34603964595765</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>0.21938571998403947</v>
+        <v>-0.32285714285714806</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>0.21938571998403947</v>
+        <v>0.32285714285714806</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>1.0376687988628288</v>
+        <v>1.3257142857142883</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.68949797709271965</v>
+        <v>0.45002436437641014</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>1781</v>
+        <v>1766</v>
       </c>
       <c r="AJ23">
-        <v>1796.85</v>
+        <v>1774.7</v>
       </c>
       <c r="AK23">
-        <v>1728.4</v>
+        <v>1743.45</v>
       </c>
       <c r="AL23">
-        <v>1738</v>
+        <v>1768.15</v>
       </c>
       <c r="AM23">
-        <v>-30.150000000000091</v>
+        <v>9.4000000000000909</v>
       </c>
       <c r="AN23">
-        <v>-1.705172072505166</v>
+        <v>0.53447050461976353</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>-2.4143739472206627</v>
+        <v>0.12174405436014106</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>2.4143739472206627</v>
+        <v>0.12174405436014106</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>0.8899494665917973</v>
+        <v>0.37044368407657463</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>0.55235903337168635</v>
+        <v>1.2768969422423531</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>371.35</v>
+        <v>370</v>
       </c>
       <c r="C24">
-        <v>376.7</v>
+        <v>374.65</v>
       </c>
       <c r="D24">
-        <v>365</v>
+        <v>364.55</v>
       </c>
       <c r="E24">
-        <v>374.7</v>
+        <v>369.55</v>
       </c>
       <c r="F24">
-        <v>3.1499999999999768</v>
+        <v>0.55000000000001137</v>
       </c>
       <c r="G24">
-        <v>0.84779975777149164</v>
+        <v>0.14905149051490821</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0.90211390871144903</v>
+        <v>-0.12162162162161856</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0.90211390871144903</v>
+        <v>0.12162162162161856</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>0.53376034160661867</v>
+        <v>1.2567567567567506</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>1.7099771105426209</v>
+        <v>1.3529968881071572</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>364.05</v>
+        <v>370</v>
       </c>
       <c r="T24">
-        <v>372.25</v>
+        <v>371.75</v>
       </c>
       <c r="U24">
-        <v>363.7</v>
+        <v>367.4</v>
       </c>
       <c r="V24">
-        <v>371.55</v>
+        <v>369</v>
       </c>
       <c r="W24">
-        <v>7.8500000000000227</v>
+        <v>-5.6999999999999886</v>
       </c>
       <c r="X24">
-        <v>2.1583722848501581</v>
+        <v>-1.5212169735788601</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>2.0601565718994643</v>
+        <v>-0.27027027027027029</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>2.0601565718994643</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>0.18839994617144087</v>
+        <v>0.47297297297297303</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>9.6140640021981236E-2</v>
+        <v>0.43360433604336657</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>373.5</v>
+        <v>371.35</v>
       </c>
       <c r="AJ24">
-        <v>373.85</v>
+        <v>376.7</v>
       </c>
       <c r="AK24">
-        <v>359.35</v>
+        <v>365</v>
       </c>
       <c r="AL24">
-        <v>363.7</v>
+        <v>374.7</v>
       </c>
       <c r="AM24">
-        <v>-6.8000000000000114</v>
+        <v>3.1499999999999768</v>
       </c>
       <c r="AN24">
-        <v>-1.8353576248313119</v>
+        <v>0.84779975777149164</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>-2.6238286479250363</v>
+        <v>0.90211390871144903</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>2.6238286479250363</v>
+        <v>0.90211390871144903</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>9.3708165997328716E-2</v>
+        <v>0.53376034160661867</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>1.1960406928787368</v>
+        <v>1.7099771105426209</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>181.85</v>
+        <v>179.55</v>
       </c>
       <c r="C25">
-        <v>183.5</v>
+        <v>179.85</v>
       </c>
       <c r="D25">
-        <v>180.05</v>
+        <v>177</v>
       </c>
       <c r="E25">
-        <v>180.65</v>
+        <v>179.1</v>
       </c>
       <c r="F25">
-        <v>-1.1500000000000059</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>-0.6325632563256357</v>
+        <v>0.27995520716685329</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-0.65988452020895727</v>
+        <v>-0.25062656641604958</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>0.65988452020895727</v>
+        <v>0.25062656641604958</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>0.90734121528732792</v>
+        <v>0.1670843776106839</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>0.33213396069747814</v>
+        <v>1.1725293132328276</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>184</v>
+        <v>180.8</v>
       </c>
       <c r="T25">
-        <v>184.2</v>
+        <v>181.5</v>
       </c>
       <c r="U25">
-        <v>180.8</v>
+        <v>177.8</v>
       </c>
       <c r="V25">
-        <v>181.8</v>
+        <v>178.6</v>
       </c>
       <c r="W25">
-        <v>-1.5499999999999829</v>
+        <v>-2.0500000000000109</v>
       </c>
       <c r="X25">
-        <v>-0.84537769293699638</v>
+        <v>-1.134791032383067</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>-1.1956521739130372</v>
+        <v>-1.2168141592920447</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>1.1956521739130372</v>
+        <v>1.2168141592920447</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>0.10869565217390686</v>
+        <v>0.38716814159291407</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>0.55005500550054998</v>
+        <v>0.44792833146695576</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>185.8</v>
+        <v>181.85</v>
       </c>
       <c r="AJ25">
-        <v>185.85</v>
+        <v>183.5</v>
       </c>
       <c r="AK25">
-        <v>183</v>
+        <v>180.05</v>
       </c>
       <c r="AL25">
-        <v>183.35</v>
+        <v>180.65</v>
       </c>
       <c r="AM25">
-        <v>-0.59999999999999432</v>
+        <v>-1.1500000000000059</v>
       </c>
       <c r="AN25">
-        <v>-0.32617559119325601</v>
+        <v>-0.6325632563256357</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>-1.318622174381064</v>
+        <v>-0.65988452020895727</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>1.318622174381064</v>
+        <v>0.65988452020895727</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>2.6910656620012349E-2</v>
+        <v>0.90734121528732792</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>0.19089173711480464</v>
+        <v>0.33213396069747814</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>82.25</v>
+        <v>82.6</v>
       </c>
       <c r="C26">
-        <v>83.05</v>
+        <v>82.85</v>
       </c>
       <c r="D26">
-        <v>81.45</v>
+        <v>80.25</v>
       </c>
       <c r="E26">
-        <v>82.7</v>
+        <v>80.7</v>
       </c>
       <c r="F26">
-        <v>0.45000000000000279</v>
+        <v>-1.0999999999999941</v>
       </c>
       <c r="G26">
-        <v>0.54711246200608243</v>
+        <v>-1.344743276283612</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>0.54711246200608243</v>
+        <v>-2.3002421307505951</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>0.54711246200608243</v>
+        <v>2.3002421307505951</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>0.42321644498185523</v>
+        <v>0.30266343825665865</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>0.97264437689969263</v>
+        <v>0.55762081784386974</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>82.7</v>
+        <v>82.4</v>
       </c>
       <c r="T26">
-        <v>83.4</v>
+        <v>82.8</v>
       </c>
       <c r="U26">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="V26">
         <v>81.8</v>
       </c>
-      <c r="V26">
-        <v>82.25</v>
-      </c>
       <c r="W26">
-        <v>-0.45000000000000279</v>
+        <v>-0.90000000000000568</v>
       </c>
       <c r="X26">
-        <v>-0.54413542926239766</v>
+        <v>-1.0882708585247951</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>-0.54413542926239766</v>
+        <v>-0.72815533980583547</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>0.54413542926239766</v>
+        <v>0.72815533980583547</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>0.84643288996372767</v>
+        <v>0.48543689320387312</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>0.54711246200608243</v>
+        <v>0.48899755501221454</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>83.2</v>
+        <v>82.25</v>
       </c>
       <c r="AJ26">
-        <v>83.8</v>
+        <v>83.05</v>
       </c>
       <c r="AK26">
-        <v>82.35</v>
+        <v>81.45</v>
       </c>
       <c r="AL26">
         <v>82.7</v>
       </c>
       <c r="AM26">
-        <v>-0.39999999999999147</v>
+        <v>0.45000000000000279</v>
       </c>
       <c r="AN26">
-        <v>-0.48134777376653609</v>
+        <v>0.54711246200608243</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>-0.60096153846153844</v>
+        <v>0.54711246200608243</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>0.60096153846153844</v>
+        <v>0.54711246200608243</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>0.72115384615383926</v>
+        <v>0.42321644498185523</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>0.4232164449818725</v>
+        <v>0.97264437689969263</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>641</v>
+        <v>622.95000000000005</v>
       </c>
       <c r="C27">
-        <v>641</v>
+        <v>624.65</v>
       </c>
       <c r="D27">
-        <v>613.65</v>
+        <v>600</v>
       </c>
       <c r="E27">
-        <v>621.65</v>
+        <v>613.20000000000005</v>
       </c>
       <c r="F27">
-        <v>-11.75</v>
+        <v>-4.1499999999999773</v>
       </c>
       <c r="G27">
-        <v>-1.85506788759078</v>
+        <v>-0.67222807159633557</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0187207488299568</v>
+        <v>-1.5651336383337346</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>3.0187207488299568</v>
+        <v>1.5651336383337346</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.27289509591458888</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>1.2868977720582322</v>
+        <v>2.1526418786692831</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5477,38 +5477,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>609.35</v>
+        <v>614.75</v>
       </c>
       <c r="T27">
-        <v>639</v>
+        <v>624.79999999999995</v>
       </c>
       <c r="U27">
-        <v>601.20000000000005</v>
+        <v>610.20000000000005</v>
       </c>
       <c r="V27">
-        <v>633.4</v>
+        <v>617.35</v>
       </c>
       <c r="W27">
-        <v>24.049999999999951</v>
+        <v>-4.2999999999999554</v>
       </c>
       <c r="X27">
-        <v>3.9468285878394931</v>
+        <v>-0.69170755248129245</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>3.9468285878394931</v>
+        <v>0.42293615290768977</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>3.9468285878394931</v>
+        <v>0.42293615290768977</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>0.88411746131986468</v>
+        <v>1.2067708755163087</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>1.3374907688520516</v>
+        <v>0.74013826758844314</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>617.1</v>
+        <v>641</v>
       </c>
       <c r="AJ27">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="AK27">
-        <v>603.85</v>
+        <v>613.65</v>
       </c>
       <c r="AL27">
-        <v>609.35</v>
+        <v>621.65</v>
       </c>
       <c r="AM27">
-        <v>-1</v>
+        <v>-11.75</v>
       </c>
       <c r="AN27">
-        <v>-0.16384041943147379</v>
+        <v>-1.85506788759078</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>-1.2558742505266569</v>
+        <v>-3.0187207488299568</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>1.2558742505266569</v>
+        <v>3.0187207488299568</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>0.46994004213255181</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>0.90260113235414785</v>
+        <v>1.2868977720582322</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>986</v>
+        <v>1011</v>
       </c>
       <c r="C28">
-        <v>1005.65</v>
+        <v>1018.8</v>
       </c>
       <c r="D28">
-        <v>982</v>
+        <v>999.1</v>
       </c>
       <c r="E28">
-        <v>1001.75</v>
+        <v>1002.15</v>
       </c>
       <c r="F28">
-        <v>19.299999999999951</v>
+        <v>-8.8500000000000227</v>
       </c>
       <c r="G28">
-        <v>1.9644765636928041</v>
+        <v>-0.87537091988130789</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>1.5973630831643004</v>
+        <v>-0.87537091988130789</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>1.5973630831643004</v>
+        <v>0.87537091988130789</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>0.38931869228849286</v>
+        <v>0.77151335311572244</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0.40567951318458417</v>
+        <v>0.30434565683779419</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>979.5</v>
+        <v>995</v>
       </c>
       <c r="T28">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="U28">
-        <v>971.65</v>
+        <v>995</v>
       </c>
       <c r="V28">
-        <v>982.45</v>
+        <v>1011</v>
       </c>
       <c r="W28">
-        <v>4.0500000000000682</v>
+        <v>9.25</v>
       </c>
       <c r="X28">
-        <v>0.41394112837286068</v>
+        <v>0.92338407786373833</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>0.30117406840225069</v>
+        <v>1.6080402010050252</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>0.30117406840225069</v>
+        <v>1.6080402010050252</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>1.1756323477021686</v>
+        <v>0.98911968348170121</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>0.80142930066360618</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="AJ28">
-        <v>991.05</v>
+        <v>1005.65</v>
       </c>
       <c r="AK28">
-        <v>948.3</v>
+        <v>982</v>
       </c>
       <c r="AL28">
-        <v>978.4</v>
+        <v>1001.75</v>
       </c>
       <c r="AM28">
-        <v>32.699999999999932</v>
+        <v>19.299999999999951</v>
       </c>
       <c r="AN28">
-        <v>3.457756159458595</v>
+        <v>1.9644765636928041</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>2.2361546499477511</v>
+        <v>1.5973630831643004</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>2.2361546499477511</v>
+        <v>1.5973630831643004</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>1.292927228127553</v>
+        <v>0.38931869228849286</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>0.90909090909091395</v>
+        <v>0.40567951318458417</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>289</v>
+        <v>285.3</v>
       </c>
       <c r="C29">
-        <v>291.7</v>
+        <v>293.55</v>
       </c>
       <c r="D29">
-        <v>286.3</v>
+        <v>284.45</v>
       </c>
       <c r="E29">
-        <v>288.64999999999998</v>
+        <v>287.7</v>
       </c>
       <c r="F29">
-        <v>-0.95000000000004547</v>
+        <v>0.84999999999996589</v>
       </c>
       <c r="G29">
-        <v>-0.32803867403316478</v>
+        <v>0.29632211957467869</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-0.12110726643599402</v>
+        <v>0.84121976866455561</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>0.12110726643599402</v>
+        <v>0.84121976866455561</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>0.93425605536331791</v>
+        <v>2.0333680917622603</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>0.81413476528666762</v>
+        <v>0.2979320014020409</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>290.95</v>
+        <v>286</v>
       </c>
       <c r="T29">
-        <v>294.55</v>
+        <v>288.8</v>
       </c>
       <c r="U29">
-        <v>288.75</v>
+        <v>283.14999999999998</v>
       </c>
       <c r="V29">
-        <v>289.60000000000002</v>
+        <v>286.85000000000002</v>
       </c>
       <c r="W29">
-        <v>-0.25</v>
+        <v>-1.799999999999955</v>
       </c>
       <c r="X29">
-        <v>-8.6251509401414517E-2</v>
+        <v>-0.6235925861770153</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>-0.46399725038665268</v>
+        <v>0.29720279720280518</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>0.46399725038665268</v>
+        <v>0.29720279720280518</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>1.2373260010311129</v>
+        <v>0.67979780373016863</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>0.29350828729282552</v>
+        <v>0.99650349650350445</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>287.10000000000002</v>
+        <v>289</v>
       </c>
       <c r="AJ29">
-        <v>293.95</v>
+        <v>291.7</v>
       </c>
       <c r="AK29">
-        <v>285.60000000000002</v>
+        <v>286.3</v>
       </c>
       <c r="AL29">
-        <v>289.85000000000002</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="AM29">
-        <v>2.0500000000000109</v>
+        <v>-0.95000000000004547</v>
       </c>
       <c r="AN29">
-        <v>0.71230020847811371</v>
+        <v>-0.32803867403316478</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>0.95785440613026818</v>
+        <v>-0.12110726643599402</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>0.95785440613026818</v>
+        <v>0.12110726643599402</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>1.4145247541831865</v>
+        <v>0.93425605536331791</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>0.52246603970741889</v>
+        <v>0.81413476528666762</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>1324</v>
+        <v>1313.1</v>
       </c>
       <c r="C30">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="D30">
-        <v>1300.55</v>
+        <v>1262.5</v>
       </c>
       <c r="E30">
-        <v>1325.4</v>
+        <v>1277.0999999999999</v>
       </c>
       <c r="F30">
-        <v>1.450000000000045</v>
+        <v>-28</v>
       </c>
       <c r="G30">
-        <v>0.1095207522942744</v>
+        <v>-2.1454294690062059</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10574018126888905</v>
+        <v>-2.741603838245374</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>0.10574018126888905</v>
+        <v>2.741603838245374</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>0.49796287913082149</v>
+        <v>6.8540095956141273E-2</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>1.7711480362537799</v>
+        <v>1.1432150967034618</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>1308.0999999999999</v>
+        <v>1315</v>
       </c>
       <c r="T30">
-        <v>1328.85</v>
+        <v>1326.6</v>
       </c>
       <c r="U30">
-        <v>1289</v>
+        <v>1301.2</v>
       </c>
       <c r="V30">
-        <v>1323.95</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="W30">
-        <v>19.25</v>
+        <v>-20.300000000000178</v>
       </c>
       <c r="X30">
-        <v>1.4754349658925421</v>
+        <v>-1.5316130979327129</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>1.2116810641388378</v>
+        <v>-0.75285171102662285</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>1.2116810641388378</v>
+        <v>0.75285171102662285</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>0.37010461120131904</v>
+        <v>0.88212927756653303</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>1.4601330173534064</v>
+        <v>0.29882767604013977</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="AJ30">
-        <v>1347.95</v>
+        <v>1332</v>
       </c>
       <c r="AK30">
-        <v>1300</v>
+        <v>1300.55</v>
       </c>
       <c r="AL30">
-        <v>1304.7</v>
+        <v>1325.4</v>
       </c>
       <c r="AM30">
-        <v>-25.64999999999986</v>
+        <v>1.450000000000045</v>
       </c>
       <c r="AN30">
-        <v>-1.928064043296867</v>
+        <v>0.1095207522942744</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>-2.4158563949139831</v>
+        <v>0.10574018126888905</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>2.4158563949139831</v>
+        <v>0.10574018126888905</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>0.8189977561705345</v>
+        <v>0.49796287913082149</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>0.36023606959454629</v>
+        <v>1.7711480362537799</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>915</v>
+        <v>911.2</v>
       </c>
       <c r="C31">
-        <v>924</v>
+        <v>914.1</v>
       </c>
       <c r="D31">
-        <v>911.35</v>
+        <v>897</v>
       </c>
       <c r="E31">
-        <v>921.8</v>
+        <v>900.7</v>
       </c>
       <c r="F31">
-        <v>11.849999999999911</v>
+        <v>-5.5999999999999091</v>
       </c>
       <c r="G31">
-        <v>1.302269355459081</v>
+        <v>-0.61789694361689385</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>0.74316939890709888</v>
+        <v>-1.1523266022827041</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>0.74316939890709888</v>
+        <v>1.1523266022827041</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>0.23866348448687846</v>
+        <v>0.31826163301141103</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.39890710382513417</v>
+        <v>0.4107916065282608</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="T31">
-        <v>915.2</v>
+        <v>917.95</v>
       </c>
       <c r="U31">
-        <v>900</v>
+        <v>905.05</v>
       </c>
       <c r="V31">
-        <v>909.95</v>
+        <v>906.3</v>
       </c>
       <c r="W31">
-        <v>7.8500000000000227</v>
+        <v>-15.5</v>
       </c>
       <c r="X31">
-        <v>0.87019177474781317</v>
+        <v>-1.6814927316120629</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>-5.4945054945004972E-3</v>
+        <v>-0.95081967213115248</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>5.4945054945004972E-3</v>
+        <v>0.95081967213115248</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>0.5714285714285765</v>
+        <v>0.32240437158470442</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>1.0934666739930816</v>
+        <v>0.1379234249144875</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>922.4</v>
+        <v>915</v>
       </c>
       <c r="AJ31">
-        <v>923.35</v>
+        <v>924</v>
       </c>
       <c r="AK31">
-        <v>901</v>
+        <v>911.35</v>
       </c>
       <c r="AL31">
-        <v>902.1</v>
+        <v>921.8</v>
       </c>
       <c r="AM31">
-        <v>-15.299999999999949</v>
+        <v>11.849999999999911</v>
       </c>
       <c r="AN31">
-        <v>-1.667756703727922</v>
+        <v>1.302269355459081</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>-2.2007805724197698</v>
+        <v>0.74316939890709888</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>2.2007805724197698</v>
+        <v>0.74316939890709888</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>0.10299219427580719</v>
+        <v>0.23866348448687846</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.1219377009200779</v>
+        <v>0.39890710382513417</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="C32">
-        <v>649.79999999999995</v>
+        <v>659.4</v>
       </c>
       <c r="D32">
-        <v>616</v>
+        <v>634.54999999999995</v>
       </c>
       <c r="E32">
-        <v>639.45000000000005</v>
+        <v>654.15</v>
       </c>
       <c r="F32">
-        <v>26</v>
+        <v>17.350000000000019</v>
       </c>
       <c r="G32">
-        <v>4.2383242318037331</v>
+        <v>2.724560301507541</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>3.8068181818181888</v>
+        <v>2.2109374999999964</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>3.8068181818181888</v>
+        <v>2.2109374999999964</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>1.618578465869092</v>
+        <v>0.80256821829855551</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.85156250000000722</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>619.25</v>
+        <v>631</v>
       </c>
       <c r="T32">
-        <v>624</v>
+        <v>643.5</v>
       </c>
       <c r="U32">
-        <v>611.95000000000005</v>
+        <v>627.65</v>
       </c>
       <c r="V32">
-        <v>613.45000000000005</v>
+        <v>636.79999999999995</v>
       </c>
       <c r="W32">
-        <v>-1.8499999999999091</v>
+        <v>-2.6500000000000909</v>
       </c>
       <c r="X32">
-        <v>-0.30066634162195832</v>
+        <v>-0.41441864101964038</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>-0.93661687525231407</v>
+        <v>0.91917591125197373</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>0.93661687525231407</v>
+        <v>0.91917591125197373</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>0.76705692369802181</v>
+        <v>1.0521356783919669</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.24451870568098455</v>
+        <v>0.53090332805071672</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6450,38 +6450,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AJ32">
-        <v>629.4</v>
+        <v>649.79999999999995</v>
       </c>
       <c r="AK32">
-        <v>611.9</v>
+        <v>616</v>
       </c>
       <c r="AL32">
-        <v>615.29999999999995</v>
+        <v>639.45000000000005</v>
       </c>
       <c r="AM32">
-        <v>1.049999999999955</v>
+        <v>26</v>
       </c>
       <c r="AN32">
-        <v>0.1709401709401635</v>
+        <v>4.2383242318037331</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>4.8780487804870654E-2</v>
+        <v>3.8068181818181888</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>4.8780487804870654E-2</v>
+        <v>3.8068181818181888</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>2.2915650901999065</v>
+        <v>1.618578465869092</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>0.50406504065041013</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>7074</v>
+        <v>7148</v>
       </c>
       <c r="C33">
-        <v>7169</v>
+        <v>7149</v>
       </c>
       <c r="D33">
-        <v>7041</v>
+        <v>6931.6</v>
       </c>
       <c r="E33">
-        <v>7057.95</v>
+        <v>6964.75</v>
       </c>
       <c r="F33">
-        <v>5.1499999999996362</v>
+        <v>-121.10000000000041</v>
       </c>
       <c r="G33">
-        <v>7.3020644283116443E-2</v>
+        <v>-1.709039847019064</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.22688719253605008</v>
+        <v>-2.5636541689983212</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>0.22688719253605008</v>
+        <v>2.5636541689983212</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>1.3429459994345492</v>
+        <v>1.3989927252378289E-2</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0.24015471914649181</v>
+        <v>0.47596826878207599</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>7164</v>
+        <v>7049.5</v>
       </c>
       <c r="T33">
-        <v>7175</v>
+        <v>7112.9</v>
       </c>
       <c r="U33">
-        <v>7005</v>
+        <v>6941</v>
       </c>
       <c r="V33">
-        <v>7052.8</v>
+        <v>7085.85</v>
       </c>
       <c r="W33">
-        <v>-76.050000000000182</v>
+        <v>27.900000000000549</v>
       </c>
       <c r="X33">
-        <v>-1.066791979070961</v>
+        <v>0.39529891824114011</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5522054718034592</v>
+        <v>0.51563940705015054</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>1.5522054718034592</v>
+        <v>0.51563940705015054</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0.15354550530429928</v>
+        <v>0.38174672057691417</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>0.67774500907441271</v>
+        <v>1.5391162493793886</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="AF33" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG33" s="1" t="str">
         <f t="shared" si="19"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>7219</v>
+        <v>7074</v>
       </c>
       <c r="AJ33">
-        <v>7239.6</v>
+        <v>7169</v>
       </c>
       <c r="AK33">
-        <v>7085</v>
+        <v>7041</v>
       </c>
       <c r="AL33">
-        <v>7128.85</v>
+        <v>7057.95</v>
       </c>
       <c r="AM33">
-        <v>-64.75</v>
+        <v>5.1499999999996362</v>
       </c>
       <c r="AN33">
-        <v>-0.90010564946619209</v>
+        <v>7.3020644283116443E-2</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>-1.248787920764644</v>
+        <v>-0.22688719253605008</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>1.248787920764644</v>
+        <v>0.22688719253605008</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>0.28535808283696307</v>
+        <v>1.3429459994345492</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0.61510622330390397</v>
+        <v>0.24015471914649181</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,38 +6696,38 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>91.6</v>
+        <v>89.05</v>
       </c>
       <c r="C34">
-        <v>91.6</v>
+        <v>91.1</v>
       </c>
       <c r="D34">
-        <v>89.3</v>
+        <v>88.7</v>
       </c>
       <c r="E34">
-        <v>89.65</v>
+        <v>90.55</v>
       </c>
       <c r="F34">
-        <v>-1.4499999999999891</v>
+        <v>1.899999999999991</v>
       </c>
       <c r="G34">
-        <v>-1.5916575192096469</v>
+        <v>2.1432600112803062</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>-2.1288209606986777</v>
+        <v>1.6844469399213926</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>2.1288209606986777</v>
+        <v>1.6844469399213926</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>0</v>
+        <v>0.60739922694643533</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.39040713887340606</v>
+        <v>0.39303761931498521</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>90.9</v>
+        <v>89.05</v>
       </c>
       <c r="T34">
-        <v>92.75</v>
+        <v>89.45</v>
       </c>
       <c r="U34">
-        <v>90.55</v>
+        <v>88.3</v>
       </c>
       <c r="V34">
-        <v>91.1</v>
+        <v>88.65</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>0.27517886626307098</v>
+        <v>-1.115448968209704</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>0.22002200220020751</v>
+        <v>-0.44918585064569505</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>0.22002200220020751</v>
+        <v>0.44918585064569505</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>1.8111964873765156</v>
+        <v>0.44918585064571104</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0.3850385038503944</v>
+        <v>0.39481105470954142</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>90.4</v>
+        <v>91.6</v>
       </c>
       <c r="AJ34">
-        <v>91.95</v>
+        <v>91.6</v>
       </c>
       <c r="AK34">
-        <v>89.75</v>
+        <v>89.3</v>
       </c>
       <c r="AL34">
-        <v>90.85</v>
+        <v>89.65</v>
       </c>
       <c r="AM34">
-        <v>0.75</v>
+        <v>-1.4499999999999891</v>
       </c>
       <c r="AN34">
-        <v>0.83240843507214213</v>
+        <v>-1.5916575192096469</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>0.49778761061945642</v>
+        <v>-2.1288209606986777</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>0.49778761061945642</v>
+        <v>2.1288209606986777</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>1.2107870115575219</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>0.71902654867257265</v>
+        <v>0.39040713887340606</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="AU34" t="str">
         <f t="shared" ref="AU34:AU51" si="58">IF(AND(AO34&lt;0,S34&lt;AL34,V34&lt;AL34,B34&gt;V34,E34&gt;V34,H34&gt;0),"YES","NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV34" t="str">
         <f t="shared" ref="AV34:AV51" si="59">IF(AND(AO34&gt;0,S34&gt;AL34,V34&gt;AL34,B34&lt;V34,E34&lt;V34,H34&lt;0),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>16066.5</v>
+        <v>16250</v>
       </c>
       <c r="C35">
-        <v>16225</v>
+        <v>16250</v>
       </c>
       <c r="D35">
-        <v>16050</v>
+        <v>15925</v>
       </c>
       <c r="E35">
-        <v>16197.8</v>
+        <v>16087.05</v>
       </c>
       <c r="F35">
-        <v>156.84999999999849</v>
+        <v>-34.300000000001091</v>
       </c>
       <c r="G35">
-        <v>0.97780991774177062</v>
+        <v>-0.2127613382254035</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>0.8172283944854154</v>
+        <v>-1.0027692307692353</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>0.8172283944854154</v>
+        <v>1.0027692307692353</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>0.16792403906703829</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>0.10269816076930258</v>
+        <v>1.0073319844222484</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
+        <v>16240</v>
+      </c>
+      <c r="T35">
+        <v>16298.8</v>
+      </c>
+      <c r="U35">
         <v>16090</v>
       </c>
-      <c r="T35">
-        <v>16165.9</v>
-      </c>
-      <c r="U35">
-        <v>16012</v>
-      </c>
       <c r="V35">
-        <v>16040.95</v>
+        <v>16121.35</v>
       </c>
       <c r="W35">
-        <v>-42.349999999998538</v>
+        <v>-76.449999999998909</v>
       </c>
       <c r="X35">
-        <v>-0.26331660791005917</v>
+        <v>-0.47197767598068202</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>-0.3048477315102503</v>
+        <v>-0.73060344827585977</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>0.3048477315102503</v>
+        <v>0.73060344827585977</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>0.47172156619017791</v>
+        <v>0.36206896551723688</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>0.1804755952733518</v>
+        <v>0.19446262254712146</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>16400</v>
+        <v>16066.5</v>
       </c>
       <c r="AJ35">
-        <v>16400</v>
+        <v>16225</v>
       </c>
       <c r="AK35">
-        <v>16040.05</v>
+        <v>16050</v>
       </c>
       <c r="AL35">
-        <v>16083.3</v>
+        <v>16197.8</v>
       </c>
       <c r="AM35">
-        <v>-242.05000000000109</v>
+        <v>156.84999999999849</v>
       </c>
       <c r="AN35">
-        <v>-1.4826634651018269</v>
+        <v>0.97780991774177062</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>-1.9310975609756142</v>
+        <v>0.8172283944854154</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>1.9310975609756142</v>
+        <v>0.8172283944854154</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.16792403906703829</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>0.26891247442999883</v>
+        <v>0.10269816076930258</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>74.25</v>
+        <v>73.8</v>
       </c>
       <c r="C36">
-        <v>74.45</v>
+        <v>74.8</v>
       </c>
       <c r="D36">
-        <v>72.55</v>
+        <v>72.95</v>
       </c>
       <c r="E36">
-        <v>73.05</v>
+        <v>74.3</v>
       </c>
       <c r="F36">
-        <v>-0.75</v>
+        <v>1.149999999999991</v>
       </c>
       <c r="G36">
-        <v>-1.0162601626016261</v>
+        <v>1.572112098427876</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>-1.6161616161616199</v>
+        <v>0.6775067750677507</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>1.6161616161616199</v>
+        <v>0.6775067750677507</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>0.26936026936027319</v>
+        <v>0.67294751009421261</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.6844626967830254</v>
+        <v>1.1517615176151685</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>73.75</v>
+        <v>73.05</v>
       </c>
       <c r="T36">
-        <v>74.349999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="U36">
-        <v>73.25</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="V36">
-        <v>73.8</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="W36">
-        <v>0.1499999999999915</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="X36">
-        <v>0.20366598778002909</v>
+        <v>0.13689253935661669</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>6.7796610169487667E-2</v>
+        <v>0.13689253935661674</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>6.7796610169487667E-2</v>
+        <v>0.13689253935661674</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>0.74525745257452192</v>
+        <v>1.572112098427876</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>0.67796610169491522</v>
+        <v>0.273785078713214</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>73.849999999999994</v>
+        <v>74.25</v>
       </c>
       <c r="AJ36">
-        <v>74.75</v>
+        <v>74.45</v>
       </c>
       <c r="AK36">
-        <v>73.25</v>
+        <v>72.55</v>
       </c>
       <c r="AL36">
-        <v>73.650000000000006</v>
+        <v>73.05</v>
       </c>
       <c r="AM36">
-        <v>0.35000000000000853</v>
+        <v>-0.75</v>
       </c>
       <c r="AN36">
-        <v>0.47748976807641003</v>
+        <v>-1.0162601626016261</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>-0.27081922816518439</v>
+        <v>-1.6161616161616199</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>0.27081922816518439</v>
+        <v>1.6161616161616199</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>1.2186865267434066</v>
+        <v>0.26936026936027319</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>0.54310930074678299</v>
+        <v>0.6844626967830254</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
+        <v>169.1</v>
+      </c>
+      <c r="C37">
         <v>173</v>
       </c>
-      <c r="C37">
-        <v>173.45</v>
-      </c>
       <c r="D37">
-        <v>170.8</v>
+        <v>167.3</v>
       </c>
       <c r="E37">
-        <v>171.95</v>
+        <v>171.9</v>
       </c>
       <c r="F37">
-        <v>-1.350000000000023</v>
+        <v>3.5999999999999939</v>
       </c>
       <c r="G37">
-        <v>-0.77899596076169797</v>
+        <v>2.1390374331550772</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>-0.60693641618497762</v>
+        <v>1.6558249556475526</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>0.60693641618497762</v>
+        <v>1.6558249556475526</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>0.26011560693640962</v>
+        <v>0.63990692262943238</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>0.66879906949693357</v>
+        <v>1.0644589000591267</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>171.85</v>
+        <v>171.35</v>
       </c>
       <c r="T37">
-        <v>173.9</v>
+        <v>171.4</v>
       </c>
       <c r="U37">
-        <v>171</v>
+        <v>167.9</v>
       </c>
       <c r="V37">
-        <v>173.3</v>
+        <v>168.3</v>
       </c>
       <c r="W37">
-        <v>1.8000000000000109</v>
+        <v>-3.6499999999999768</v>
       </c>
       <c r="X37">
-        <v>1.04956268221575</v>
+        <v>-2.12271009014247</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>0.84375909223160728</v>
+        <v>-1.7799824919754788</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>0.84375909223160728</v>
+        <v>1.7799824919754788</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>0.34622042700519001</v>
+        <v>2.9180040852063827E-2</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>0.49461739889438139</v>
+        <v>0.23767082590612337</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>177.5</v>
+        <v>173</v>
       </c>
       <c r="AJ37">
-        <v>177.5</v>
+        <v>173.45</v>
       </c>
       <c r="AK37">
-        <v>170.75</v>
+        <v>170.8</v>
       </c>
       <c r="AL37">
-        <v>171.5</v>
+        <v>171.95</v>
       </c>
       <c r="AM37">
-        <v>-3.6500000000000061</v>
+        <v>-1.350000000000023</v>
       </c>
       <c r="AN37">
-        <v>-2.0839280616614362</v>
+        <v>-0.77899596076169797</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>-3.3802816901408446</v>
+        <v>-0.60693641618497762</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>3.3802816901408446</v>
+        <v>0.60693641618497762</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.26011560693640962</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>0.43731778425655976</v>
+        <v>0.66879906949693357</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="AU37" t="str">
         <f t="shared" si="58"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV37" t="str">
         <f t="shared" si="59"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>2320</v>
+        <v>2314.25</v>
       </c>
       <c r="C38">
-        <v>2369.35</v>
+        <v>2319.4499999999998</v>
       </c>
       <c r="D38">
-        <v>2310.5500000000002</v>
+        <v>2276.5500000000002</v>
       </c>
       <c r="E38">
-        <v>2324.5500000000002</v>
+        <v>2305.6999999999998</v>
       </c>
       <c r="F38">
-        <v>5.7000000000002728</v>
+        <v>6.9499999999998181</v>
       </c>
       <c r="G38">
-        <v>0.24581150139078739</v>
+        <v>0.30233822729743631</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>0.19612068965518026</v>
+        <v>-0.36945014583559171</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>0.19612068965518026</v>
+        <v>0.36945014583559171</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>1.9272547374760589</v>
+        <v>0.22469482553742326</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.40732758620688869</v>
+        <v>1.2642581428633231</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="37"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O38" s="1" t="str">
         <f t="shared" si="38"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>2311.9499999999998</v>
+        <v>2320</v>
       </c>
       <c r="T38">
-        <v>2325.75</v>
+        <v>2333.6999999999998</v>
       </c>
       <c r="U38">
-        <v>2288.15</v>
+        <v>2291.85</v>
       </c>
       <c r="V38">
-        <v>2318.85</v>
+        <v>2298.75</v>
       </c>
       <c r="W38">
-        <v>16.299999999999731</v>
+        <v>-25.800000000000178</v>
       </c>
       <c r="X38">
-        <v>0.70791079455385231</v>
+        <v>-1.1098922372072091</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>0.2984493609290898</v>
+        <v>-0.91594827586206884</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>0.2984493609290898</v>
+        <v>0.91594827586206884</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>0.2975612911572586</v>
+        <v>0.5905172413793025</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>1.0294340275524874</v>
+        <v>0.30016313213703494</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7548,38 +7548,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="AJ38">
-        <v>2360</v>
+        <v>2369.35</v>
       </c>
       <c r="AK38">
-        <v>2282</v>
+        <v>2310.5500000000002</v>
       </c>
       <c r="AL38">
-        <v>2302.5500000000002</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="AM38">
-        <v>-17.199999999999822</v>
+        <v>5.7000000000002728</v>
       </c>
       <c r="AN38">
-        <v>-0.74145920896647555</v>
+        <v>0.24581150139078739</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>-0.96559139784945458</v>
+        <v>0.19612068965518026</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>0.96559139784945458</v>
+        <v>0.19612068965518026</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>1.5053763440860215</v>
+        <v>1.9272547374760589</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>0.89248876245902076</v>
+        <v>0.40732758620688869</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>20065.25</v>
+        <v>19915</v>
       </c>
       <c r="C39">
-        <v>20492.55</v>
+        <v>20108.55</v>
       </c>
       <c r="D39">
-        <v>19946.150000000001</v>
+        <v>19399.5</v>
       </c>
       <c r="E39">
-        <v>20387.849999999999</v>
+        <v>19520.95</v>
       </c>
       <c r="F39">
-        <v>322.59999999999849</v>
+        <v>-367.45000000000073</v>
       </c>
       <c r="G39">
-        <v>1.6077547002902961</v>
+        <v>-1.847559381347925</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>1.6077547002902957</v>
+        <v>-1.9786593020336394</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>1.6077547002902957</v>
+        <v>1.9786593020336394</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>0.51354115318682814</v>
+        <v>0.97188049209138483</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>0.59356349908423045</v>
+        <v>0.62215209813047379</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>19779</v>
+        <v>20375</v>
       </c>
       <c r="T39">
-        <v>20147.900000000001</v>
+        <v>20375</v>
       </c>
       <c r="U39">
-        <v>19600</v>
+        <v>19795.95</v>
       </c>
       <c r="V39">
-        <v>20065.25</v>
+        <v>19888.400000000001</v>
       </c>
       <c r="W39">
-        <v>275.75</v>
+        <v>-499.44999999999709</v>
       </c>
       <c r="X39">
-        <v>1.3934157002450791</v>
+        <v>-2.4497433520454441</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>1.4472420243692805</v>
+        <v>-2.3882208588956981</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>1.4472420243692805</v>
+        <v>2.3882208588956981</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>0.41190615616551729</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>0.90500025279336671</v>
+        <v>0.4648438285633873</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>19512.3</v>
+        <v>20065.25</v>
       </c>
       <c r="AJ39">
-        <v>19985</v>
+        <v>20492.55</v>
       </c>
       <c r="AK39">
-        <v>19500</v>
+        <v>19946.150000000001</v>
       </c>
       <c r="AL39">
-        <v>19789.5</v>
+        <v>20387.849999999999</v>
       </c>
       <c r="AM39">
-        <v>287</v>
+        <v>322.59999999999849</v>
       </c>
       <c r="AN39">
-        <v>1.471606204332778</v>
+        <v>1.6077547002902961</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>1.4206423640472972</v>
+        <v>1.6077547002902957</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>1.4206423640472972</v>
+        <v>1.6077547002902957</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>0.98789762247656587</v>
+        <v>0.51354115318682814</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>6.3037161175254958E-2</v>
+        <v>0.59356349908423045</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>199.85</v>
+        <v>196</v>
       </c>
       <c r="C40">
-        <v>200.05</v>
+        <v>197.2</v>
       </c>
       <c r="D40">
-        <v>196.25</v>
+        <v>189.7</v>
       </c>
       <c r="E40">
-        <v>198.2</v>
+        <v>192.6</v>
       </c>
       <c r="F40">
-        <v>-1.9500000000000171</v>
+        <v>-2.8499999999999939</v>
       </c>
       <c r="G40">
-        <v>-0.97426929802648854</v>
+        <v>-1.458173445894088</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>-0.82561921441081099</v>
+        <v>-1.7346938775510232</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>0.82561921441081099</v>
+        <v>1.7346938775510232</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>0.10007505629222771</v>
+        <v>0.6122448979591778</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>0.98385469223006494</v>
+        <v>1.5057113187954341</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>199.9</v>
+        <v>197</v>
       </c>
       <c r="T40">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U40">
-        <v>197.1</v>
+        <v>195</v>
       </c>
       <c r="V40">
-        <v>200.15</v>
+        <v>195.45</v>
       </c>
       <c r="W40">
-        <v>1.6500000000000059</v>
+        <v>-2.75</v>
       </c>
       <c r="X40">
-        <v>0.83123425692695507</v>
+        <v>-1.3874873864783051</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>0.12506253126563283</v>
+        <v>-0.78680203045685859</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>0.12506253126563283</v>
+        <v>0.78680203045685859</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.42468148888333462</v>
+        <v>0.50761421319796951</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>1.4007003501750932</v>
+        <v>0.23023791250958744</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>205.9</v>
+        <v>199.85</v>
       </c>
       <c r="AJ40">
-        <v>206.2</v>
+        <v>200.05</v>
       </c>
       <c r="AK40">
-        <v>197.35</v>
+        <v>196.25</v>
       </c>
       <c r="AL40">
-        <v>198.5</v>
+        <v>198.2</v>
       </c>
       <c r="AM40">
-        <v>-4.1999999999999886</v>
+        <v>-1.9500000000000171</v>
       </c>
       <c r="AN40">
-        <v>-2.072027627035022</v>
+        <v>-0.97426929802648854</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>-3.5939776590577974</v>
+        <v>-0.82561921441081099</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>3.5939776590577974</v>
+        <v>0.82561921441081099</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>0.14570179698882124</v>
+        <v>0.10007505629222771</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>0.579345088161212</v>
+        <v>0.98385469223006494</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>510.15</v>
+        <v>517.45000000000005</v>
       </c>
       <c r="C41">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D41">
-        <v>503.4</v>
+        <v>515</v>
       </c>
       <c r="E41">
-        <v>518.5</v>
+        <v>523.35</v>
       </c>
       <c r="F41">
-        <v>12.100000000000019</v>
+        <v>11.350000000000019</v>
       </c>
       <c r="G41">
-        <v>2.3894154818325481</v>
+        <v>2.216796875000004</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>1.6367734979907917</v>
+        <v>1.140206783264079</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>1.6367734979907917</v>
+        <v>1.140206783264079</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>0.28929604628736744</v>
+        <v>2.2260437565682576</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>1.3231402528668039</v>
+        <v>0.47347569813509427</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>498</v>
+        <v>516.79999999999995</v>
       </c>
       <c r="T41">
-        <v>512.4</v>
+        <v>521.9</v>
       </c>
       <c r="U41">
-        <v>496</v>
+        <v>510.5</v>
       </c>
       <c r="V41">
-        <v>506.4</v>
+        <v>512</v>
       </c>
       <c r="W41">
-        <v>10.599999999999969</v>
+        <v>-6.5</v>
       </c>
       <c r="X41">
-        <v>2.137958854376758</v>
+        <v>-1.253616200578592</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>1.6867469879518027</v>
+        <v>-0.92879256965943402</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>1.6867469879518027</v>
+        <v>0.92879256965943402</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>1.1848341232227488</v>
+        <v>0.98684210526316241</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>0.40160642570281119</v>
+        <v>0.29296875</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>505.55</v>
+        <v>510.15</v>
       </c>
       <c r="AJ41">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="AK41">
-        <v>494</v>
+        <v>503.4</v>
       </c>
       <c r="AL41">
-        <v>495.8</v>
+        <v>518.5</v>
       </c>
       <c r="AM41">
-        <v>-9.75</v>
+        <v>12.100000000000019</v>
       </c>
       <c r="AN41">
-        <v>-1.928592621896944</v>
+        <v>2.3894154818325481</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>-1.9285926218969438</v>
+        <v>1.6367734979907917</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>1.9285926218969438</v>
+        <v>1.6367734979907917</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>0.68242508159430093</v>
+        <v>0.28929604628736744</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>0.36304961678096231</v>
+        <v>1.3231402528668039</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>2488.9499999999998</v>
+        <v>2485</v>
       </c>
       <c r="C42">
-        <v>2507.6</v>
+        <v>2500.4</v>
       </c>
       <c r="D42">
-        <v>2477.3000000000002</v>
+        <v>2436.4</v>
       </c>
       <c r="E42">
-        <v>2503</v>
+        <v>2449.9</v>
       </c>
       <c r="F42">
-        <v>11.599999999999911</v>
+        <v>-11.049999999999731</v>
       </c>
       <c r="G42">
-        <v>0.46560166974391543</v>
+        <v>-0.44901359231190102</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>0.56449506820145778</v>
+        <v>-1.4124748490945638</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>0.56449506820145778</v>
+        <v>1.4124748490945638</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>0.18377946464242545</v>
+        <v>0.61971830985915854</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>0.46806886438054746</v>
+        <v>0.55104289971019227</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>2491.4</v>
+        <v>2480</v>
       </c>
       <c r="T42">
-        <v>2538</v>
+        <v>2495.75</v>
       </c>
       <c r="U42">
-        <v>2464.6</v>
+        <v>2450.6</v>
       </c>
       <c r="V42">
-        <v>2491.4</v>
+        <v>2460.9499999999998</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>-42.050000000000182</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>-1.679984019176995</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>-0.76814516129032995</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.76814516129032995</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>1.8704342939712575</v>
+        <v>0.63508064516129026</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>1.075700409408372</v>
+        <v>0.42056929234644791</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>2384.1</v>
+        <v>2488.9499999999998</v>
       </c>
       <c r="AJ42">
-        <v>2505.75</v>
+        <v>2507.6</v>
       </c>
       <c r="AK42">
-        <v>2381.85</v>
+        <v>2477.3000000000002</v>
       </c>
       <c r="AL42">
-        <v>2491.4</v>
+        <v>2503</v>
       </c>
       <c r="AM42">
-        <v>117.3000000000002</v>
+        <v>11.599999999999911</v>
       </c>
       <c r="AN42">
-        <v>4.9408196790362746</v>
+        <v>0.46560166974391543</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>4.5006501405142476</v>
+        <v>0.56449506820145778</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>4.5006501405142476</v>
+        <v>0.56449506820145778</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>0.57598137593320664</v>
+        <v>0.18377946464242545</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>9.4375235938089844E-2</v>
+        <v>0.46806886438054746</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>149.19999999999999</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="C43">
-        <v>154.30000000000001</v>
+        <v>150.5</v>
       </c>
       <c r="D43">
-        <v>148.55000000000001</v>
+        <v>146.25</v>
       </c>
       <c r="E43">
-        <v>151.44999999999999</v>
+        <v>147.9</v>
       </c>
       <c r="F43">
-        <v>3.0499999999999829</v>
+        <v>0.25</v>
       </c>
       <c r="G43">
-        <v>2.0552560646900151</v>
+        <v>0.16931933626820181</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>1.5080428954423595</v>
+        <v>-0.53799596503025082</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>1.5080428954423595</v>
+        <v>0.53799596503025082</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>1.881809177946532</v>
+        <v>1.2104909213180979</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>0.43565683646111075</v>
+        <v>1.1156186612576102</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>149.4</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="T43">
-        <v>149.4</v>
+        <v>151</v>
       </c>
       <c r="U43">
-        <v>146.55000000000001</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="V43">
-        <v>148.4</v>
+        <v>147.65</v>
       </c>
       <c r="W43">
-        <v>-0.15000000000000571</v>
+        <v>-3.7999999999999829</v>
       </c>
       <c r="X43">
-        <v>-0.1009761023224542</v>
+        <v>-2.5090789039286778</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>-0.66934404283801874</v>
+        <v>-2.0888594164456267</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>0.66934404283801874</v>
+        <v>2.0888594164456267</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.13262599469495265</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>1.2466307277627993</v>
+        <v>0.98205215035558213</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>147.19999999999999</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="AJ43">
-        <v>151.1</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="AK43">
-        <v>145.5</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="AL43">
-        <v>148.55000000000001</v>
+        <v>151.44999999999999</v>
       </c>
       <c r="AM43">
-        <v>4.25</v>
+        <v>3.0499999999999829</v>
       </c>
       <c r="AN43">
-        <v>2.9452529452529448</v>
+        <v>2.0552560646900151</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>0.91711956521740678</v>
+        <v>1.5080428954423595</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>0.91711956521740678</v>
+        <v>1.5080428954423595</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>1.7165937394816442</v>
+        <v>1.881809177946532</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>1.1548913043478184</v>
+        <v>0.43565683646111075</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>406.45</v>
+        <v>402.1</v>
       </c>
       <c r="C44">
-        <v>410</v>
+        <v>405.65</v>
       </c>
       <c r="D44">
-        <v>402.7</v>
+        <v>393.4</v>
       </c>
       <c r="E44">
-        <v>404.6</v>
+        <v>395.5</v>
       </c>
       <c r="F44">
-        <v>-0.64999999999997726</v>
+        <v>-3.1999999999999891</v>
       </c>
       <c r="G44">
-        <v>-0.16039481801356631</v>
+        <v>-0.80260847755204123</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>-0.45516053635132631</v>
+        <v>-1.6413827406117938</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>0.45516053635132631</v>
+        <v>1.6413827406117938</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>0.87341616434986125</v>
+        <v>0.88286495896542017</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>0.46959960454770988</v>
+        <v>0.53097345132743934</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>407</v>
+        <v>401.95</v>
       </c>
       <c r="T44">
-        <v>410.55</v>
+        <v>407.5</v>
       </c>
       <c r="U44">
-        <v>403.55</v>
+        <v>393.2</v>
       </c>
       <c r="V44">
-        <v>405.25</v>
+        <v>398.7</v>
       </c>
       <c r="W44">
-        <v>0.60000000000002274</v>
+        <v>-5.9000000000000341</v>
       </c>
       <c r="X44">
-        <v>0.14827628815025889</v>
+        <v>-1.4582303509639229</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>-0.42997542997542998</v>
+        <v>-0.80855827839283501</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>0.42997542997542998</v>
+        <v>0.80855827839283501</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>0.87223587223587506</v>
+        <v>1.3807687523323826</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>0.41949413942010821</v>
+        <v>1.3794833207925759</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
+        <v>406.45</v>
+      </c>
+      <c r="AJ44">
         <v>410</v>
       </c>
-      <c r="AJ44">
-        <v>414.1</v>
-      </c>
       <c r="AK44">
-        <v>402.15</v>
+        <v>402.7</v>
       </c>
       <c r="AL44">
-        <v>404.65</v>
+        <v>404.6</v>
       </c>
       <c r="AM44">
-        <v>-2.8500000000000232</v>
+        <v>-0.64999999999997726</v>
       </c>
       <c r="AN44">
-        <v>-0.69938650306749017</v>
+        <v>-0.16039481801356631</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>-1.3048780487804934</v>
+        <v>-0.45516053635132631</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>1.3048780487804934</v>
+        <v>0.45516053635132631</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>1.0000000000000056</v>
+        <v>0.87341616434986125</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>0.61781786729272214</v>
+        <v>0.46959960454770988</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C45">
-        <v>794.25</v>
+        <v>808.8</v>
       </c>
       <c r="D45">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="E45">
-        <v>792</v>
+        <v>804.65</v>
       </c>
       <c r="F45">
-        <v>0.85000000000002274</v>
+        <v>17.699999999999928</v>
       </c>
       <c r="G45">
-        <v>0.1074385388358747</v>
+        <v>2.2491899104136128</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1.4691046658259745</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1.4691046658259745</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>0.28409090909090912</v>
+        <v>0.51575219039333586</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>1.0101010101010102</v>
+        <v>0.63051702395964693</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>790.75</v>
+        <v>788</v>
       </c>
       <c r="T45">
-        <v>803.1</v>
+        <v>811.45</v>
       </c>
       <c r="U45">
-        <v>775</v>
+        <v>781.3</v>
       </c>
       <c r="V45">
-        <v>791.15</v>
+        <v>786.95</v>
       </c>
       <c r="W45">
-        <v>0.39999999999997732</v>
+        <v>-5.0499999999999554</v>
       </c>
       <c r="X45">
-        <v>5.0584887764777403E-2</v>
+        <v>-0.63762626262625688</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>5.0584887764777396E-2</v>
+        <v>-0.13324873096446122</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>5.0584887764777396E-2</v>
+        <v>0.13324873096446122</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>1.5104594577513804</v>
+        <v>2.9758883248731021</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>1.991779955738223</v>
+        <v>0.71796175106424687</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>770.15</v>
+        <v>792</v>
       </c>
       <c r="AJ45">
-        <v>796.6</v>
+        <v>794.25</v>
       </c>
       <c r="AK45">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="AL45">
-        <v>790.75</v>
+        <v>792</v>
       </c>
       <c r="AM45">
-        <v>25.600000000000019</v>
+        <v>0.85000000000002274</v>
       </c>
       <c r="AN45">
-        <v>3.345749199503369</v>
+        <v>0.1074385388358747</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>2.6748036096864278</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>2.6748036096864278</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>0.73980398355991428</v>
+        <v>0.28409090909090912</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>1.9476725313247713E-2</v>
+        <v>1.0101010101010102</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="C46">
-        <v>1189</v>
+        <v>1201.5</v>
       </c>
       <c r="D46">
-        <v>1164.7</v>
+        <v>1157.3499999999999</v>
       </c>
       <c r="E46">
-        <v>1181.7</v>
+        <v>1163.5999999999999</v>
       </c>
       <c r="F46">
-        <v>7.1500000000000909</v>
+        <v>-18.800000000000178</v>
       </c>
       <c r="G46">
-        <v>0.60874377421140791</v>
+        <v>-1.589986468200286</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>0.14406779661017333</v>
+        <v>-1.8059071729957883</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>0.14406779661017333</v>
+        <v>1.8059071729957883</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.61775408310061386</v>
+        <v>1.3924050632911391</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>1.2966101694915215</v>
+        <v>0.53712616019250603</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>1194.8</v>
+        <v>1174.95</v>
       </c>
       <c r="T46">
-        <v>1220</v>
+        <v>1191.55</v>
       </c>
       <c r="U46">
-        <v>1170.1500000000001</v>
+        <v>1168.05</v>
       </c>
       <c r="V46">
-        <v>1174.55</v>
+        <v>1182.4000000000001</v>
       </c>
       <c r="W46">
-        <v>-13.450000000000051</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="X46">
-        <v>-1.1321548821548859</v>
+        <v>5.9236692900063087E-2</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>-1.6948443254101104</v>
+        <v>0.63406953487382822</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>1.6948443254101104</v>
+        <v>0.63406953487382822</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>2.1091396049548079</v>
+        <v>0.7738497970229925</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>0.37461155336085</v>
+        <v>0.58725903229925447</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>1168.5</v>
+        <v>1180</v>
       </c>
       <c r="AJ46">
-        <v>1191.5999999999999</v>
+        <v>1189</v>
       </c>
       <c r="AK46">
-        <v>1167.95</v>
+        <v>1164.7</v>
       </c>
       <c r="AL46">
-        <v>1188</v>
+        <v>1181.7</v>
       </c>
       <c r="AM46">
-        <v>20.25</v>
+        <v>7.1500000000000909</v>
       </c>
       <c r="AN46">
-        <v>1.7341040462427739</v>
+        <v>0.60874377421140791</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>1.6688061617458279</v>
+        <v>0.14406779661017333</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>1.6688061617458279</v>
+        <v>0.14406779661017333</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>0.30303030303029538</v>
+        <v>0.61775408310061386</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>4.7068891741545105E-2</v>
+        <v>1.2966101694915215</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>530.04999999999995</v>
+        <v>530.9</v>
       </c>
       <c r="C47">
-        <v>533.25</v>
+        <v>540</v>
       </c>
       <c r="D47">
-        <v>521.95000000000005</v>
+        <v>529.04999999999995</v>
       </c>
       <c r="E47">
-        <v>528.5</v>
+        <v>537.29999999999995</v>
       </c>
       <c r="F47">
-        <v>-1.200000000000045</v>
+        <v>6.75</v>
       </c>
       <c r="G47">
-        <v>-0.22654332641118469</v>
+        <v>1.272264631043257</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>-0.29242524290160449</v>
+        <v>1.2055000941796905</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>0.29242524290160449</v>
+        <v>1.2055000941796905</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>0.60371663050656466</v>
+        <v>0.50251256281407886</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>1.2393566698202374</v>
+        <v>0.34846487097382234</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>518.25</v>
+        <v>524.95000000000005</v>
       </c>
       <c r="T47">
-        <v>532.25</v>
+        <v>537</v>
       </c>
       <c r="U47">
-        <v>516.04999999999995</v>
+        <v>520.29999999999995</v>
       </c>
       <c r="V47">
-        <v>529.70000000000005</v>
+        <v>530.54999999999995</v>
       </c>
       <c r="W47">
-        <v>13.80000000000007</v>
+        <v>2.049999999999955</v>
       </c>
       <c r="X47">
-        <v>2.6749370032952262</v>
+        <v>0.38789025543991568</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>2.2093584177520587</v>
+        <v>1.0667682636441391</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>2.2093584177520587</v>
+        <v>1.0667682636441391</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>0.48140456862374065</v>
+        <v>1.215719536330232</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.42450554751568653</v>
+        <v>0.88579864749025439</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>507.95</v>
+        <v>530.04999999999995</v>
       </c>
       <c r="AJ47">
-        <v>519.79999999999995</v>
+        <v>533.25</v>
       </c>
       <c r="AK47">
-        <v>502</v>
+        <v>521.95000000000005</v>
       </c>
       <c r="AL47">
-        <v>515.9</v>
+        <v>528.5</v>
       </c>
       <c r="AM47">
-        <v>16.899999999999981</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="AN47">
-        <v>3.386773547094184</v>
+        <v>-0.22654332641118469</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>1.5651146766413997</v>
+        <v>-0.29242524290160449</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>1.5651146766413997</v>
+        <v>0.29242524290160449</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>0.75596045745299034</v>
+        <v>0.60371663050656466</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>1.1713751353479651</v>
+        <v>1.2393566698202374</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>3933</v>
+        <v>3983.9</v>
       </c>
       <c r="C48">
-        <v>3983.85</v>
+        <v>4019.4</v>
       </c>
       <c r="D48">
-        <v>3920.05</v>
+        <v>3950</v>
       </c>
       <c r="E48">
-        <v>3974.9</v>
+        <v>4002.6</v>
       </c>
       <c r="F48">
-        <v>43.450000000000273</v>
+        <v>33.650000000000091</v>
       </c>
       <c r="G48">
-        <v>1.105190197001114</v>
+        <v>0.8478312903916676</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>1.0653445207220975</v>
+        <v>0.46938929189989254</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>1.0653445207220975</v>
+        <v>0.46938929189989254</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>0.2251628971797987</v>
+        <v>0.41972717733473697</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>0.32926519196541615</v>
+        <v>0.85092497301639325</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>3917.1</v>
+        <v>3954.8</v>
       </c>
       <c r="T48">
-        <v>3954.95</v>
+        <v>4023.4</v>
       </c>
       <c r="U48">
-        <v>3885.15</v>
+        <v>3943.5</v>
       </c>
       <c r="V48">
-        <v>3931.45</v>
+        <v>3968.95</v>
       </c>
       <c r="W48">
-        <v>17.349999999999909</v>
+        <v>-5.9500000000002728</v>
       </c>
       <c r="X48">
-        <v>0.44326920620321159</v>
+        <v>-0.14968930035976441</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>0.36634244721860332</v>
+        <v>0.35779306159602597</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>0.36634244721860332</v>
+        <v>0.35779306159602597</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0.59774383497182981</v>
+        <v>1.3718993688507106</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>0.81565443823236117</v>
+        <v>0.28572873470213866</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>3899.95</v>
+        <v>3933</v>
       </c>
       <c r="AJ48">
-        <v>3969.7</v>
+        <v>3983.85</v>
       </c>
       <c r="AK48">
-        <v>3890</v>
+        <v>3920.05</v>
       </c>
       <c r="AL48">
-        <v>3914.1</v>
+        <v>3974.9</v>
       </c>
       <c r="AM48">
-        <v>10</v>
+        <v>43.450000000000273</v>
       </c>
       <c r="AN48">
-        <v>0.25614097999538937</v>
+        <v>1.105190197001114</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>0.36282516442518731</v>
+        <v>1.0653445207220975</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>0.36282516442518731</v>
+        <v>1.0653445207220975</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>1.4205053524437268</v>
+        <v>0.2251628971797987</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>0.25513147604456005</v>
+        <v>0.32926519196541615</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>132.5</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="C49">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D49">
-        <v>131.9</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="E49">
-        <v>134.30000000000001</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="F49">
-        <v>2.75</v>
+        <v>-3.3500000000000232</v>
       </c>
       <c r="G49">
-        <v>2.0904599011782592</v>
+        <v>-2.4944154877140901</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>1.3584905660377444</v>
+        <v>-3.5003684598378779</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>1.3584905660377444</v>
+        <v>3.5003684598378779</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>0.5212211466865142</v>
+        <v>0.22107590272661118</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>0.45283018867924096</v>
+        <v>0.95456281023291334</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>129.1</v>
+        <v>134</v>
       </c>
       <c r="T49">
-        <v>132.85</v>
+        <v>135</v>
       </c>
       <c r="U49">
-        <v>128.55000000000001</v>
+        <v>133.1</v>
       </c>
       <c r="V49">
-        <v>131.55000000000001</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="W49">
-        <v>1.9000000000000059</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>1.4654839953721599</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>1.8977536793183714</v>
+        <v>0.22388059701493385</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>1.8977536793183714</v>
+        <v>0.22388059701493385</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>0.98821740782970946</v>
+        <v>0.5212211466865142</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>0.42602633617349572</v>
+        <v>0.67164179104478039</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="AJ49">
-        <v>132.35</v>
+        <v>135</v>
       </c>
       <c r="AK49">
-        <v>128.5</v>
+        <v>131.9</v>
       </c>
       <c r="AL49">
-        <v>129.65</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="AM49">
-        <v>-2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AN49">
-        <v>-1.705837755875663</v>
+        <v>2.0904599011782592</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>-1.7803030303030261</v>
+        <v>1.3584905660377444</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>1.7803030303030261</v>
+        <v>1.3584905660377444</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>0.26515151515151081</v>
+        <v>0.5212211466865142</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.88700347088315135</v>
+        <v>0.45283018867924096</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C50">
-        <v>313.5</v>
+        <v>319</v>
       </c>
       <c r="D50">
-        <v>304.05</v>
+        <v>312.25</v>
       </c>
       <c r="E50">
-        <v>312.14999999999998</v>
+        <v>316.5</v>
       </c>
       <c r="F50">
-        <v>4.7999999999999554</v>
+        <v>4.8000000000000114</v>
       </c>
       <c r="G50">
-        <v>1.5617374328940801</v>
+        <v>1.539942252165547</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>1.6775244299674192</v>
+        <v>0.79617834394904463</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>1.6775244299674192</v>
+        <v>0.79617834394904463</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>0.43248438250841675</v>
+        <v>0.78988941548183245</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>0.96091205211726016</v>
+        <v>0.5573248407643312</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
+        <v>307.25</v>
+      </c>
+      <c r="T50">
+        <v>316.7</v>
+      </c>
+      <c r="U50">
         <v>307.2</v>
       </c>
-      <c r="T50">
-        <v>311.25</v>
-      </c>
-      <c r="U50">
-        <v>302.75</v>
-      </c>
       <c r="V50">
-        <v>307.35000000000002</v>
+        <v>311.7</v>
       </c>
       <c r="W50">
-        <v>0.15000000000003411</v>
+        <v>-0.44999999999998858</v>
       </c>
       <c r="X50">
-        <v>4.8828125000011102E-2</v>
+        <v>-0.14416146083613279</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>4.8828125000011102E-2</v>
+        <v>1.448331977217246</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>4.8828125000011102E-2</v>
+        <v>1.448331977217246</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>1.2689116642264444</v>
+        <v>1.6041065126724416</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>1.4485677083333297</v>
+        <v>1.6273393002444708E-2</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>293.25</v>
+        <v>307</v>
       </c>
       <c r="AJ50">
-        <v>308.55</v>
+        <v>313.5</v>
       </c>
       <c r="AK50">
-        <v>293.14999999999998</v>
+        <v>304.05</v>
       </c>
       <c r="AL50">
-        <v>307.2</v>
+        <v>312.14999999999998</v>
       </c>
       <c r="AM50">
-        <v>13.899999999999981</v>
+        <v>4.7999999999999554</v>
       </c>
       <c r="AN50">
-        <v>4.7391749062393371</v>
+        <v>1.5617374328940801</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>4.7570332480818376</v>
+        <v>1.6775244299674192</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>4.7570332480818376</v>
+        <v>1.6775244299674192</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>0.43945312500000744</v>
+        <v>0.43248438250841675</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>3.4100596760451067E-2</v>
+        <v>0.96091205211726016</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>218.5</v>
+        <v>223.4</v>
       </c>
       <c r="C51">
-        <v>219.35</v>
+        <v>226.65</v>
       </c>
       <c r="D51">
-        <v>213.65</v>
+        <v>219.2</v>
       </c>
       <c r="E51">
-        <v>215.85</v>
+        <v>220.3</v>
       </c>
       <c r="F51">
-        <v>-1.5999999999999941</v>
+        <v>-0.79999999999998295</v>
       </c>
       <c r="G51">
-        <v>-0.73580133363991462</v>
+        <v>-0.36182722749886159</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>-1.212814645308927</v>
+        <v>-1.3876454789615014</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>1.212814645308927</v>
+        <v>1.3876454789615014</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>0.38901601830663357</v>
+        <v>1.4547896150402866</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>1.0192263145702982</v>
+        <v>0.49931911030414106</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>218.5</v>
+        <v>215.45</v>
       </c>
       <c r="T51">
-        <v>220.2</v>
+        <v>224.65</v>
       </c>
       <c r="U51">
-        <v>216.3</v>
+        <v>215.25</v>
       </c>
       <c r="V51">
-        <v>217.45</v>
+        <v>221.1</v>
       </c>
       <c r="W51">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="X51">
-        <v>0.57816836262719706</v>
+        <v>2.432244614315497</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>-0.48054919908467342</v>
+        <v>2.6224181944766793</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>0.48054919908467342</v>
+        <v>2.6224181944766793</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>0.77803203661326714</v>
+        <v>1.6056083220262376</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.52885720855368012</v>
+        <v>9.2828962636337262E-2</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>222</v>
+        <v>218.5</v>
       </c>
       <c r="AJ51">
-        <v>224.7</v>
+        <v>219.35</v>
       </c>
       <c r="AK51">
-        <v>214.1</v>
+        <v>213.65</v>
       </c>
       <c r="AL51">
-        <v>216.2</v>
+        <v>215.85</v>
       </c>
       <c r="AM51">
-        <v>-1.9000000000000059</v>
+        <v>-1.5999999999999941</v>
       </c>
       <c r="AN51">
-        <v>-0.8711600183402135</v>
+        <v>-0.73580133363991462</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>-2.6126126126126179</v>
+        <v>-1.212814645308927</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>2.6126126126126179</v>
+        <v>1.212814645308927</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>1.2162162162162111</v>
+        <v>0.38901601830663357</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>0.97132284921368839</v>
+        <v>1.0192263145702982</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>
